--- a/AAII_Financials/Quarterly/CHK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CHK_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="92">
   <si>
     <t>CHK</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,197 +665,221 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="18" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2541000</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1916000</v>
+      </c>
+      <c r="F8" s="3">
         <v>2074000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>2385000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>2177000</v>
       </c>
-      <c r="G8" s="3">
-        <v>3069000</v>
-      </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
+        <v>3084000</v>
+      </c>
+      <c r="J8" s="3">
         <v>2434000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>2271000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>2505000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>2519000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>1943000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>2281000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>2753000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>2021000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>2276000</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>460000</v>
+      </c>
+      <c r="E9" s="3">
+        <v>449000</v>
+      </c>
+      <c r="F9" s="3">
         <v>459000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>477000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>439000</v>
       </c>
-      <c r="G9" s="3">
-        <v>492000</v>
-      </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
+        <v>984000</v>
+      </c>
+      <c r="J9" s="3">
         <v>530000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>504000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>532000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>551000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>541000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>518000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>512000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>594000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>650000</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>2081000</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1467000</v>
+      </c>
+      <c r="F10" s="3">
         <v>1615000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>1908000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>1738000</v>
       </c>
-      <c r="G10" s="3">
-        <v>2577000</v>
-      </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
+        <v>2100000</v>
+      </c>
+      <c r="J10" s="3">
         <v>1904000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>1767000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>1973000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>1968000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>1402000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>1763000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>2241000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>1427000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>1626000</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -872,37 +896,39 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>10000</v>
+      </c>
+      <c r="E12" s="3">
+        <v>22000</v>
+      </c>
+      <c r="F12" s="3">
         <v>16000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>8000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>6000</v>
       </c>
-      <c r="G12" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
+        <v>40000</v>
+      </c>
+      <c r="J12" s="3">
         <v>15000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>15000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>34000</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L12" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="M12" s="3" t="s">
         <v>8</v>
@@ -916,8 +942,14 @@
       <c r="P12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -960,96 +992,114 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>8839000</v>
+      </c>
+      <c r="E14" s="3">
+        <v>75000</v>
+      </c>
+      <c r="F14" s="3">
         <v>-52000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="G14" s="3">
         <v>34000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="H14" s="3">
         <v>80000</v>
       </c>
-      <c r="G14" s="3">
-        <v>-320000</v>
-      </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
+        <v>-323000</v>
+      </c>
+      <c r="J14" s="3">
         <v>141000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
         <v>63000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>100000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>-128000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>30000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="O14" s="3">
         <v>-148000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="P14" s="3">
         <v>396000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="Q14" s="3">
         <v>428000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="R14" s="3">
         <v>1169000</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>603000</v>
+      </c>
+      <c r="E15" s="3">
+        <v>592000</v>
+      </c>
+      <c r="F15" s="3">
         <v>573000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="G15" s="3">
         <v>580000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="H15" s="3">
         <v>519000</v>
       </c>
-      <c r="G15" s="3">
-        <v>278000</v>
-      </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
+        <v>402000</v>
+      </c>
+      <c r="J15" s="3">
         <v>696000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="K15" s="3">
         <v>761000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>745000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>306000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>248000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>223000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="P15" s="3">
         <v>218000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="Q15" s="3">
         <v>233000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="R15" s="3">
         <v>276000</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1063,96 +1113,110 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>10728000</v>
+      </c>
+      <c r="E17" s="3">
+        <v>2127000</v>
+      </c>
+      <c r="F17" s="3">
         <v>1958000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>2130000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>2360000</v>
       </c>
-      <c r="G17" s="3">
-        <v>2444000</v>
-      </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
+        <v>2335000</v>
+      </c>
+      <c r="J17" s="3">
         <v>2420000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>2431000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>2463000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>2064000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>1850000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>1691000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>2519000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>2687000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>3423000</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-8187000</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-211000</v>
+      </c>
+      <c r="F18" s="3">
         <v>116000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>255000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-183000</v>
       </c>
-      <c r="G18" s="3">
-        <v>625000</v>
-      </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
+        <v>749000</v>
+      </c>
+      <c r="J18" s="3">
         <v>14000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-160000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>42000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>455000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>93000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>590000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>234000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-666000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-1147000</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1169,228 +1233,260 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>50000</v>
+      </c>
+      <c r="E20" s="3">
+        <v>31000</v>
+      </c>
+      <c r="F20" s="3">
         <v>-1000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>18000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>9000</v>
       </c>
-      <c r="G20" s="3">
-        <v>25000</v>
-      </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
+        <v>24000</v>
+      </c>
+      <c r="J20" s="3">
         <v>30000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>81000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>162000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>28000</v>
-      </c>
-      <c r="L20" s="3">
-        <v>34000</v>
-      </c>
-      <c r="M20" s="3">
-        <v>41000</v>
       </c>
       <c r="N20" s="3">
         <v>34000</v>
       </c>
       <c r="O20" s="3">
+        <v>41000</v>
+      </c>
+      <c r="P20" s="3">
+        <v>34000</v>
+      </c>
+      <c r="Q20" s="3">
         <v>154000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>48000</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-7534000</v>
+      </c>
+      <c r="E21" s="3">
+        <v>412000</v>
+      </c>
+      <c r="F21" s="3">
         <v>688000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>853000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>345000</v>
       </c>
-      <c r="G21" s="3">
-        <v>460000</v>
-      </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
+        <v>1175000</v>
+      </c>
+      <c r="J21" s="3">
         <v>449000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>392000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>663000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>789000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>375000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>854000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>486000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-279000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-823000</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>189000</v>
+      </c>
+      <c r="E22" s="3">
+        <v>160000</v>
+      </c>
+      <c r="F22" s="3">
         <v>177000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>175000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>161000</v>
       </c>
-      <c r="G22" s="3">
-        <v>138000</v>
-      </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
+        <v>170000</v>
+      </c>
+      <c r="J22" s="3">
         <v>189000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>179000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>186000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>149000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>144000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>135000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>126000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>252000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>115000</v>
       </c>
     </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-8326000</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-340000</v>
+      </c>
+      <c r="F23" s="3">
         <v>-62000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>98000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-335000</v>
       </c>
-      <c r="G23" s="3">
-        <v>512000</v>
-      </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
+        <v>603000</v>
+      </c>
+      <c r="J23" s="3">
         <v>-145000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-258000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>18000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>334000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-17000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>496000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>142000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-764000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-1214000</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-13000</v>
+      </c>
+      <c r="E24" s="3">
+        <v>-16000</v>
+      </c>
+      <c r="F24" s="3">
         <v>-1000</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
         <v>-314000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>-2000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>1000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>-9000</v>
       </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
       <c r="L24" s="3">
         <v>0</v>
       </c>
       <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
         <v>1000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>1000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>-190000</v>
       </c>
-      <c r="P24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1433,96 +1529,114 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-8313000</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-324000</v>
+      </c>
+      <c r="F26" s="3">
         <v>-61000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>98000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-21000</v>
       </c>
-      <c r="G26" s="3">
-        <v>514000</v>
-      </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
+        <v>605000</v>
+      </c>
+      <c r="J26" s="3">
         <v>-146000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-249000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>18000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>334000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-17000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>495000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>141000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-574000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-1214000</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-8319000</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-346000</v>
+      </c>
+      <c r="F27" s="3">
         <v>-101000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>75000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-44000</v>
       </c>
-      <c r="G27" s="3">
-        <v>487000</v>
-      </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
+        <v>580000</v>
+      </c>
+      <c r="J27" s="3">
         <v>-170000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-272000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-8000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>307000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-41000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>470000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>75000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-973000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-1257000</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1565,8 +1679,14 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1609,8 +1729,14 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1653,8 +1779,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1697,96 +1829,114 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-50000</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-31000</v>
+      </c>
+      <c r="F32" s="3">
         <v>1000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-18000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-9000</v>
       </c>
-      <c r="G32" s="3">
-        <v>-25000</v>
-      </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
+        <v>-24000</v>
+      </c>
+      <c r="J32" s="3">
         <v>-30000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-81000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-162000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-28000</v>
-      </c>
-      <c r="L32" s="3">
-        <v>-34000</v>
-      </c>
-      <c r="M32" s="3">
-        <v>-41000</v>
       </c>
       <c r="N32" s="3">
         <v>-34000</v>
       </c>
       <c r="O32" s="3">
+        <v>-41000</v>
+      </c>
+      <c r="P32" s="3">
+        <v>-34000</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-154000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-48000</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-8319000</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-346000</v>
+      </c>
+      <c r="F33" s="3">
         <v>-101000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>75000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-44000</v>
       </c>
-      <c r="G33" s="3">
-        <v>487000</v>
-      </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
+        <v>580000</v>
+      </c>
+      <c r="J33" s="3">
         <v>-170000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-272000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-8000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>307000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-41000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>470000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>75000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-973000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-1257000</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1829,101 +1979,119 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-8319000</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-346000</v>
+      </c>
+      <c r="F35" s="3">
         <v>-101000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>75000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-44000</v>
       </c>
-      <c r="G35" s="3">
-        <v>487000</v>
-      </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
+        <v>580000</v>
+      </c>
+      <c r="J35" s="3">
         <v>-170000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-272000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-8000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>307000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-41000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>470000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>75000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-973000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-1257000</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1940,8 +2108,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1958,52 +2128,60 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>82000</v>
+      </c>
+      <c r="E41" s="3">
+        <v>6000</v>
+      </c>
+      <c r="F41" s="3">
         <v>14000</v>
-      </c>
-      <c r="E41" s="3">
-        <v>4000</v>
-      </c>
-      <c r="F41" s="3">
-        <v>8000</v>
       </c>
       <c r="G41" s="3">
         <v>4000</v>
       </c>
       <c r="H41" s="3">
+        <v>8000</v>
+      </c>
+      <c r="I41" s="3">
         <v>4000</v>
-      </c>
-      <c r="I41" s="3">
-        <v>3000</v>
       </c>
       <c r="J41" s="3">
         <v>4000</v>
       </c>
       <c r="K41" s="3">
+        <v>3000</v>
+      </c>
+      <c r="L41" s="3">
+        <v>4000</v>
+      </c>
+      <c r="M41" s="3">
         <v>5000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>5000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>13000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>249000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>882000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2046,52 +2224,64 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>762000</v>
+      </c>
+      <c r="E43" s="3">
+        <v>990000</v>
+      </c>
+      <c r="F43" s="3">
         <v>977000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>1021000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>1196000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>1247000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>1051000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>1060000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>1082000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>1322000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>992000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>1019000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>943000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>1057000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>893000</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2134,96 +2324,114 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>974000</v>
+      </c>
+      <c r="E45" s="3">
+        <v>255000</v>
+      </c>
+      <c r="F45" s="3">
         <v>412000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>359000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>161000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>347000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>180000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>177000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>138000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>198000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>181000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>215000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>168000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>203000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>170000</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1818000</v>
+      </c>
+      <c r="E46" s="3">
+        <v>1251000</v>
+      </c>
+      <c r="F46" s="3">
         <v>1403000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>1384000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>1365000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>1598000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>1235000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>1240000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>1224000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>1525000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>1178000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>1247000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>1360000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>2142000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>1067000</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2266,52 +2474,64 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>5823000</v>
+      </c>
+      <c r="E48" s="3">
+        <v>14768000</v>
+      </c>
+      <c r="F48" s="3">
         <v>14888000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>14858000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>14955000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>10803000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>11130000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>10839000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>10576000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>10664000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>10562000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>10397000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>10068000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>10580000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>10975000</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2354,8 +2574,14 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2398,8 +2624,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2442,52 +2674,64 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>167000</v>
+      </c>
+      <c r="E52" s="3">
+        <v>174000</v>
+      </c>
+      <c r="F52" s="3">
         <v>288000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>298000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>317000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>334000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>294000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>262000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>286000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>236000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>241000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>276000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>271000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>306000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>481000</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2530,52 +2774,64 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>7808000</v>
+      </c>
+      <c r="E54" s="3">
+        <v>16193000</v>
+      </c>
+      <c r="F54" s="3">
         <v>16579000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>16540000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>16637000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>12735000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>12659000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>12341000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>12086000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>12425000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>11981000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>11920000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>11699000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>13028000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>12523000</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2592,8 +2848,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2610,272 +2868,310 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>552000</v>
+      </c>
+      <c r="E57" s="3">
+        <v>498000</v>
+      </c>
+      <c r="F57" s="3">
         <v>526000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>611000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>751000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>763000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>670000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>742000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>657000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>654000</v>
-      </c>
-      <c r="L57" s="3">
-        <v>678000</v>
-      </c>
-      <c r="M57" s="3">
-        <v>718000</v>
       </c>
       <c r="N57" s="3">
         <v>678000</v>
       </c>
       <c r="O57" s="3">
+        <v>718000</v>
+      </c>
+      <c r="P57" s="3">
+        <v>678000</v>
+      </c>
+      <c r="Q57" s="3">
         <v>672000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>660000</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>420000</v>
+      </c>
+      <c r="E58" s="3">
+        <v>394000</v>
+      </c>
+      <c r="F58" s="3">
         <v>217000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>9000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>389000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>381000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>432000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>432000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>52000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>52000</v>
       </c>
-      <c r="L58" s="3">
-        <v>0</v>
-      </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+      <c r="O58" s="3">
         <v>3000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>15000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>503000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>656000</v>
       </c>
     </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1288000</v>
+      </c>
+      <c r="E59" s="3">
+        <v>1500000</v>
+      </c>
+      <c r="F59" s="3">
         <v>1605000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>1600000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>1790000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>1743000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>1874000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>1699000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>1645000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>1650000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>1540000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>1437000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>2095000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>2473000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>2290000</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2260000</v>
+      </c>
+      <c r="E60" s="3">
+        <v>2392000</v>
+      </c>
+      <c r="F60" s="3">
         <v>2348000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>2220000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>2930000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>2887000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>2976000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>2873000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>2354000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>2356000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>2218000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>2158000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>2788000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>3648000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>3606000</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>9163000</v>
+      </c>
+      <c r="E61" s="3">
+        <v>9082000</v>
+      </c>
+      <c r="F61" s="3">
         <v>9143000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>9713000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>9182000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>7341000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>9380000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>9238000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>9325000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>9921000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>9899000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>9850000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>9509000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>9938000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>9022000</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>309000</v>
+      </c>
+      <c r="E62" s="3">
+        <v>318000</v>
+      </c>
+      <c r="F62" s="3">
         <v>353000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>377000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>387000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>374000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>342000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>347000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>504000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>520000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>568000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>596000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>605000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>645000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>827000</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2918,8 +3214,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2962,8 +3264,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3006,52 +3314,64 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>11753000</v>
+      </c>
+      <c r="E66" s="3">
+        <v>11829000</v>
+      </c>
+      <c r="F66" s="3">
         <v>11883000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>12349000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>12540000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>10643000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>12821000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>12581000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>12306000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>12921000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>12938000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>12858000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>13158000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>14488000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>13714000</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3068,8 +3388,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3112,8 +3434,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3156,8 +3484,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3165,10 +3499,10 @@
         <v>1631000</v>
       </c>
       <c r="E70" s="3">
-        <v>1671000</v>
+        <v>1631000</v>
       </c>
       <c r="F70" s="3">
-        <v>1671000</v>
+        <v>1631000</v>
       </c>
       <c r="G70" s="3">
         <v>1671000</v>
@@ -3195,13 +3529,19 @@
         <v>1671000</v>
       </c>
       <c r="O70" s="3">
+        <v>1671000</v>
+      </c>
+      <c r="P70" s="3">
+        <v>1671000</v>
+      </c>
+      <c r="Q70" s="3">
         <v>1771000</v>
       </c>
-      <c r="P70" s="3">
+      <c r="R70" s="3">
         <v>3036000</v>
       </c>
     </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3244,52 +3584,64 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-22517000</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-14220000</v>
+      </c>
+      <c r="F72" s="3">
         <v>-13896000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-13835000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-13933000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-13912000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-16173000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-16257000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-16240000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-16525000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-16987000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-16969000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-17463000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-17603000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-17028000</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3332,8 +3684,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3376,8 +3734,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3420,52 +3784,64 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-5576000</v>
+      </c>
+      <c r="E76" s="3">
+        <v>2733000</v>
+      </c>
+      <c r="F76" s="3">
         <v>3065000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>2520000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>2426000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>421000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-1833000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-1911000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-1891000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-2167000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-2628000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-2609000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-3130000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>-3231000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-4227000</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3508,101 +3884,119 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-8319000</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-346000</v>
+      </c>
+      <c r="F81" s="3">
         <v>-101000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>75000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-44000</v>
       </c>
-      <c r="G81" s="3">
-        <v>487000</v>
-      </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
+        <v>580000</v>
+      </c>
+      <c r="J81" s="3">
         <v>-170000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-272000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-8000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>307000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-41000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>470000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>75000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-973000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-1257000</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3619,52 +4013,60 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>603000</v>
+      </c>
+      <c r="E83" s="3">
+        <v>592000</v>
+      </c>
+      <c r="F83" s="3">
         <v>573000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>580000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>519000</v>
       </c>
-      <c r="G83" s="3">
-        <v>-190000</v>
-      </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
+        <v>402000</v>
+      </c>
+      <c r="J83" s="3">
         <v>405000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>471000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>459000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>306000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>248000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>223000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>218000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>233000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>276000</v>
       </c>
     </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3707,8 +4109,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3751,8 +4159,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3795,8 +4209,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3839,8 +4259,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3883,52 +4309,64 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>397000</v>
+      </c>
+      <c r="E89" s="3">
+        <v>441000</v>
+      </c>
+      <c r="F89" s="3">
         <v>329000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>397000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>456000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>405000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>504000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>435000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>656000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>472000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>331000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-157000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>99000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-254000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>376000</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3945,52 +4383,60 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-8000</v>
+      </c>
+      <c r="F91" s="3">
         <v>-10000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-11000</v>
-      </c>
-      <c r="F91" s="3">
-        <v>-6000</v>
-      </c>
-      <c r="G91" s="3">
-        <v>-10000</v>
       </c>
       <c r="H91" s="3">
         <v>-6000</v>
       </c>
       <c r="I91" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="K91" s="3">
         <v>-2000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-3000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-9000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-5000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-4000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-531000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>1006000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-1006000</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4033,8 +4479,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4077,52 +4529,64 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-511000</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-545000</v>
+      </c>
+      <c r="F94" s="3">
         <v>-563000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-516000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-856000</v>
       </c>
-      <c r="G94" s="3">
-        <v>1177000</v>
-      </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
+        <v>1447000</v>
+      </c>
+      <c r="J94" s="3">
         <v>-489000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-524000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>21000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-586000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-379000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-603000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>380000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-81000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-480000</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4139,8 +4603,10 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4183,8 +4649,14 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4227,8 +4699,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4271,8 +4749,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4315,52 +4799,64 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>190000</v>
+      </c>
+      <c r="E100" s="3">
+        <v>96000</v>
+      </c>
+      <c r="F100" s="3">
         <v>244000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>115000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>404000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-1782000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>46000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>160000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-610000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>114000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>40000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>524000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-1112000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>1213000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>104000</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4403,48 +4899,60 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>76000</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-8000</v>
+      </c>
+      <c r="F102" s="3">
         <v>10000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-4000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>4000</v>
       </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
         <v>1000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-1000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-1000</v>
       </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
         <v>-8000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-236000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-633000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>878000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CHK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CHK_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,221 +665,257 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="18" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="21" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="F7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="U7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1230000</v>
+      </c>
+      <c r="E8" s="3">
+        <v>974000</v>
+      </c>
+      <c r="F8" s="3">
+        <v>521000</v>
+      </c>
+      <c r="G8" s="3">
         <v>2541000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="H8" s="3">
         <v>1916000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="I8" s="3">
         <v>2074000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="J8" s="3">
         <v>2385000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="K8" s="3">
         <v>2177000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="L8" s="3">
         <v>3084000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="M8" s="3">
         <v>2434000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="N8" s="3">
         <v>2271000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="O8" s="3">
         <v>2505000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="P8" s="3">
         <v>2519000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="Q8" s="3">
         <v>1943000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="R8" s="3">
         <v>2281000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="S8" s="3">
         <v>2753000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="T8" s="3">
         <v>2021000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="U8" s="3">
         <v>2276000</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>380000</v>
+      </c>
+      <c r="E9" s="3">
+        <v>377000</v>
+      </c>
+      <c r="F9" s="3">
+        <v>386000</v>
+      </c>
+      <c r="G9" s="3">
         <v>460000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="H9" s="3">
         <v>449000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="I9" s="3">
         <v>459000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="J9" s="3">
         <v>477000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="K9" s="3">
         <v>439000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="L9" s="3">
         <v>984000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="M9" s="3">
         <v>530000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="N9" s="3">
         <v>504000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="O9" s="3">
         <v>532000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="P9" s="3">
         <v>551000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="Q9" s="3">
         <v>541000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="R9" s="3">
         <v>518000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="S9" s="3">
         <v>512000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="T9" s="3">
         <v>594000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="U9" s="3">
         <v>650000</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>850000</v>
+      </c>
+      <c r="E10" s="3">
+        <v>597000</v>
+      </c>
+      <c r="F10" s="3">
+        <v>135000</v>
+      </c>
+      <c r="G10" s="3">
         <v>2081000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="H10" s="3">
         <v>1467000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="I10" s="3">
         <v>1615000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="J10" s="3">
         <v>1908000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="K10" s="3">
         <v>1738000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="L10" s="3">
         <v>2100000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="M10" s="3">
         <v>1904000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="N10" s="3">
         <v>1767000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="O10" s="3">
         <v>1973000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="P10" s="3">
         <v>1968000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="Q10" s="3">
         <v>1402000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="R10" s="3">
         <v>1763000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="S10" s="3">
         <v>2241000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="T10" s="3">
         <v>1427000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="U10" s="3">
         <v>1626000</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -898,46 +934,49 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E12" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F12" s="3">
+        <v>3000</v>
+      </c>
+      <c r="G12" s="3">
         <v>10000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="H12" s="3">
         <v>22000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="I12" s="3">
         <v>16000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="J12" s="3">
         <v>8000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="K12" s="3">
         <v>6000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="L12" s="3">
         <v>40000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="M12" s="3">
         <v>15000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="N12" s="3">
         <v>15000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="O12" s="3">
         <v>34000</v>
-      </c>
-      <c r="M12" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N12" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O12" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="P12" s="3" t="s">
         <v>8</v>
@@ -948,8 +987,17 @@
       <c r="R12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -998,108 +1046,135 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="E14" s="3">
+        <v>134000</v>
+      </c>
+      <c r="F14" s="3">
+        <v>-239000</v>
+      </c>
+      <c r="G14" s="3">
         <v>8839000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="H14" s="3">
         <v>75000</v>
       </c>
-      <c r="F14" s="3">
-        <v>-52000</v>
-      </c>
-      <c r="G14" s="3">
+      <c r="I14" s="3">
+        <v>-48000</v>
+      </c>
+      <c r="J14" s="3">
         <v>34000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="K14" s="3">
         <v>80000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="L14" s="3">
         <v>-323000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="M14" s="3">
         <v>141000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="N14" s="3">
         <v>63000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="O14" s="3">
         <v>100000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="P14" s="3">
         <v>-128000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="Q14" s="3">
         <v>30000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="R14" s="3">
         <v>-148000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="S14" s="3">
         <v>396000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="T14" s="3">
         <v>428000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="U14" s="3">
         <v>1169000</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>166000</v>
+      </c>
+      <c r="E15" s="3">
+        <v>170000</v>
+      </c>
+      <c r="F15" s="3">
+        <v>158000</v>
+      </c>
+      <c r="G15" s="3">
         <v>603000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="H15" s="3">
         <v>592000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="I15" s="3">
         <v>573000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="J15" s="3">
         <v>580000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="K15" s="3">
         <v>519000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="L15" s="3">
         <v>402000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="M15" s="3">
         <v>696000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="N15" s="3">
         <v>761000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="O15" s="3">
         <v>745000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="P15" s="3">
         <v>306000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="Q15" s="3">
         <v>248000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="R15" s="3">
         <v>223000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="S15" s="3">
         <v>218000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="T15" s="3">
         <v>233000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="U15" s="3">
         <v>276000</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1115,108 +1190,129 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1015000</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1191000</v>
+      </c>
+      <c r="F17" s="3">
+        <v>666000</v>
+      </c>
+      <c r="G17" s="3">
         <v>10728000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="H17" s="3">
         <v>2127000</v>
       </c>
-      <c r="F17" s="3">
-        <v>1958000</v>
-      </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
+        <v>1962000</v>
+      </c>
+      <c r="J17" s="3">
         <v>2130000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="K17" s="3">
         <v>2360000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="L17" s="3">
         <v>2335000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="M17" s="3">
         <v>2420000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="N17" s="3">
         <v>2431000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="O17" s="3">
         <v>2463000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="P17" s="3">
         <v>2064000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="Q17" s="3">
         <v>1850000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="R17" s="3">
         <v>1691000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="S17" s="3">
         <v>2519000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="T17" s="3">
         <v>2687000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="U17" s="3">
         <v>3423000</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>215000</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-217000</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-145000</v>
+      </c>
+      <c r="G18" s="3">
         <v>-8187000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="H18" s="3">
         <v>-211000</v>
       </c>
-      <c r="F18" s="3">
-        <v>116000</v>
-      </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
+        <v>112000</v>
+      </c>
+      <c r="J18" s="3">
         <v>255000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="K18" s="3">
         <v>-183000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="L18" s="3">
         <v>749000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="M18" s="3">
         <v>14000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="N18" s="3">
         <v>-160000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="O18" s="3">
         <v>42000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="P18" s="3">
         <v>455000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="Q18" s="3">
         <v>93000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="R18" s="3">
         <v>590000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="S18" s="3">
         <v>234000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="T18" s="3">
         <v>-666000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="U18" s="3">
         <v>-1147000</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1235,258 +1331,306 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-614000</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-505000</v>
+      </c>
+      <c r="F20" s="3">
+        <v>49000</v>
+      </c>
+      <c r="G20" s="3">
         <v>50000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="H20" s="3">
         <v>31000</v>
       </c>
-      <c r="F20" s="3">
-        <v>-1000</v>
-      </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
+        <v>3000</v>
+      </c>
+      <c r="J20" s="3">
         <v>18000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="K20" s="3">
         <v>9000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="L20" s="3">
         <v>24000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="M20" s="3">
         <v>30000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="N20" s="3">
         <v>81000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="O20" s="3">
         <v>162000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="P20" s="3">
         <v>28000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="Q20" s="3">
         <v>34000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="R20" s="3">
         <v>41000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="S20" s="3">
         <v>34000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="T20" s="3">
         <v>154000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="U20" s="3">
         <v>48000</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-233000</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-552000</v>
+      </c>
+      <c r="F21" s="3">
+        <v>62000</v>
+      </c>
+      <c r="G21" s="3">
         <v>-7534000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="H21" s="3">
         <v>412000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="I21" s="3">
         <v>688000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="J21" s="3">
         <v>853000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="K21" s="3">
         <v>345000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="L21" s="3">
         <v>1175000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="M21" s="3">
         <v>449000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="N21" s="3">
         <v>392000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="O21" s="3">
         <v>663000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="P21" s="3">
         <v>789000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="Q21" s="3">
         <v>375000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="R21" s="3">
         <v>854000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="S21" s="3">
         <v>486000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="T21" s="3">
         <v>-279000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="U21" s="3">
         <v>-823000</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>23000</v>
+      </c>
+      <c r="E22" s="3">
+        <v>23000</v>
+      </c>
+      <c r="F22" s="3">
+        <v>180000</v>
+      </c>
+      <c r="G22" s="3">
         <v>189000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="H22" s="3">
         <v>160000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="I22" s="3">
         <v>177000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="J22" s="3">
         <v>175000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="K22" s="3">
         <v>161000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="L22" s="3">
         <v>170000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="M22" s="3">
         <v>189000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="N22" s="3">
         <v>179000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="O22" s="3">
         <v>186000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="P22" s="3">
         <v>149000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="Q22" s="3">
         <v>144000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="R22" s="3">
         <v>135000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="S22" s="3">
         <v>126000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="T22" s="3">
         <v>252000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="U22" s="3">
         <v>115000</v>
       </c>
     </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-422000</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-745000</v>
+      </c>
+      <c r="F23" s="3">
+        <v>-276000</v>
+      </c>
+      <c r="G23" s="3">
         <v>-8326000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="H23" s="3">
         <v>-340000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="I23" s="3">
         <v>-62000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="J23" s="3">
         <v>98000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="K23" s="3">
         <v>-335000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="L23" s="3">
         <v>603000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="M23" s="3">
         <v>-145000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="N23" s="3">
         <v>-258000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="O23" s="3">
         <v>18000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="P23" s="3">
         <v>334000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="Q23" s="3">
         <v>-17000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="R23" s="3">
         <v>496000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="S23" s="3">
         <v>142000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="T23" s="3">
         <v>-764000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="U23" s="3">
         <v>-1214000</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
         <v>-13000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="H24" s="3">
         <v>-16000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="I24" s="3">
         <v>-1000</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
         <v>-314000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="L24" s="3">
         <v>-2000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="M24" s="3">
         <v>1000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="N24" s="3">
         <v>-9000</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
-      <c r="N24" s="3">
-        <v>0</v>
-      </c>
       <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
         <v>1000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="S24" s="3">
         <v>1000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="T24" s="3">
         <v>-190000</v>
       </c>
-      <c r="R24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1535,108 +1679,135 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-416000</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-745000</v>
+      </c>
+      <c r="F26" s="3">
+        <v>-276000</v>
+      </c>
+      <c r="G26" s="3">
         <v>-8313000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="H26" s="3">
         <v>-324000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="I26" s="3">
         <v>-61000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="J26" s="3">
         <v>98000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="K26" s="3">
         <v>-21000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="L26" s="3">
         <v>605000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="M26" s="3">
         <v>-146000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="N26" s="3">
         <v>-249000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="O26" s="3">
         <v>18000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="P26" s="3">
         <v>334000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="Q26" s="3">
         <v>-17000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="R26" s="3">
         <v>495000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="S26" s="3">
         <v>141000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="T26" s="3">
         <v>-574000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="U26" s="3">
         <v>-1214000</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-416000</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-745000</v>
+      </c>
+      <c r="F27" s="3">
+        <v>-276000</v>
+      </c>
+      <c r="G27" s="3">
         <v>-8319000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="H27" s="3">
         <v>-346000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="I27" s="3">
         <v>-101000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="J27" s="3">
         <v>75000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="K27" s="3">
         <v>-44000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="L27" s="3">
         <v>580000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="M27" s="3">
         <v>-170000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="N27" s="3">
         <v>-272000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="O27" s="3">
         <v>-8000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="P27" s="3">
         <v>307000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="Q27" s="3">
         <v>-41000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="R27" s="3">
         <v>470000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="S27" s="3">
         <v>75000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="T27" s="3">
         <v>-973000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="U27" s="3">
         <v>-1257000</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1685,8 +1856,17 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1735,8 +1915,17 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1785,8 +1974,17 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1835,108 +2033,135 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>614000</v>
+      </c>
+      <c r="E32" s="3">
+        <v>505000</v>
+      </c>
+      <c r="F32" s="3">
+        <v>-49000</v>
+      </c>
+      <c r="G32" s="3">
         <v>-50000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="H32" s="3">
         <v>-31000</v>
       </c>
-      <c r="F32" s="3">
-        <v>1000</v>
-      </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="J32" s="3">
         <v>-18000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="K32" s="3">
         <v>-9000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="L32" s="3">
         <v>-24000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="M32" s="3">
         <v>-30000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="N32" s="3">
         <v>-81000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="O32" s="3">
         <v>-162000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="P32" s="3">
         <v>-28000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="Q32" s="3">
         <v>-34000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="R32" s="3">
         <v>-41000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="S32" s="3">
         <v>-34000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="T32" s="3">
         <v>-154000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="U32" s="3">
         <v>-48000</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-416000</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-745000</v>
+      </c>
+      <c r="F33" s="3">
+        <v>-276000</v>
+      </c>
+      <c r="G33" s="3">
         <v>-8319000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="H33" s="3">
         <v>-346000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="I33" s="3">
         <v>-101000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="J33" s="3">
         <v>75000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="K33" s="3">
         <v>-44000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="L33" s="3">
         <v>580000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="M33" s="3">
         <v>-170000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="N33" s="3">
         <v>-272000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="O33" s="3">
         <v>-8000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="P33" s="3">
         <v>307000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="Q33" s="3">
         <v>-41000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="R33" s="3">
         <v>470000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="S33" s="3">
         <v>75000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="T33" s="3">
         <v>-973000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="U33" s="3">
         <v>-1257000</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1985,113 +2210,140 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-416000</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-745000</v>
+      </c>
+      <c r="F35" s="3">
+        <v>-276000</v>
+      </c>
+      <c r="G35" s="3">
         <v>-8319000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="H35" s="3">
         <v>-346000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="I35" s="3">
         <v>-101000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="J35" s="3">
         <v>75000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="K35" s="3">
         <v>-44000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="L35" s="3">
         <v>580000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="M35" s="3">
         <v>-170000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="N35" s="3">
         <v>-272000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="O35" s="3">
         <v>-8000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="P35" s="3">
         <v>307000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="Q35" s="3">
         <v>-41000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="R35" s="3">
         <v>470000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="S35" s="3">
         <v>75000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="T35" s="3">
         <v>-973000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="U35" s="3">
         <v>-1257000</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="F38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="U38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2110,8 +2362,11 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+      <c r="T39" s="3"/>
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2130,58 +2385,70 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+      <c r="T40" s="3"/>
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>279000</v>
+      </c>
+      <c r="E41" s="3">
+        <v>306000</v>
+      </c>
+      <c r="F41" s="3">
         <v>82000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
+        <v>82000</v>
+      </c>
+      <c r="H41" s="3">
         <v>6000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="I41" s="3">
         <v>14000</v>
-      </c>
-      <c r="G41" s="3">
-        <v>4000</v>
-      </c>
-      <c r="H41" s="3">
-        <v>8000</v>
-      </c>
-      <c r="I41" s="3">
-        <v>4000</v>
       </c>
       <c r="J41" s="3">
         <v>4000</v>
       </c>
       <c r="K41" s="3">
-        <v>3000</v>
+        <v>8000</v>
       </c>
       <c r="L41" s="3">
         <v>4000</v>
       </c>
       <c r="M41" s="3">
+        <v>4000</v>
+      </c>
+      <c r="N41" s="3">
+        <v>3000</v>
+      </c>
+      <c r="O41" s="3">
+        <v>4000</v>
+      </c>
+      <c r="P41" s="3">
         <v>5000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="Q41" s="3">
         <v>5000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="R41" s="3">
         <v>13000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="S41" s="3">
         <v>249000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="T41" s="3">
         <v>882000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="U41" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2230,58 +2497,76 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>746000</v>
+      </c>
+      <c r="E43" s="3">
+        <v>676000</v>
+      </c>
+      <c r="F43" s="3">
+        <v>513000</v>
+      </c>
+      <c r="G43" s="3">
         <v>762000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="H43" s="3">
         <v>990000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="I43" s="3">
         <v>977000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="J43" s="3">
         <v>1021000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="K43" s="3">
         <v>1196000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="L43" s="3">
         <v>1247000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="M43" s="3">
         <v>1051000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="N43" s="3">
         <v>1060000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="O43" s="3">
         <v>1082000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="P43" s="3">
         <v>1322000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="Q43" s="3">
         <v>992000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="R43" s="3">
         <v>1019000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="S43" s="3">
         <v>943000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="T43" s="3">
         <v>1057000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="U43" s="3">
         <v>893000</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2330,108 +2615,135 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>83000</v>
+      </c>
+      <c r="E45" s="3">
+        <v>90000</v>
+      </c>
+      <c r="F45" s="3">
+        <v>95000</v>
+      </c>
+      <c r="G45" s="3">
         <v>974000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="H45" s="3">
         <v>255000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="I45" s="3">
         <v>412000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="J45" s="3">
         <v>359000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="K45" s="3">
         <v>161000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="L45" s="3">
         <v>347000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="M45" s="3">
         <v>180000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="N45" s="3">
         <v>177000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="O45" s="3">
         <v>138000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="P45" s="3">
         <v>198000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="Q45" s="3">
         <v>181000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="R45" s="3">
         <v>215000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="S45" s="3">
         <v>168000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="T45" s="3">
         <v>203000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="U45" s="3">
         <v>170000</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1108000</v>
+      </c>
+      <c r="E46" s="3">
+        <v>1072000</v>
+      </c>
+      <c r="F46" s="3">
+        <v>690000</v>
+      </c>
+      <c r="G46" s="3">
         <v>1818000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="H46" s="3">
         <v>1251000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="I46" s="3">
         <v>1403000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="J46" s="3">
         <v>1384000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="K46" s="3">
         <v>1365000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="L46" s="3">
         <v>1598000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="M46" s="3">
         <v>1235000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="N46" s="3">
         <v>1240000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="O46" s="3">
         <v>1224000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="P46" s="3">
         <v>1525000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="Q46" s="3">
         <v>1178000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="R46" s="3">
         <v>1247000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="S46" s="3">
         <v>1360000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="T46" s="3">
         <v>2142000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="U46" s="3">
         <v>1067000</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2480,58 +2792,76 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>5232000</v>
+      </c>
+      <c r="E48" s="3">
+        <v>5636000</v>
+      </c>
+      <c r="F48" s="3">
+        <v>5692000</v>
+      </c>
+      <c r="G48" s="3">
         <v>5823000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="H48" s="3">
         <v>14768000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="I48" s="3">
         <v>14888000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="J48" s="3">
         <v>14858000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="K48" s="3">
         <v>14955000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="L48" s="3">
         <v>10803000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="M48" s="3">
         <v>11130000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="N48" s="3">
         <v>10839000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="O48" s="3">
         <v>10576000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="P48" s="3">
         <v>10664000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="Q48" s="3">
         <v>10562000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="R48" s="3">
         <v>10397000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="S48" s="3">
         <v>10068000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="T48" s="3">
         <v>10580000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="U48" s="3">
         <v>10975000</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2580,8 +2910,17 @@
       <c r="R49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2630,8 +2969,17 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2680,58 +3028,76 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>244000</v>
+      </c>
+      <c r="E52" s="3">
+        <v>195000</v>
+      </c>
+      <c r="F52" s="3">
+        <v>171000</v>
+      </c>
+      <c r="G52" s="3">
         <v>167000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="H52" s="3">
         <v>174000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="I52" s="3">
         <v>288000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="J52" s="3">
         <v>298000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="K52" s="3">
         <v>317000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="L52" s="3">
         <v>334000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="M52" s="3">
         <v>294000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="N52" s="3">
         <v>262000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="O52" s="3">
         <v>286000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="P52" s="3">
         <v>236000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="Q52" s="3">
         <v>241000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="R52" s="3">
         <v>276000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="S52" s="3">
         <v>271000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="T52" s="3">
         <v>306000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="U52" s="3">
         <v>481000</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2780,58 +3146,76 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>6584000</v>
+      </c>
+      <c r="E54" s="3">
+        <v>6903000</v>
+      </c>
+      <c r="F54" s="3">
+        <v>6553000</v>
+      </c>
+      <c r="G54" s="3">
         <v>7808000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="H54" s="3">
         <v>16193000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="I54" s="3">
         <v>16579000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="J54" s="3">
         <v>16540000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="K54" s="3">
         <v>16637000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="L54" s="3">
         <v>12735000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="M54" s="3">
         <v>12659000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="N54" s="3">
         <v>12341000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="O54" s="3">
         <v>12086000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="P54" s="3">
         <v>12425000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="Q54" s="3">
         <v>11981000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="R54" s="3">
         <v>11920000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="S54" s="3">
         <v>11699000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="T54" s="3">
         <v>13028000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="U54" s="3">
         <v>12523000</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2850,8 +3234,11 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+      <c r="T55" s="3"/>
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2870,308 +3257,365 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+      <c r="T56" s="3"/>
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>346000</v>
+      </c>
+      <c r="E57" s="3">
+        <v>316000</v>
+      </c>
+      <c r="F57" s="3">
+        <v>39000</v>
+      </c>
+      <c r="G57" s="3">
         <v>552000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="H57" s="3">
         <v>498000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="I57" s="3">
         <v>526000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="J57" s="3">
         <v>611000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="K57" s="3">
         <v>751000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="L57" s="3">
         <v>763000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="M57" s="3">
         <v>670000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="N57" s="3">
         <v>742000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="O57" s="3">
         <v>657000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="P57" s="3">
         <v>654000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="Q57" s="3">
         <v>678000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="R57" s="3">
         <v>718000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="S57" s="3">
         <v>678000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="T57" s="3">
         <v>672000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="U57" s="3">
         <v>660000</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1938000</v>
+      </c>
+      <c r="E58" s="3">
+        <v>1929000</v>
+      </c>
+      <c r="F58" s="3">
+        <v>1929000</v>
+      </c>
+      <c r="G58" s="3">
         <v>420000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="H58" s="3">
         <v>394000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="I58" s="3">
         <v>217000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="J58" s="3">
         <v>9000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="K58" s="3">
         <v>389000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="L58" s="3">
         <v>381000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="M58" s="3">
         <v>432000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="N58" s="3">
         <v>432000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="O58" s="3">
         <v>52000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="P58" s="3">
         <v>52000</v>
       </c>
-      <c r="N58" s="3">
-        <v>0</v>
-      </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+      <c r="R58" s="3">
         <v>3000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="S58" s="3">
         <v>15000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="T58" s="3">
         <v>503000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="U58" s="3">
         <v>656000</v>
       </c>
     </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>810000</v>
+      </c>
+      <c r="E59" s="3">
+        <v>860000</v>
+      </c>
+      <c r="F59" s="3">
+        <v>421000</v>
+      </c>
+      <c r="G59" s="3">
         <v>1288000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="H59" s="3">
         <v>1500000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="I59" s="3">
         <v>1605000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="J59" s="3">
         <v>1600000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="K59" s="3">
         <v>1790000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="L59" s="3">
         <v>1743000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="M59" s="3">
         <v>1874000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="N59" s="3">
         <v>1699000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="O59" s="3">
         <v>1645000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="P59" s="3">
         <v>1650000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="Q59" s="3">
         <v>1540000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="R59" s="3">
         <v>1437000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="S59" s="3">
         <v>2095000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="T59" s="3">
         <v>2473000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="U59" s="3">
         <v>2290000</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3094000</v>
+      </c>
+      <c r="E60" s="3">
+        <v>3105000</v>
+      </c>
+      <c r="F60" s="3">
+        <v>2389000</v>
+      </c>
+      <c r="G60" s="3">
         <v>2260000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="H60" s="3">
         <v>2392000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="I60" s="3">
         <v>2348000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="J60" s="3">
         <v>2220000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="K60" s="3">
         <v>2930000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="L60" s="3">
         <v>2887000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="M60" s="3">
         <v>2976000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="N60" s="3">
         <v>2873000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="O60" s="3">
         <v>2354000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="P60" s="3">
         <v>2356000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="Q60" s="3">
         <v>2218000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="R60" s="3">
         <v>2158000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="S60" s="3">
         <v>2788000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="T60" s="3">
         <v>3648000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="U60" s="3">
         <v>3606000</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1064000</v>
+      </c>
+      <c r="E61" s="3">
+        <v>1064000</v>
+      </c>
+      <c r="F61" s="3">
+        <v>1064000</v>
+      </c>
+      <c r="G61" s="3">
         <v>9163000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="H61" s="3">
         <v>9082000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="I61" s="3">
         <v>9143000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="J61" s="3">
         <v>9713000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="K61" s="3">
         <v>9182000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="L61" s="3">
         <v>7341000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="M61" s="3">
         <v>9380000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="N61" s="3">
         <v>9238000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="O61" s="3">
         <v>9325000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="P61" s="3">
         <v>9921000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="Q61" s="3">
         <v>9899000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="R61" s="3">
         <v>9850000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="S61" s="3">
         <v>9509000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="T61" s="3">
         <v>9938000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="U61" s="3">
         <v>9022000</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>7767000</v>
+      </c>
+      <c r="E62" s="3">
+        <v>7653000</v>
+      </c>
+      <c r="F62" s="3">
+        <v>7288000</v>
+      </c>
+      <c r="G62" s="3">
         <v>309000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="H62" s="3">
         <v>318000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="I62" s="3">
         <v>353000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="J62" s="3">
         <v>377000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="K62" s="3">
         <v>387000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="L62" s="3">
         <v>374000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="M62" s="3">
         <v>342000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="N62" s="3">
         <v>347000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="O62" s="3">
         <v>504000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="P62" s="3">
         <v>520000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="Q62" s="3">
         <v>568000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="R62" s="3">
         <v>596000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="S62" s="3">
         <v>605000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="T62" s="3">
         <v>645000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="U62" s="3">
         <v>827000</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3220,8 +3664,17 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3270,8 +3723,17 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3320,58 +3782,76 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>11925000</v>
+      </c>
+      <c r="E66" s="3">
+        <v>11843000</v>
+      </c>
+      <c r="F66" s="3">
+        <v>10762000</v>
+      </c>
+      <c r="G66" s="3">
         <v>11753000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="H66" s="3">
         <v>11829000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="I66" s="3">
         <v>11883000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="J66" s="3">
         <v>12349000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="K66" s="3">
         <v>12540000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="L66" s="3">
         <v>10643000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="M66" s="3">
         <v>12821000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="N66" s="3">
         <v>12581000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="O66" s="3">
         <v>12306000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="P66" s="3">
         <v>12921000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="Q66" s="3">
         <v>12938000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="R66" s="3">
         <v>12858000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="S66" s="3">
         <v>13158000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="T66" s="3">
         <v>14488000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="U66" s="3">
         <v>13714000</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3390,8 +3870,11 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+      <c r="T67" s="3"/>
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3440,8 +3923,17 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3490,8 +3982,17 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3505,13 +4006,13 @@
         <v>1631000</v>
       </c>
       <c r="G70" s="3">
-        <v>1671000</v>
+        <v>1631000</v>
       </c>
       <c r="H70" s="3">
-        <v>1671000</v>
+        <v>1631000</v>
       </c>
       <c r="I70" s="3">
-        <v>1671000</v>
+        <v>1631000</v>
       </c>
       <c r="J70" s="3">
         <v>1671000</v>
@@ -3535,13 +4036,22 @@
         <v>1671000</v>
       </c>
       <c r="Q70" s="3">
+        <v>1671000</v>
+      </c>
+      <c r="R70" s="3">
+        <v>1671000</v>
+      </c>
+      <c r="S70" s="3">
+        <v>1671000</v>
+      </c>
+      <c r="T70" s="3">
         <v>1771000</v>
       </c>
-      <c r="R70" s="3">
+      <c r="U70" s="3">
         <v>3036000</v>
       </c>
     </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3590,58 +4100,76 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-23954000</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-23538000</v>
+      </c>
+      <c r="F72" s="3">
+        <v>-22793000</v>
+      </c>
+      <c r="G72" s="3">
         <v>-22517000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="H72" s="3">
         <v>-14220000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="I72" s="3">
         <v>-13896000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="J72" s="3">
         <v>-13835000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="K72" s="3">
         <v>-13933000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="L72" s="3">
         <v>-13912000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="M72" s="3">
         <v>-16173000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="N72" s="3">
         <v>-16257000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="O72" s="3">
         <v>-16240000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="P72" s="3">
         <v>-16525000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="Q72" s="3">
         <v>-16987000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="R72" s="3">
         <v>-16969000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="S72" s="3">
         <v>-17463000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="T72" s="3">
         <v>-17603000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="U72" s="3">
         <v>-17028000</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3690,8 +4218,17 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3740,8 +4277,17 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3790,58 +4336,76 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-6972000</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-6571000</v>
+      </c>
+      <c r="F76" s="3">
+        <v>-5840000</v>
+      </c>
+      <c r="G76" s="3">
         <v>-5576000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="H76" s="3">
         <v>2733000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="I76" s="3">
         <v>3065000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="J76" s="3">
         <v>2520000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="K76" s="3">
         <v>2426000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="L76" s="3">
         <v>421000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="M76" s="3">
         <v>-1833000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="N76" s="3">
         <v>-1911000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="O76" s="3">
         <v>-1891000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="P76" s="3">
         <v>-2167000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="Q76" s="3">
         <v>-2628000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="R76" s="3">
         <v>-2609000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="S76" s="3">
         <v>-3130000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="T76" s="3">
         <v>-3231000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="U76" s="3">
         <v>-4227000</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3890,113 +4454,140 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="F80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="U80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-416000</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-745000</v>
+      </c>
+      <c r="F81" s="3">
+        <v>-276000</v>
+      </c>
+      <c r="G81" s="3">
         <v>-8319000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="H81" s="3">
         <v>-346000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="I81" s="3">
         <v>-101000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="J81" s="3">
         <v>75000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="K81" s="3">
         <v>-44000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="L81" s="3">
         <v>580000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="M81" s="3">
         <v>-170000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="N81" s="3">
         <v>-272000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="O81" s="3">
         <v>-8000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="P81" s="3">
         <v>307000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="Q81" s="3">
         <v>-41000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="R81" s="3">
         <v>470000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="S81" s="3">
         <v>75000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="T81" s="3">
         <v>-973000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="U81" s="3">
         <v>-1257000</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4015,58 +4606,70 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+      <c r="T82" s="3"/>
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>166000</v>
+      </c>
+      <c r="E83" s="3">
+        <v>170000</v>
+      </c>
+      <c r="F83" s="3">
+        <v>158000</v>
+      </c>
+      <c r="G83" s="3">
         <v>603000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="H83" s="3">
         <v>592000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="I83" s="3">
         <v>573000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="J83" s="3">
         <v>580000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="K83" s="3">
         <v>519000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="L83" s="3">
         <v>402000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="M83" s="3">
         <v>405000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="N83" s="3">
         <v>471000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="O83" s="3">
         <v>459000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="P83" s="3">
         <v>306000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="Q83" s="3">
         <v>248000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="R83" s="3">
         <v>223000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="S83" s="3">
         <v>218000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="T83" s="3">
         <v>233000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="U83" s="3">
         <v>276000</v>
       </c>
     </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4115,8 +4718,17 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4165,8 +4777,17 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4215,8 +4836,17 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4265,8 +4895,17 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4315,58 +4954,76 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>397000</v>
+        <v>9000</v>
       </c>
       <c r="E89" s="3">
-        <v>441000</v>
+        <v>382000</v>
       </c>
       <c r="F89" s="3">
-        <v>329000</v>
+        <v>376000</v>
       </c>
       <c r="G89" s="3">
         <v>397000</v>
       </c>
       <c r="H89" s="3">
+        <v>441000</v>
+      </c>
+      <c r="I89" s="3">
+        <v>329000</v>
+      </c>
+      <c r="J89" s="3">
+        <v>397000</v>
+      </c>
+      <c r="K89" s="3">
         <v>456000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="L89" s="3">
         <v>405000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="M89" s="3">
         <v>504000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="N89" s="3">
         <v>435000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="O89" s="3">
         <v>656000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="P89" s="3">
         <v>472000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="Q89" s="3">
         <v>331000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="R89" s="3">
         <v>-157000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="S89" s="3">
         <v>99000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="T89" s="3">
         <v>-254000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="U89" s="3">
         <v>376000</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4385,58 +5042,70 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+      <c r="T90" s="3"/>
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="G91" s="3">
         <v>-6000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="H91" s="3">
         <v>-8000</v>
-      </c>
-      <c r="F91" s="3">
-        <v>-10000</v>
-      </c>
-      <c r="G91" s="3">
-        <v>-11000</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-6000</v>
       </c>
       <c r="I91" s="3">
         <v>-10000</v>
       </c>
       <c r="J91" s="3">
+        <v>-11000</v>
+      </c>
+      <c r="K91" s="3">
         <v>-6000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="M91" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="N91" s="3">
         <v>-2000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="O91" s="3">
         <v>-3000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="P91" s="3">
         <v>-9000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="Q91" s="3">
         <v>-5000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="R91" s="3">
         <v>-4000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="S91" s="3">
         <v>-531000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="T91" s="3">
         <v>1006000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="U91" s="3">
         <v>-1006000</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4485,8 +5154,17 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4535,58 +5213,76 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-34000</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-102000</v>
+      </c>
+      <c r="F94" s="3">
+        <v>-345000</v>
+      </c>
+      <c r="G94" s="3">
         <v>-511000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="H94" s="3">
         <v>-545000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="I94" s="3">
         <v>-563000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="J94" s="3">
         <v>-516000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="K94" s="3">
         <v>-856000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="L94" s="3">
         <v>1447000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="M94" s="3">
         <v>-489000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="N94" s="3">
         <v>-524000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="O94" s="3">
         <v>21000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="P94" s="3">
         <v>-586000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="Q94" s="3">
         <v>-379000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="R94" s="3">
         <v>-603000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="S94" s="3">
         <v>380000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="T94" s="3">
         <v>-81000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="U94" s="3">
         <v>-480000</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4605,8 +5301,11 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+      <c r="T95" s="3"/>
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4655,8 +5354,17 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4705,8 +5413,17 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4755,8 +5472,17 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4805,58 +5531,76 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-56000</v>
+      </c>
+      <c r="F100" s="3">
+        <v>-31000</v>
+      </c>
+      <c r="G100" s="3">
         <v>190000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="H100" s="3">
         <v>96000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="I100" s="3">
         <v>244000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="J100" s="3">
         <v>115000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="K100" s="3">
         <v>404000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="L100" s="3">
         <v>-1782000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="M100" s="3">
         <v>46000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="N100" s="3">
         <v>160000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="O100" s="3">
         <v>-610000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="P100" s="3">
         <v>114000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="Q100" s="3">
         <v>40000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="R100" s="3">
         <v>524000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="S100" s="3">
         <v>-1112000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="T100" s="3">
         <v>1213000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="U100" s="3">
         <v>104000</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4905,54 +5649,72 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-27000</v>
+      </c>
+      <c r="E102" s="3">
+        <v>224000</v>
+      </c>
+      <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
         <v>76000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="H102" s="3">
         <v>-8000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="I102" s="3">
         <v>10000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="J102" s="3">
         <v>-4000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="K102" s="3">
         <v>4000</v>
       </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
         <v>1000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="N102" s="3">
         <v>-1000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="O102" s="3">
         <v>-1000</v>
       </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>-8000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="R102" s="3">
         <v>-236000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="S102" s="3">
         <v>-633000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="T102" s="3">
         <v>878000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="U102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CHK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CHK_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,257 +665,270 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="21" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="22" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1131000</v>
+      </c>
+      <c r="E8" s="3">
         <v>1230000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>974000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>521000</v>
       </c>
-      <c r="G8" s="3">
-        <v>2541000</v>
-      </c>
       <c r="H8" s="3">
+        <v>2525000</v>
+      </c>
+      <c r="I8" s="3">
         <v>1916000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>2074000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>2385000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2177000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3084000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2434000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2271000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2505000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2519000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1943000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>2281000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>2753000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>2021000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>2276000</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>327000</v>
+      </c>
+      <c r="E9" s="3">
         <v>380000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>377000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>386000</v>
       </c>
-      <c r="G9" s="3">
-        <v>460000</v>
-      </c>
       <c r="H9" s="3">
+        <v>867000</v>
+      </c>
+      <c r="I9" s="3">
         <v>449000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>459000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>477000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>439000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>984000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>530000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>504000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>532000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>551000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>541000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>518000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>512000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>594000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>650000</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>804000</v>
+      </c>
+      <c r="E10" s="3">
         <v>850000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>597000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>135000</v>
       </c>
-      <c r="G10" s="3">
-        <v>2081000</v>
-      </c>
       <c r="H10" s="3">
+        <v>1658000</v>
+      </c>
+      <c r="I10" s="3">
         <v>1467000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1615000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1908000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1738000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>2100000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1904000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1767000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1973000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1968000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1402000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1763000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>2241000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1427000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>1626000</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -937,8 +950,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -946,40 +960,40 @@
         <v>1000</v>
       </c>
       <c r="E12" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F12" s="3">
         <v>2000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>3000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>10000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>22000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>16000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>8000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>6000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>40000</v>
-      </c>
-      <c r="M12" s="3">
-        <v>15000</v>
       </c>
       <c r="N12" s="3">
         <v>15000</v>
       </c>
       <c r="O12" s="3">
+        <v>15000</v>
+      </c>
+      <c r="P12" s="3">
         <v>34000</v>
-      </c>
-      <c r="P12" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Q12" s="3" t="s">
         <v>8</v>
@@ -996,8 +1010,11 @@
       <c r="U12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1055,126 +1072,135 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-6000</v>
+        <v>-5545000</v>
       </c>
       <c r="E14" s="3">
-        <v>134000</v>
+        <v>606000</v>
       </c>
       <c r="F14" s="3">
+        <v>642000</v>
+      </c>
+      <c r="G14" s="3">
         <v>-239000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>8839000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>75000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>-48000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>34000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>80000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-323000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>141000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>63000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>100000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>-128000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>30000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>-148000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>396000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>428000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>1169000</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>194000</v>
+      </c>
+      <c r="E15" s="3">
         <v>166000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>170000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>158000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>603000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>592000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>573000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>580000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>519000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>402000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>696000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>761000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>745000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>306000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>248000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>223000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>218000</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>233000</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>276000</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1193,126 +1219,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1015000</v>
+        <v>-4489000</v>
       </c>
       <c r="E17" s="3">
-        <v>1191000</v>
+        <v>1630000</v>
       </c>
       <c r="F17" s="3">
+        <v>1696000</v>
+      </c>
+      <c r="G17" s="3">
         <v>666000</v>
       </c>
-      <c r="G17" s="3">
-        <v>10728000</v>
-      </c>
       <c r="H17" s="3">
+        <v>10689000</v>
+      </c>
+      <c r="I17" s="3">
         <v>2127000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1962000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2130000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2360000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2335000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2420000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2431000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2463000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2064000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1850000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1691000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2519000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2687000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>3423000</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>215000</v>
+        <v>5620000</v>
       </c>
       <c r="E18" s="3">
-        <v>-217000</v>
+        <v>-400000</v>
       </c>
       <c r="F18" s="3">
+        <v>-722000</v>
+      </c>
+      <c r="G18" s="3">
         <v>-145000</v>
       </c>
-      <c r="G18" s="3">
-        <v>-8187000</v>
-      </c>
       <c r="H18" s="3">
+        <v>-8164000</v>
+      </c>
+      <c r="I18" s="3">
         <v>-211000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>112000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>255000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-183000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>749000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>14000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-160000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>42000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>455000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>93000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>590000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>234000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-666000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-1147000</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1334,126 +1367,133 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-614000</v>
+        <v>24000</v>
       </c>
       <c r="E20" s="3">
-        <v>-505000</v>
+        <v>1000</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>49000</v>
       </c>
-      <c r="G20" s="3">
-        <v>50000</v>
-      </c>
       <c r="H20" s="3">
+        <v>134000</v>
+      </c>
+      <c r="I20" s="3">
         <v>31000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>3000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>18000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>9000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>24000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>30000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>81000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>162000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>28000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>34000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>41000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>34000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>154000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>48000</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>5838000</v>
+      </c>
+      <c r="E21" s="3">
         <v>-233000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-552000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>62000</v>
       </c>
-      <c r="G21" s="3">
-        <v>-7534000</v>
-      </c>
       <c r="H21" s="3">
+        <v>-7427000</v>
+      </c>
+      <c r="I21" s="3">
         <v>412000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>688000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>853000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>345000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1175000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>449000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>392000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>663000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>789000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>375000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>854000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>486000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-279000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-823000</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1464,153 +1504,159 @@
         <v>23000</v>
       </c>
       <c r="F22" s="3">
+        <v>23000</v>
+      </c>
+      <c r="G22" s="3">
         <v>180000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
+        <v>296000</v>
+      </c>
+      <c r="I22" s="3">
+        <v>160000</v>
+      </c>
+      <c r="J22" s="3">
+        <v>177000</v>
+      </c>
+      <c r="K22" s="3">
+        <v>175000</v>
+      </c>
+      <c r="L22" s="3">
+        <v>161000</v>
+      </c>
+      <c r="M22" s="3">
+        <v>170000</v>
+      </c>
+      <c r="N22" s="3">
         <v>189000</v>
       </c>
-      <c r="H22" s="3">
-        <v>160000</v>
-      </c>
-      <c r="I22" s="3">
-        <v>177000</v>
-      </c>
-      <c r="J22" s="3">
-        <v>175000</v>
-      </c>
-      <c r="K22" s="3">
-        <v>161000</v>
-      </c>
-      <c r="L22" s="3">
-        <v>170000</v>
-      </c>
-      <c r="M22" s="3">
-        <v>189000</v>
-      </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>179000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>186000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>149000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>144000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>135000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>126000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>252000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>115000</v>
       </c>
     </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>5621000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-422000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-745000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-276000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-8326000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-340000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-62000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>98000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-335000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>603000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-145000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-258000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>18000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>334000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-17000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>496000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>142000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-764000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-1214000</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-57000</v>
+      </c>
+      <c r="E24" s="3">
         <v>-6000</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
       <c r="F24" s="3">
         <v>0</v>
       </c>
       <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
         <v>-13000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-16000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-1000</v>
       </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
       <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
         <v>-314000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-2000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>1000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-9000</v>
       </c>
-      <c r="O24" s="3">
-        <v>0</v>
-      </c>
       <c r="P24" s="3">
         <v>0</v>
       </c>
@@ -1618,19 +1664,22 @@
         <v>0</v>
       </c>
       <c r="R24" s="3">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="S24" s="3">
         <v>1000</v>
       </c>
       <c r="T24" s="3">
+        <v>1000</v>
+      </c>
+      <c r="U24" s="3">
         <v>-190000</v>
       </c>
-      <c r="U24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1688,126 +1737,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>5678000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-416000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-745000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-276000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-8313000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-324000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-61000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>98000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-21000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>605000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-146000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-249000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>18000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>334000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-17000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>495000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>141000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-574000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-1214000</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>5678000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-416000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-745000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-276000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-8319000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-346000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-101000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>75000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-44000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>580000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-170000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-272000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-8000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>307000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-41000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>470000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>75000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-973000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-1257000</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1865,8 +1923,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1924,8 +1985,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1983,8 +2047,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2042,126 +2109,135 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>614000</v>
+        <v>-24000</v>
       </c>
       <c r="E32" s="3">
-        <v>505000</v>
+        <v>-1000</v>
       </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>-49000</v>
       </c>
-      <c r="G32" s="3">
-        <v>-50000</v>
-      </c>
       <c r="H32" s="3">
+        <v>-134000</v>
+      </c>
+      <c r="I32" s="3">
         <v>-31000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-3000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-18000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-9000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-24000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-30000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-81000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-162000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-28000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-34000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-41000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-34000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-154000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-48000</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>5678000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-416000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-745000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-276000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-8319000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-346000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-101000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>75000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-44000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>580000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-170000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-272000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-8000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>307000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-41000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>470000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>75000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-973000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-1257000</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2219,131 +2295,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>5678000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-416000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-745000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-276000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-8319000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-346000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-101000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>75000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-44000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>580000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-170000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-272000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-8000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>307000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-41000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>470000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>75000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-973000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-1257000</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2365,8 +2450,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2388,67 +2474,71 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>340000</v>
+      </c>
+      <c r="E41" s="3">
         <v>279000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>306000</v>
-      </c>
-      <c r="F41" s="3">
-        <v>82000</v>
       </c>
       <c r="G41" s="3">
         <v>82000</v>
       </c>
       <c r="H41" s="3">
+        <v>82000</v>
+      </c>
+      <c r="I41" s="3">
         <v>6000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>14000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>4000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>8000</v>
-      </c>
-      <c r="L41" s="3">
-        <v>4000</v>
       </c>
       <c r="M41" s="3">
         <v>4000</v>
       </c>
       <c r="N41" s="3">
+        <v>4000</v>
+      </c>
+      <c r="O41" s="3">
         <v>3000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>4000</v>
-      </c>
-      <c r="P41" s="3">
-        <v>5000</v>
       </c>
       <c r="Q41" s="3">
         <v>5000</v>
       </c>
       <c r="R41" s="3">
+        <v>5000</v>
+      </c>
+      <c r="S41" s="3">
         <v>13000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>249000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>882000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2506,67 +2596,73 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>704000</v>
+      </c>
+      <c r="E43" s="3">
         <v>746000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>676000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>513000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>762000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>990000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>977000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1021000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1196000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1247000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1051000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1060000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1082000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1322000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>992000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1019000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>943000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1057000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>893000</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2624,126 +2720,135 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>146000</v>
+      </c>
+      <c r="E45" s="3">
         <v>83000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>90000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>95000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>974000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>255000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>412000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>359000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>161000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>347000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>180000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>177000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>138000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>198000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>181000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>215000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>168000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>203000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>170000</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1190000</v>
+      </c>
+      <c r="E46" s="3">
         <v>1108000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1072000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>690000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1818000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1251000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1403000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1384000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1365000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1598000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1235000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1240000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1224000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1525000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1178000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1247000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1360000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>2142000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1067000</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2801,67 +2906,73 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>5602000</v>
+      </c>
+      <c r="E48" s="3">
         <v>5232000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>5636000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>5692000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>5823000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>14768000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>14888000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>14858000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>14955000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>10803000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>11130000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>10839000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>10576000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>10664000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>10562000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>10397000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>10068000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>10580000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>10975000</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2919,8 +3030,11 @@
       <c r="U49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2978,8 +3092,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3037,67 +3154,73 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>112000</v>
+      </c>
+      <c r="E52" s="3">
         <v>244000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>195000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>171000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>167000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>174000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>288000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>298000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>317000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>334000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>294000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>262000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>286000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>236000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>241000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>276000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>271000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>306000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>481000</v>
       </c>
     </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3155,67 +3278,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>6904000</v>
+      </c>
+      <c r="E54" s="3">
         <v>6584000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>6903000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>6553000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>7808000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>16193000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>16579000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>16540000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>16637000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>12735000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>12659000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>12341000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>12086000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>12425000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>11981000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>11920000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>11699000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>13028000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>12523000</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3237,8 +3366,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3260,8 +3390,9 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3269,240 +3400,252 @@
         <v>346000</v>
       </c>
       <c r="E57" s="3">
+        <v>346000</v>
+      </c>
+      <c r="F57" s="3">
         <v>316000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>39000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>552000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>498000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>526000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>611000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>751000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>763000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>670000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>742000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>657000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>654000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>678000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>718000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>678000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>672000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>660000</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
         <v>1938000</v>
-      </c>
-      <c r="E58" s="3">
-        <v>1929000</v>
       </c>
       <c r="F58" s="3">
         <v>1929000</v>
       </c>
       <c r="G58" s="3">
+        <v>1929000</v>
+      </c>
+      <c r="H58" s="3">
         <v>420000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>394000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>217000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>9000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>389000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>381000</v>
-      </c>
-      <c r="M58" s="3">
-        <v>432000</v>
       </c>
       <c r="N58" s="3">
         <v>432000</v>
       </c>
       <c r="O58" s="3">
-        <v>52000</v>
+        <v>432000</v>
       </c>
       <c r="P58" s="3">
         <v>52000</v>
       </c>
       <c r="Q58" s="3">
-        <v>0</v>
+        <v>52000</v>
       </c>
       <c r="R58" s="3">
+        <v>0</v>
+      </c>
+      <c r="S58" s="3">
         <v>3000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>15000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>503000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>656000</v>
       </c>
     </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1097000</v>
+      </c>
+      <c r="E59" s="3">
         <v>810000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>860000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>421000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1288000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1500000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1605000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1600000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1790000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1743000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1874000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1699000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1645000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1650000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1540000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1437000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>2095000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>2473000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>2290000</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1443000</v>
+      </c>
+      <c r="E60" s="3">
         <v>3094000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>3105000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2389000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2260000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2392000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2348000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2220000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2930000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2887000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2976000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2873000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2354000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2356000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2218000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2158000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>2788000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>3648000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>3606000</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1064000</v>
+        <v>1262000</v>
       </c>
       <c r="E61" s="3">
         <v>1064000</v>
@@ -3511,111 +3654,117 @@
         <v>1064000</v>
       </c>
       <c r="G61" s="3">
+        <v>1064000</v>
+      </c>
+      <c r="H61" s="3">
         <v>9163000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>9082000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>9143000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>9713000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>9182000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>7341000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>9380000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>9238000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>9325000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>9921000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>9899000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>9850000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>9509000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>9938000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>9022000</v>
       </c>
     </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>318000</v>
+      </c>
+      <c r="E62" s="3">
         <v>7767000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>7653000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>7288000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>309000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>318000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>353000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>377000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>387000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>374000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>342000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>347000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>504000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>520000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>568000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>596000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>605000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>645000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>827000</v>
       </c>
     </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3673,8 +3822,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3732,8 +3884,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3791,67 +3946,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3023000</v>
+      </c>
+      <c r="E66" s="3">
         <v>11925000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>11843000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>10762000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>11753000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>11829000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>11883000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>12349000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>12540000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>10643000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>12821000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>12581000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>12306000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>12921000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>12938000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>12858000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>13158000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>14488000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>13714000</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3873,8 +4034,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3932,8 +4094,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3991,13 +4156,16 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>1631000</v>
+        <v>0</v>
       </c>
       <c r="E70" s="3">
         <v>1631000</v>
@@ -4015,7 +4183,7 @@
         <v>1631000</v>
       </c>
       <c r="J70" s="3">
-        <v>1671000</v>
+        <v>1631000</v>
       </c>
       <c r="K70" s="3">
         <v>1671000</v>
@@ -4045,13 +4213,16 @@
         <v>1671000</v>
       </c>
       <c r="T70" s="3">
+        <v>1671000</v>
+      </c>
+      <c r="U70" s="3">
         <v>1771000</v>
       </c>
-      <c r="U70" s="3">
+      <c r="V70" s="3">
         <v>3036000</v>
       </c>
     </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4109,67 +4280,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>295000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-23954000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-23538000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-22793000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-22517000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-14220000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-13896000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-13835000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-13933000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-13912000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-16173000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-16257000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-16240000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-16525000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-16987000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-16969000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-17463000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-17603000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-17028000</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4227,8 +4404,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4286,8 +4466,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4345,67 +4528,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>3881000</v>
+      </c>
+      <c r="E76" s="3">
         <v>-6972000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-6571000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-5840000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-5576000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>2733000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>3065000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>2520000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2426000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>421000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-1833000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-1911000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-1891000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-2167000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-2628000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-2609000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-3130000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-3231000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-4227000</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4463,131 +4652,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>5678000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-416000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-745000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-276000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-8319000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-346000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-101000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>75000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-44000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>580000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-170000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-272000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-8000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>307000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-41000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>470000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>75000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-973000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-1257000</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4609,67 +4807,71 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>194000</v>
+      </c>
+      <c r="E83" s="3">
         <v>166000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>170000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>158000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>603000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>592000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>573000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>580000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>519000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>402000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>405000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>471000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>459000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>306000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>248000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>223000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>218000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>233000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>276000</v>
       </c>
     </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4727,8 +4929,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4786,8 +4991,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4845,8 +5053,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4904,8 +5115,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4963,67 +5177,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>388000</v>
+      </c>
+      <c r="E89" s="3">
         <v>9000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>382000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>376000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>397000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>441000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>329000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>397000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>456000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>405000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>504000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>435000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>656000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>472000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>331000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-157000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>99000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-254000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>376000</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5045,67 +5265,71 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-143000</v>
       </c>
       <c r="E91" s="3">
         <v>0</v>
       </c>
       <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
         <v>-3000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-6000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-8000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-10000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-11000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-6000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-10000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-6000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-2000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-3000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-9000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-5000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-4000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-531000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>1006000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-1006000</v>
       </c>
     </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5163,8 +5387,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5222,67 +5449,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-139000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-34000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-102000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-345000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-511000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-545000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-563000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-516000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-856000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>1447000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-489000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-524000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>21000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-586000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-379000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-603000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>380000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-81000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-480000</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5304,8 +5537,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5363,8 +5597,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5422,8 +5659,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5481,8 +5721,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5540,67 +5783,73 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-120000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-2000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-56000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-31000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>190000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>96000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>244000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>115000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>404000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1782000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>46000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>160000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-610000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>114000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>40000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>524000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-1112000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>1213000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>104000</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5658,63 +5907,69 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>129000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-27000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>224000</v>
       </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
       <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
         <v>76000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-8000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>10000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-4000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>4000</v>
       </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
       <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
         <v>1000</v>
-      </c>
-      <c r="N102" s="3">
-        <v>-1000</v>
       </c>
       <c r="O102" s="3">
         <v>-1000</v>
       </c>
       <c r="P102" s="3">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>-8000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-236000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-633000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>878000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CHK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CHK_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,270 +665,283 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="22" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="23" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>691000</v>
+      </c>
+      <c r="E8" s="3">
         <v>1131000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1230000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>974000</v>
       </c>
-      <c r="G8" s="3">
-        <v>521000</v>
-      </c>
       <c r="H8" s="3">
+        <v>507000</v>
+      </c>
+      <c r="I8" s="3">
         <v>2525000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1916000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>2074000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2385000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2177000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3084000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2434000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2271000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2505000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2519000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1943000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>2281000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>2753000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>2021000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>2276000</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>326000</v>
+      </c>
+      <c r="E9" s="3">
         <v>327000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>380000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>377000</v>
       </c>
-      <c r="G9" s="3">
-        <v>386000</v>
-      </c>
       <c r="H9" s="3">
+        <v>747000</v>
+      </c>
+      <c r="I9" s="3">
         <v>867000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>449000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>459000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>477000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>439000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>984000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>530000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>504000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>532000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>551000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>541000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>518000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>512000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>594000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>650000</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>365000</v>
+      </c>
+      <c r="E10" s="3">
         <v>804000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>850000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>597000</v>
       </c>
-      <c r="G10" s="3">
-        <v>135000</v>
-      </c>
       <c r="H10" s="3">
+        <v>-240000</v>
+      </c>
+      <c r="I10" s="3">
         <v>1658000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1467000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1615000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1908000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1738000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>2100000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1904000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1767000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1973000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1968000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1402000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1763000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>2241000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>1427000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>1626000</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -951,8 +964,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -963,40 +977,40 @@
         <v>1000</v>
       </c>
       <c r="F12" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G12" s="3">
         <v>2000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>3000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>10000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>22000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>16000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>8000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>6000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>40000</v>
-      </c>
-      <c r="N12" s="3">
-        <v>15000</v>
       </c>
       <c r="O12" s="3">
         <v>15000</v>
       </c>
       <c r="P12" s="3">
+        <v>15000</v>
+      </c>
+      <c r="Q12" s="3">
         <v>34000</v>
-      </c>
-      <c r="Q12" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="R12" s="3" t="s">
         <v>8</v>
@@ -1013,8 +1027,11 @@
       <c r="V12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1075,132 +1092,141 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>12000</v>
+      </c>
+      <c r="E14" s="3">
         <v>-5545000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>606000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>642000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>-239000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>8839000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>75000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>-48000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>34000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>80000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>-323000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>141000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>63000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>100000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>-128000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>30000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>-148000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>396000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>428000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>1169000</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>229000</v>
+      </c>
+      <c r="E15" s="3">
         <v>194000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>166000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>170000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>158000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>603000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>592000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>573000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>580000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>519000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>402000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>696000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>761000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>745000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>306000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>248000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>223000</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>218000</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>233000</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>276000</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1220,132 +1246,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1121000</v>
+      </c>
+      <c r="E17" s="3">
         <v>-4489000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1630000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1696000</v>
       </c>
-      <c r="G17" s="3">
-        <v>666000</v>
-      </c>
       <c r="H17" s="3">
+        <v>652000</v>
+      </c>
+      <c r="I17" s="3">
         <v>10689000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2127000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1962000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2130000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2360000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2335000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2420000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2431000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2463000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2064000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1850000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1691000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2519000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>2687000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>3423000</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-430000</v>
+      </c>
+      <c r="E18" s="3">
         <v>5620000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-400000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-722000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-145000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-8164000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-211000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>112000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>255000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-183000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>749000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>14000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-160000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>42000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>455000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>93000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>590000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>234000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-666000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-1147000</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1368,137 +1401,144 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>9000</v>
+      </c>
+      <c r="E20" s="3">
         <v>24000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>1000</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
-        <v>49000</v>
+        <v>0</v>
       </c>
       <c r="H20" s="3">
+        <v>143000</v>
+      </c>
+      <c r="I20" s="3">
         <v>134000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>31000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>3000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>18000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>9000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>24000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>30000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>81000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>162000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>28000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>34000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>41000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>34000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>154000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>48000</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-192000</v>
+      </c>
+      <c r="E21" s="3">
         <v>5838000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-233000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-552000</v>
       </c>
-      <c r="G21" s="3">
-        <v>62000</v>
-      </c>
       <c r="H21" s="3">
+        <v>156000</v>
+      </c>
+      <c r="I21" s="3">
         <v>-7427000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>412000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>688000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>853000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>345000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1175000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>449000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>392000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>663000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>789000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>375000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>854000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>486000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-279000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-823000</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>23000</v>
+        <v>18000</v>
       </c>
       <c r="E22" s="3">
         <v>23000</v>
@@ -1507,159 +1547,165 @@
         <v>23000</v>
       </c>
       <c r="G22" s="3">
-        <v>180000</v>
+        <v>23000</v>
       </c>
       <c r="H22" s="3">
+        <v>274000</v>
+      </c>
+      <c r="I22" s="3">
         <v>296000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>160000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>177000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>175000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>161000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>170000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>189000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>179000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>186000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>149000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>144000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>135000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>126000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>252000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>115000</v>
       </c>
     </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-439000</v>
+      </c>
+      <c r="E23" s="3">
         <v>5621000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-422000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-745000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-276000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-8326000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-340000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-62000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>98000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-335000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>603000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-145000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-258000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>18000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>334000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-17000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>496000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>142000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-764000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-1214000</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
         <v>-57000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-6000</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
       <c r="G24" s="3">
         <v>0</v>
       </c>
       <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
         <v>-13000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-16000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-1000</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
       <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
         <v>-314000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-2000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>1000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-9000</v>
       </c>
-      <c r="P24" s="3">
-        <v>0</v>
-      </c>
       <c r="Q24" s="3">
         <v>0</v>
       </c>
@@ -1667,19 +1713,22 @@
         <v>0</v>
       </c>
       <c r="S24" s="3">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="T24" s="3">
         <v>1000</v>
       </c>
       <c r="U24" s="3">
+        <v>1000</v>
+      </c>
+      <c r="V24" s="3">
         <v>-190000</v>
       </c>
-      <c r="V24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1740,132 +1789,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-439000</v>
+      </c>
+      <c r="E26" s="3">
         <v>5678000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-416000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-745000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-276000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-8313000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-324000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-61000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>98000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-21000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>605000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-146000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-249000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>18000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>334000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-17000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>495000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>141000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-574000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-1214000</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-439000</v>
+      </c>
+      <c r="E27" s="3">
         <v>5678000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-416000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-745000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-276000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-8319000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-346000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-101000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>75000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-44000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>580000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-170000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-272000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-8000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>307000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-41000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>470000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>75000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-973000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-1257000</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1926,8 +1984,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1988,8 +2049,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2050,8 +2114,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2112,132 +2179,141 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-9000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-24000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-1000</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
-        <v>-49000</v>
+        <v>0</v>
       </c>
       <c r="H32" s="3">
+        <v>-143000</v>
+      </c>
+      <c r="I32" s="3">
         <v>-134000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-31000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-3000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-18000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-9000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-24000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-30000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-81000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-162000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-28000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-34000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-41000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-34000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-154000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-48000</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-439000</v>
+      </c>
+      <c r="E33" s="3">
         <v>5678000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-416000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-745000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-276000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-8319000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-346000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-101000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>75000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-44000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>580000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-170000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-272000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-8000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>307000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-41000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>470000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>75000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-973000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-1257000</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2298,137 +2374,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-439000</v>
+      </c>
+      <c r="E35" s="3">
         <v>5678000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-416000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-745000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-276000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-8319000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-346000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-101000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>75000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-44000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>580000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-170000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-272000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-8000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>307000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-41000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>470000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>75000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-973000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-1257000</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2451,8 +2536,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2475,70 +2561,74 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>612000</v>
+      </c>
+      <c r="E41" s="3">
         <v>340000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>279000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>306000</v>
-      </c>
-      <c r="G41" s="3">
-        <v>82000</v>
       </c>
       <c r="H41" s="3">
         <v>82000</v>
       </c>
       <c r="I41" s="3">
+        <v>82000</v>
+      </c>
+      <c r="J41" s="3">
         <v>6000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>14000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>4000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>8000</v>
-      </c>
-      <c r="M41" s="3">
-        <v>4000</v>
       </c>
       <c r="N41" s="3">
         <v>4000</v>
       </c>
       <c r="O41" s="3">
+        <v>4000</v>
+      </c>
+      <c r="P41" s="3">
         <v>3000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>4000</v>
-      </c>
-      <c r="Q41" s="3">
-        <v>5000</v>
       </c>
       <c r="R41" s="3">
         <v>5000</v>
       </c>
       <c r="S41" s="3">
+        <v>5000</v>
+      </c>
+      <c r="T41" s="3">
         <v>13000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>249000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>882000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2599,70 +2689,76 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>674000</v>
+      </c>
+      <c r="E43" s="3">
         <v>704000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>746000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>676000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>513000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>762000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>990000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>977000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1021000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1196000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1247000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1051000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1060000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1082000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1322000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>992000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1019000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>943000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>1057000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>893000</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2723,132 +2819,141 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>68000</v>
+      </c>
+      <c r="E45" s="3">
         <v>146000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>83000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>90000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>95000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>974000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>255000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>412000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>359000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>161000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>347000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>180000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>177000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>138000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>198000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>181000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>215000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>168000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>203000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>170000</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1354000</v>
+      </c>
+      <c r="E46" s="3">
         <v>1190000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1108000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1072000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>690000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1818000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1251000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1403000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1384000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1365000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1598000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1235000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1240000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1224000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1525000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1178000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1247000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1360000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>2142000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1067000</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2909,70 +3014,76 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>5547000</v>
+      </c>
+      <c r="E48" s="3">
         <v>5602000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>5232000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>5636000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>5692000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>5823000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>14768000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>14888000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>14858000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>14955000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>10803000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>11130000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>10839000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>10576000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>10664000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>10562000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>10397000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>10068000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>10580000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>10975000</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3033,8 +3144,11 @@
       <c r="V49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3095,8 +3209,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3157,70 +3274,76 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>98000</v>
+      </c>
+      <c r="E52" s="3">
         <v>112000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>244000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>195000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>171000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>167000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>174000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>288000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>298000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>317000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>334000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>294000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>262000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>286000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>236000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>241000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>276000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>271000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>306000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>481000</v>
       </c>
     </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3281,70 +3404,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>6999000</v>
+      </c>
+      <c r="E54" s="3">
         <v>6904000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>6584000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>6903000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>6553000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>7808000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>16193000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>16579000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>16540000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>16637000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>12735000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>12659000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>12341000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>12086000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>12425000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>11981000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>11920000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>11699000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>13028000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>12523000</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3367,8 +3496,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3391,70 +3521,74 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>346000</v>
+        <v>281000</v>
       </c>
       <c r="E57" s="3">
         <v>346000</v>
       </c>
       <c r="F57" s="3">
+        <v>346000</v>
+      </c>
+      <c r="G57" s="3">
         <v>316000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>39000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>552000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>498000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>526000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>611000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>751000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>763000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>670000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>742000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>657000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>654000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>678000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>718000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>678000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>672000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>660000</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3462,193 +3596,202 @@
         <v>0</v>
       </c>
       <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
         <v>1938000</v>
-      </c>
-      <c r="F58" s="3">
-        <v>1929000</v>
       </c>
       <c r="G58" s="3">
         <v>1929000</v>
       </c>
       <c r="H58" s="3">
+        <v>1929000</v>
+      </c>
+      <c r="I58" s="3">
         <v>420000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>394000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>217000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>9000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>389000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>381000</v>
-      </c>
-      <c r="N58" s="3">
-        <v>432000</v>
       </c>
       <c r="O58" s="3">
         <v>432000</v>
       </c>
       <c r="P58" s="3">
-        <v>52000</v>
+        <v>432000</v>
       </c>
       <c r="Q58" s="3">
         <v>52000</v>
       </c>
       <c r="R58" s="3">
-        <v>0</v>
+        <v>52000</v>
       </c>
       <c r="S58" s="3">
+        <v>0</v>
+      </c>
+      <c r="T58" s="3">
         <v>3000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>15000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>503000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>656000</v>
       </c>
     </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1585000</v>
+      </c>
+      <c r="E59" s="3">
         <v>1097000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>810000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>860000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>421000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1288000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1500000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1605000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1600000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1790000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1743000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1874000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1699000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1645000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1650000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1540000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1437000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>2095000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>2473000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>2290000</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1866000</v>
+      </c>
+      <c r="E60" s="3">
         <v>1443000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>3094000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>3105000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2389000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2260000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2392000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2348000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2220000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2930000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2887000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2976000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2873000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2354000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2356000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2218000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>2158000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>2788000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>3648000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>3606000</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1261000</v>
+      </c>
+      <c r="E61" s="3">
         <v>1262000</v>
-      </c>
-      <c r="E61" s="3">
-        <v>1064000</v>
       </c>
       <c r="F61" s="3">
         <v>1064000</v>
@@ -3657,114 +3800,120 @@
         <v>1064000</v>
       </c>
       <c r="H61" s="3">
+        <v>1064000</v>
+      </c>
+      <c r="I61" s="3">
         <v>9163000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>9082000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>9143000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>9713000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>9182000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>7341000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>9380000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>9238000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>9325000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>9921000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>9899000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>9850000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>9509000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>9938000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>9022000</v>
       </c>
     </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>459000</v>
+      </c>
+      <c r="E62" s="3">
         <v>318000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>7767000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>7653000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>7288000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>309000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>318000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>353000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>377000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>387000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>374000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>342000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>347000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>504000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>520000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>568000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>596000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>605000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>645000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>827000</v>
       </c>
     </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3825,8 +3974,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3887,8 +4039,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3949,70 +4104,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3586000</v>
+      </c>
+      <c r="E66" s="3">
         <v>3023000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>11925000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>11843000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>10762000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>11753000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>11829000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>11883000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>12349000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>12540000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>10643000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>12821000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>12581000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>12306000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>12921000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>12938000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>12858000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>13158000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>14488000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>13714000</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4035,8 +4196,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4097,8 +4259,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4159,8 +4324,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4168,7 +4336,7 @@
         <v>0</v>
       </c>
       <c r="E70" s="3">
-        <v>1631000</v>
+        <v>0</v>
       </c>
       <c r="F70" s="3">
         <v>1631000</v>
@@ -4186,7 +4354,7 @@
         <v>1631000</v>
       </c>
       <c r="K70" s="3">
-        <v>1671000</v>
+        <v>1631000</v>
       </c>
       <c r="L70" s="3">
         <v>1671000</v>
@@ -4216,13 +4384,16 @@
         <v>1671000</v>
       </c>
       <c r="U70" s="3">
+        <v>1671000</v>
+      </c>
+      <c r="V70" s="3">
         <v>1771000</v>
       </c>
-      <c r="V70" s="3">
+      <c r="W70" s="3">
         <v>3036000</v>
       </c>
     </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4283,70 +4454,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-178000</v>
+      </c>
+      <c r="E72" s="3">
         <v>295000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-23954000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-23538000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-22793000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-22517000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-14220000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-13896000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-13835000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-13933000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-13912000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-16173000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-16257000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-16240000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-16525000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-16987000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-16969000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-17463000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-17603000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-17028000</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4407,8 +4584,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4469,8 +4649,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4531,70 +4714,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>3413000</v>
+      </c>
+      <c r="E76" s="3">
         <v>3881000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-6972000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-6571000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-5840000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-5576000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>2733000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>3065000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2520000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2426000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>421000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-1833000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-1911000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-1891000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-2167000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-2628000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-2609000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-3130000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-3231000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-4227000</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4655,137 +4844,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-439000</v>
+      </c>
+      <c r="E81" s="3">
         <v>5678000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-416000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-745000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-276000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-8319000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-346000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-101000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>75000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-44000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>580000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-170000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-272000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-8000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>307000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-41000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>470000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>75000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-973000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-1257000</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4808,70 +5006,74 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>229000</v>
+      </c>
+      <c r="E83" s="3">
         <v>194000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>166000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>170000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>158000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>603000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>592000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>573000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>580000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>519000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>402000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>405000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>471000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>459000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>306000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>248000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>223000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>218000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>233000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>276000</v>
       </c>
     </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4932,8 +5134,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4994,8 +5199,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5056,8 +5264,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5118,8 +5329,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5180,70 +5394,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>394000</v>
+      </c>
+      <c r="E89" s="3">
         <v>388000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>9000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>382000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>376000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>397000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>441000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>329000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>397000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>456000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>405000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>504000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>435000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>656000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>472000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>331000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-157000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>99000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-254000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>376000</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5266,70 +5486,74 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-149000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-143000</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
       <c r="F91" s="3">
         <v>0</v>
       </c>
       <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
         <v>-3000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-6000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-8000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-10000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-11000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-6000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-10000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-6000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-2000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-3000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-9000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-5000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-4000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-531000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>1006000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-1006000</v>
       </c>
     </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5390,8 +5614,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5452,70 +5679,76 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-147000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-139000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-34000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-102000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-345000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-511000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-545000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-563000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-516000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-856000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>1447000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-489000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-524000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>21000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-586000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-379000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-603000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>380000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-81000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-480000</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5538,8 +5771,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5600,8 +5834,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5662,8 +5899,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5724,8 +5964,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5786,70 +6029,76 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-33000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-120000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-2000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-56000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-31000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>190000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>96000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>244000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>115000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>404000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-1782000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>46000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>160000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-610000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>114000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>40000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>524000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-1112000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>1213000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>104000</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5910,66 +6159,72 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>214000</v>
+      </c>
+      <c r="E102" s="3">
         <v>129000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-27000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>224000</v>
       </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
       <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
         <v>76000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-8000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>10000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-4000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>4000</v>
       </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
       <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
         <v>1000</v>
-      </c>
-      <c r="O102" s="3">
-        <v>-1000</v>
       </c>
       <c r="P102" s="3">
         <v>-1000</v>
       </c>
       <c r="Q102" s="3">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>-8000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-236000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-633000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>878000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CHK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CHK_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,283 +665,296 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="23" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="24" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>887000</v>
+      </c>
+      <c r="E8" s="3">
         <v>691000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1131000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1230000</v>
       </c>
-      <c r="G8" s="3">
-        <v>974000</v>
-      </c>
       <c r="H8" s="3">
+        <v>959000</v>
+      </c>
+      <c r="I8" s="3">
         <v>507000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>2525000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1916000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2074000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2385000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2177000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>3084000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2434000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2271000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2505000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>2519000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1943000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>2281000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>2753000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>2021000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>2276000</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>340000</v>
+      </c>
+      <c r="E9" s="3">
         <v>326000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>327000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>380000</v>
       </c>
-      <c r="G9" s="3">
-        <v>377000</v>
-      </c>
       <c r="H9" s="3">
+        <v>717000</v>
+      </c>
+      <c r="I9" s="3">
         <v>747000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>867000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>449000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>459000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>477000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>439000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>984000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>530000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>504000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>532000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>551000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>541000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>518000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>512000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>594000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>650000</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>547000</v>
+      </c>
+      <c r="E10" s="3">
         <v>365000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>804000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>850000</v>
       </c>
-      <c r="G10" s="3">
-        <v>597000</v>
-      </c>
       <c r="H10" s="3">
+        <v>242000</v>
+      </c>
+      <c r="I10" s="3">
         <v>-240000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1658000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1467000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1615000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1908000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1738000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>2100000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1904000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1767000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1973000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1968000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1402000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1763000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>2241000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>1427000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>1626000</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -965,8 +978,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -980,40 +994,40 @@
         <v>1000</v>
       </c>
       <c r="G12" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H12" s="3">
         <v>2000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>3000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>10000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>22000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>16000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>8000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>6000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>40000</v>
-      </c>
-      <c r="O12" s="3">
-        <v>15000</v>
       </c>
       <c r="P12" s="3">
         <v>15000</v>
       </c>
       <c r="Q12" s="3">
+        <v>15000</v>
+      </c>
+      <c r="R12" s="3">
         <v>34000</v>
-      </c>
-      <c r="R12" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="S12" s="3" t="s">
         <v>8</v>
@@ -1030,8 +1044,11 @@
       <c r="W12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1095,138 +1112,147 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E14" s="3">
         <v>12000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>-5545000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>606000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>642000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>-239000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>8839000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>75000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-48000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>34000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>80000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>-323000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>141000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>63000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>100000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>-128000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>30000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>-148000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>396000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>428000</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>1169000</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>228000</v>
+      </c>
+      <c r="E15" s="3">
         <v>229000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>194000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>166000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>170000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>158000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>603000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>592000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>573000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>580000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>519000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>402000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>696000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>761000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>745000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>306000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>248000</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>223000</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>218000</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>233000</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>276000</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1247,138 +1273,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1225000</v>
+      </c>
+      <c r="E17" s="3">
         <v>1121000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>-4489000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1630000</v>
       </c>
-      <c r="G17" s="3">
-        <v>1696000</v>
-      </c>
       <c r="H17" s="3">
+        <v>1681000</v>
+      </c>
+      <c r="I17" s="3">
         <v>652000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>10689000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2127000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1962000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2130000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2360000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2335000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2420000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2431000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2463000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2064000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1850000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1691000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>2519000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>2687000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>3423000</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-338000</v>
+      </c>
+      <c r="E18" s="3">
         <v>-430000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>5620000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-400000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-722000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-145000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-8164000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-211000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>112000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>255000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-183000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>749000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>14000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-160000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>42000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>455000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>93000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>590000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>234000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-666000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-1147000</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1402,146 +1435,153 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
         <v>9000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>24000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>1000</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
+        <v>27000</v>
+      </c>
+      <c r="I20" s="3">
         <v>143000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>134000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>31000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>3000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>18000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>9000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>24000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>30000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>81000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>162000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>28000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>34000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>41000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>34000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>154000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>48000</v>
       </c>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-110000</v>
+      </c>
+      <c r="E21" s="3">
         <v>-192000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>5838000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-233000</v>
       </c>
-      <c r="G21" s="3">
-        <v>-552000</v>
-      </c>
       <c r="H21" s="3">
+        <v>-525000</v>
+      </c>
+      <c r="I21" s="3">
         <v>156000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-7427000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>412000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>688000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>853000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>345000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1175000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>449000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>392000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>663000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>789000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>375000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>854000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>486000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-279000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-823000</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>17000</v>
+      </c>
+      <c r="E22" s="3">
         <v>18000</v>
-      </c>
-      <c r="E22" s="3">
-        <v>23000</v>
       </c>
       <c r="F22" s="3">
         <v>23000</v>
@@ -1550,165 +1590,171 @@
         <v>23000</v>
       </c>
       <c r="H22" s="3">
+        <v>50000</v>
+      </c>
+      <c r="I22" s="3">
         <v>274000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>296000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>160000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>177000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>175000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>161000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>170000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>189000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>179000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>186000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>149000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>144000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>135000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>126000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>252000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>115000</v>
       </c>
     </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-355000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-439000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>5621000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-422000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-745000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-276000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-8326000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-340000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-62000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>98000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-335000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>603000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-145000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-258000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>18000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>334000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-17000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>496000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>142000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-764000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-1214000</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>-10000</v>
       </c>
       <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
         <v>-57000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-6000</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
       <c r="H24" s="3">
         <v>0</v>
       </c>
       <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
         <v>-13000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-16000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-1000</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
       <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
         <v>-314000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-2000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>1000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-9000</v>
       </c>
-      <c r="Q24" s="3">
-        <v>0</v>
-      </c>
       <c r="R24" s="3">
         <v>0</v>
       </c>
@@ -1716,19 +1762,22 @@
         <v>0</v>
       </c>
       <c r="T24" s="3">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="3">
         <v>1000</v>
       </c>
       <c r="V24" s="3">
+        <v>1000</v>
+      </c>
+      <c r="W24" s="3">
         <v>-190000</v>
       </c>
-      <c r="W24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1792,138 +1841,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-345000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-439000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>5678000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-416000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-745000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-276000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-8313000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-324000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-61000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>98000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-21000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>605000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-146000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-249000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>18000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>334000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-17000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>495000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>141000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-574000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-1214000</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-345000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-439000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>5678000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-416000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-745000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-276000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-8319000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-346000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-101000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>75000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-44000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>580000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-170000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-272000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-8000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>307000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-41000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>470000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>75000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-973000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-1257000</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1987,8 +2045,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2052,8 +2113,11 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2117,8 +2181,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2182,138 +2249,147 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
         <v>-9000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-24000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-1000</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
+        <v>-27000</v>
+      </c>
+      <c r="I32" s="3">
         <v>-143000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-134000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-31000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-3000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-18000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-9000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-24000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-30000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-81000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-162000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-28000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-34000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-41000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-34000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-154000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-48000</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-345000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-439000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>5678000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-416000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-745000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-276000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-8319000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-346000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-101000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>75000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-44000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>580000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-170000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-272000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-8000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>307000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-41000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>470000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>75000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-973000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-1257000</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2377,143 +2453,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-345000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-439000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>5678000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-416000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-745000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-276000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-8319000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-346000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-101000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>75000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-44000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>580000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-170000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-272000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-8000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>307000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-41000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>470000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>75000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-973000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-1257000</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2537,8 +2622,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2562,73 +2648,77 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>849000</v>
+      </c>
+      <c r="E41" s="3">
         <v>612000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>340000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>279000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>306000</v>
-      </c>
-      <c r="H41" s="3">
-        <v>82000</v>
       </c>
       <c r="I41" s="3">
         <v>82000</v>
       </c>
       <c r="J41" s="3">
+        <v>82000</v>
+      </c>
+      <c r="K41" s="3">
         <v>6000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>14000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>4000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>8000</v>
-      </c>
-      <c r="N41" s="3">
-        <v>4000</v>
       </c>
       <c r="O41" s="3">
         <v>4000</v>
       </c>
       <c r="P41" s="3">
+        <v>4000</v>
+      </c>
+      <c r="Q41" s="3">
         <v>3000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>4000</v>
-      </c>
-      <c r="R41" s="3">
-        <v>5000</v>
       </c>
       <c r="S41" s="3">
         <v>5000</v>
       </c>
       <c r="T41" s="3">
+        <v>5000</v>
+      </c>
+      <c r="U41" s="3">
         <v>13000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>249000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>882000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2692,73 +2782,79 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>815000</v>
+      </c>
+      <c r="E43" s="3">
         <v>674000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>704000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>746000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>676000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>513000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>762000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>990000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>977000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1021000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1196000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1247000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1051000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1060000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1082000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1322000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>992000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1019000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>943000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>1057000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>893000</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2822,138 +2918,147 @@
       <c r="W44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>70000</v>
+      </c>
+      <c r="E45" s="3">
         <v>68000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>146000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>83000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>90000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>95000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>974000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>255000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>412000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>359000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>161000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>347000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>180000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>177000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>138000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>198000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>181000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>215000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>168000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>203000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>170000</v>
       </c>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1734000</v>
+      </c>
+      <c r="E46" s="3">
         <v>1354000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1190000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1108000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1072000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>690000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1818000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1251000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1403000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1384000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1365000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1598000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1235000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1240000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1224000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1525000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1178000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1247000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1360000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>2142000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>1067000</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3017,73 +3122,79 @@
       <c r="W47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>5505000</v>
+      </c>
+      <c r="E48" s="3">
         <v>5547000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>5602000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>5232000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>5636000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>5692000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>5823000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>14768000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>14888000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>14858000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>14955000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>10803000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>11130000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>10839000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>10576000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>10664000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>10562000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>10397000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>10068000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>10580000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>10975000</v>
       </c>
     </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3147,8 +3258,11 @@
       <c r="W49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3212,8 +3326,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3277,73 +3394,79 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>87000</v>
+      </c>
+      <c r="E52" s="3">
         <v>98000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>112000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>244000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>195000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>171000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>167000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>174000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>288000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>298000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>317000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>334000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>294000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>262000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>286000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>236000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>241000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>276000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>271000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>306000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>481000</v>
       </c>
     </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3407,73 +3530,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>7326000</v>
+      </c>
+      <c r="E54" s="3">
         <v>6999000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>6904000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>6584000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>6903000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>6553000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>7808000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>16193000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>16579000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>16540000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>16637000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>12735000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>12659000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>12341000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>12086000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>12425000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>11981000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>11920000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>11699000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>13028000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>12523000</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3497,8 +3626,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3522,73 +3652,77 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>257000</v>
+      </c>
+      <c r="E57" s="3">
         <v>281000</v>
-      </c>
-      <c r="E57" s="3">
-        <v>346000</v>
       </c>
       <c r="F57" s="3">
         <v>346000</v>
       </c>
       <c r="G57" s="3">
+        <v>346000</v>
+      </c>
+      <c r="H57" s="3">
         <v>316000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>39000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>552000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>498000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>526000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>611000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>751000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>763000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>670000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>742000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>657000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>654000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>678000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>718000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>678000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>672000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>660000</v>
       </c>
     </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3599,202 +3733,211 @@
         <v>0</v>
       </c>
       <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
         <v>1938000</v>
-      </c>
-      <c r="G58" s="3">
-        <v>1929000</v>
       </c>
       <c r="H58" s="3">
         <v>1929000</v>
       </c>
       <c r="I58" s="3">
+        <v>1929000</v>
+      </c>
+      <c r="J58" s="3">
         <v>420000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>394000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>217000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>9000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>389000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>381000</v>
-      </c>
-      <c r="O58" s="3">
-        <v>432000</v>
       </c>
       <c r="P58" s="3">
         <v>432000</v>
       </c>
       <c r="Q58" s="3">
-        <v>52000</v>
+        <v>432000</v>
       </c>
       <c r="R58" s="3">
         <v>52000</v>
       </c>
       <c r="S58" s="3">
-        <v>0</v>
+        <v>52000</v>
       </c>
       <c r="T58" s="3">
+        <v>0</v>
+      </c>
+      <c r="U58" s="3">
         <v>3000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>15000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>503000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>656000</v>
       </c>
     </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2253000</v>
+      </c>
+      <c r="E59" s="3">
         <v>1585000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1097000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>810000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>860000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>421000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1288000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1500000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1605000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1600000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1790000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1743000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1874000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1699000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1645000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1650000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1540000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1437000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>2095000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>2473000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>2290000</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2510000</v>
+      </c>
+      <c r="E60" s="3">
         <v>1866000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1443000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>3094000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>3105000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2389000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2260000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2392000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2348000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2220000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2930000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2887000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2976000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2873000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2354000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2356000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>2218000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>2158000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>2788000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>3648000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>3606000</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1259000</v>
+      </c>
+      <c r="E61" s="3">
         <v>1261000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1262000</v>
-      </c>
-      <c r="F61" s="3">
-        <v>1064000</v>
       </c>
       <c r="G61" s="3">
         <v>1064000</v>
@@ -3803,117 +3946,123 @@
         <v>1064000</v>
       </c>
       <c r="I61" s="3">
+        <v>1064000</v>
+      </c>
+      <c r="J61" s="3">
         <v>9163000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>9082000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>9143000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>9713000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>9182000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>7341000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>9380000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>9238000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>9325000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>9921000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>9899000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>9850000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>9509000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>9938000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>9022000</v>
       </c>
     </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>519000</v>
+      </c>
+      <c r="E62" s="3">
         <v>459000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>318000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>7767000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>7653000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>7288000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>309000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>318000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>353000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>377000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>387000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>374000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>342000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>347000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>504000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>520000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>568000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>596000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>605000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>645000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>827000</v>
       </c>
     </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3977,8 +4126,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4042,8 +4194,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4107,73 +4262,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4288000</v>
+      </c>
+      <c r="E66" s="3">
         <v>3586000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>3023000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>11925000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>11843000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>10762000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>11753000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>11829000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>11883000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>12349000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>12540000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>10643000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>12821000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>12581000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>12306000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>12921000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>12938000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>12858000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>13158000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>14488000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>13714000</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4197,8 +4358,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4262,8 +4424,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4327,8 +4492,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4339,7 +4507,7 @@
         <v>0</v>
       </c>
       <c r="F70" s="3">
-        <v>1631000</v>
+        <v>0</v>
       </c>
       <c r="G70" s="3">
         <v>1631000</v>
@@ -4357,7 +4525,7 @@
         <v>1631000</v>
       </c>
       <c r="L70" s="3">
-        <v>1671000</v>
+        <v>1631000</v>
       </c>
       <c r="M70" s="3">
         <v>1671000</v>
@@ -4387,13 +4555,16 @@
         <v>1671000</v>
       </c>
       <c r="V70" s="3">
+        <v>1671000</v>
+      </c>
+      <c r="W70" s="3">
         <v>1771000</v>
       </c>
-      <c r="W70" s="3">
+      <c r="X70" s="3">
         <v>3036000</v>
       </c>
     </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4457,73 +4628,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-557000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-178000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>295000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-23954000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-23538000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-22793000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-22517000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-14220000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-13896000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-13835000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-13933000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-13912000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-16173000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-16257000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-16240000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-16525000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-16987000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-16969000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-17463000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-17603000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-17028000</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4587,8 +4764,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4652,8 +4832,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4717,73 +4900,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>3038000</v>
+      </c>
+      <c r="E76" s="3">
         <v>3413000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>3881000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-6972000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-6571000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-5840000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-5576000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>2733000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>3065000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2520000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2426000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>421000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-1833000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-1911000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-1891000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-2167000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-2628000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-2609000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-3130000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-3231000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-4227000</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4847,143 +5036,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-345000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-439000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>5678000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-416000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-745000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-276000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-8319000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-346000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-101000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>75000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-44000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>580000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-170000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-272000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-8000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>307000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-41000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>470000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>75000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-973000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-1257000</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5007,73 +5205,77 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>228000</v>
+      </c>
+      <c r="E83" s="3">
         <v>229000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>194000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>166000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>170000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>158000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>603000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>592000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>573000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>580000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>519000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>402000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>405000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>471000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>459000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>306000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>248000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>223000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>218000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>233000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>276000</v>
       </c>
     </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5137,8 +5339,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5202,8 +5407,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5267,8 +5475,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5332,8 +5543,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5397,73 +5611,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>443000</v>
+      </c>
+      <c r="E89" s="3">
         <v>394000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>388000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>9000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>382000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>376000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>397000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>441000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>329000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>397000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>456000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>405000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>504000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>435000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>656000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>472000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>331000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-157000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>99000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-254000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>376000</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5487,73 +5707,77 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-178000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-149000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-143000</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
       <c r="G91" s="3">
         <v>0</v>
       </c>
       <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
         <v>-3000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-6000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-8000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-10000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-11000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-6000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-10000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-6000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-3000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-9000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-5000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-4000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-531000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>1006000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-1006000</v>
       </c>
     </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5617,8 +5841,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5682,73 +5909,79 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-175000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-147000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-139000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-34000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-102000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-345000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-511000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-545000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-563000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-516000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-856000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>1447000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-489000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-524000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>21000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-586000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-379000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-603000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>380000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-81000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-480000</v>
       </c>
     </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5772,13 +6005,14 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-33000</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
@@ -5837,8 +6071,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5902,8 +6139,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5967,8 +6207,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6032,73 +6275,79 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-32000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-33000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-120000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-2000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-56000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-31000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>190000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>96000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>244000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>115000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>404000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-1782000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>46000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>160000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-610000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>114000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>40000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>524000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-1112000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>1213000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>104000</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6162,69 +6411,75 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>236000</v>
+      </c>
+      <c r="E102" s="3">
         <v>214000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>129000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-27000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>224000</v>
       </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
       <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
         <v>76000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-8000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>10000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-4000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>4000</v>
       </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
       <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>1000</v>
-      </c>
-      <c r="P102" s="3">
-        <v>-1000</v>
       </c>
       <c r="Q102" s="3">
         <v>-1000</v>
       </c>
       <c r="R102" s="3">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>-8000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-236000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-633000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>878000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CHK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CHK_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,296 +665,308 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="24" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="25" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>3083000</v>
+      </c>
+      <c r="E8" s="3">
         <v>887000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>691000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1131000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1230000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>959000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>507000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>2525000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1916000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2074000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2385000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2177000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>3084000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2434000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2271000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>2505000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>2519000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1943000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>2281000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>2753000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>2021000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>2276000</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>394000</v>
+      </c>
+      <c r="E9" s="3">
         <v>340000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>326000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>327000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>380000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>717000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>747000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>867000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>449000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>459000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>477000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>439000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>984000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>530000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>504000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>532000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>551000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>541000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>518000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>512000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>594000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>650000</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>2689000</v>
+      </c>
+      <c r="E10" s="3">
         <v>547000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>365000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>804000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>850000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>242000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>-240000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1658000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1467000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1615000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1908000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1738000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>2100000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1904000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1767000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1973000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1968000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1402000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>1763000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>2241000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>1427000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>1626000</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -979,13 +991,14 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="E12" s="3">
         <v>1000</v>
@@ -997,40 +1010,40 @@
         <v>1000</v>
       </c>
       <c r="H12" s="3">
+        <v>1000</v>
+      </c>
+      <c r="I12" s="3">
         <v>2000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>3000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>10000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>22000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>16000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>8000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>6000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>40000</v>
-      </c>
-      <c r="P12" s="3">
-        <v>15000</v>
       </c>
       <c r="Q12" s="3">
         <v>15000</v>
       </c>
       <c r="R12" s="3">
+        <v>15000</v>
+      </c>
+      <c r="S12" s="3">
         <v>34000</v>
-      </c>
-      <c r="S12" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="T12" s="3" t="s">
         <v>8</v>
@@ -1047,8 +1060,11 @@
       <c r="X12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1115,144 +1131,153 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>1000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>12000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>-5545000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>606000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>642000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>-239000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>8839000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>75000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-48000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>34000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>80000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>-323000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>141000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>63000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>100000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>-128000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>30000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>-148000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>396000</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>428000</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>1169000</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>340000</v>
+      </c>
+      <c r="E15" s="3">
         <v>228000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>229000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>194000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>166000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>170000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>158000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>603000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>592000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>573000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>580000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>519000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>402000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>696000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>761000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>745000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>306000</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>248000</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>223000</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>218000</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>233000</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>276000</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1274,144 +1299,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1662000</v>
+      </c>
+      <c r="E17" s="3">
         <v>1225000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1121000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>-4489000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1630000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1681000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>652000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>10689000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2127000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1962000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2130000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2360000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2335000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2420000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2431000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2463000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2064000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1850000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1691000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>2519000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>2687000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>3423000</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>1421000</v>
+      </c>
+      <c r="E18" s="3">
         <v>-338000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-430000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>5620000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-400000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-722000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-145000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-8164000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-211000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>112000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>255000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-183000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>749000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>14000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-160000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>42000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>455000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>93000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>590000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>234000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-666000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-1147000</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1436,8 +1468,9 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1445,319 +1478,331 @@
         <v>0</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>9000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>24000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>1000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>27000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>143000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>134000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>31000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>3000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>18000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>9000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>24000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>30000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>81000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>162000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>28000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>34000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>41000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>34000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>154000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>48000</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>1761000</v>
+      </c>
+      <c r="E21" s="3">
         <v>-110000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-192000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>5838000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-233000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-525000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>156000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-7427000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>412000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>688000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>853000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>345000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1175000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>449000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>392000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>663000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>789000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>375000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>854000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>486000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-279000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-823000</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>26000</v>
+      </c>
+      <c r="E22" s="3">
         <v>17000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>18000</v>
-      </c>
-      <c r="F22" s="3">
-        <v>23000</v>
       </c>
       <c r="G22" s="3">
         <v>23000</v>
       </c>
       <c r="H22" s="3">
+        <v>23000</v>
+      </c>
+      <c r="I22" s="3">
         <v>50000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>274000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>296000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>160000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>177000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>175000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>161000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>170000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>189000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>179000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>186000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>149000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>144000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>135000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>126000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>252000</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>115000</v>
       </c>
     </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1395000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-355000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-439000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>5621000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-422000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-745000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-276000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-8326000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-340000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-62000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>98000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-335000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>603000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-145000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-258000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>18000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>334000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-17000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>496000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>142000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-764000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-1214000</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-39000</v>
+      </c>
+      <c r="E24" s="3">
         <v>-10000</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
       <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
         <v>-57000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-6000</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
       <c r="I24" s="3">
         <v>0</v>
       </c>
       <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
         <v>-13000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-16000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-1000</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
       <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
         <v>-314000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-2000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>1000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-9000</v>
       </c>
-      <c r="R24" s="3">
-        <v>0</v>
-      </c>
       <c r="S24" s="3">
         <v>0</v>
       </c>
@@ -1765,19 +1810,22 @@
         <v>0</v>
       </c>
       <c r="U24" s="3">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="V24" s="3">
         <v>1000</v>
       </c>
       <c r="W24" s="3">
+        <v>1000</v>
+      </c>
+      <c r="X24" s="3">
         <v>-190000</v>
       </c>
-      <c r="X24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1844,144 +1892,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1434000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-345000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-439000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>5678000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-416000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-745000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-276000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-8313000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-324000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-61000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>98000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-21000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>605000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-146000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-249000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>18000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>334000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-17000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>495000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>141000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-574000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-1214000</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1434000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-345000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-439000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>5678000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-416000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-745000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-276000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-8319000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-346000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-101000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>75000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-44000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>580000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-170000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-272000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-8000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>307000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-41000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>470000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>75000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-973000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-1257000</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2048,8 +2105,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2116,8 +2176,11 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2184,8 +2247,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2252,8 +2318,11 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2261,135 +2330,141 @@
         <v>0</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>-9000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-24000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-1000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-27000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-143000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-134000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-31000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-3000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-18000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-9000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-24000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-30000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-81000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-162000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-28000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-34000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-41000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-34000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-154000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-48000</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1434000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-345000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-439000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>5678000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-416000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-745000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-276000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-8319000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-346000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-101000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>75000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-44000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>580000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-170000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-272000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-8000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>307000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-41000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>470000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>75000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-973000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-1257000</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2456,149 +2531,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1434000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-345000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-439000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>5678000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-416000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-745000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-276000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-8319000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-346000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-101000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>75000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-44000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>580000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-170000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-272000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-8000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>307000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-41000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>470000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>75000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-973000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-1257000</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2623,8 +2707,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2649,76 +2734,80 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>905000</v>
+      </c>
+      <c r="E41" s="3">
         <v>849000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>612000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>340000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>279000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>306000</v>
-      </c>
-      <c r="I41" s="3">
-        <v>82000</v>
       </c>
       <c r="J41" s="3">
         <v>82000</v>
       </c>
       <c r="K41" s="3">
+        <v>82000</v>
+      </c>
+      <c r="L41" s="3">
         <v>6000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>14000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>4000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>8000</v>
-      </c>
-      <c r="O41" s="3">
-        <v>4000</v>
       </c>
       <c r="P41" s="3">
         <v>4000</v>
       </c>
       <c r="Q41" s="3">
+        <v>4000</v>
+      </c>
+      <c r="R41" s="3">
         <v>3000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>4000</v>
-      </c>
-      <c r="S41" s="3">
-        <v>5000</v>
       </c>
       <c r="T41" s="3">
         <v>5000</v>
       </c>
       <c r="U41" s="3">
+        <v>5000</v>
+      </c>
+      <c r="V41" s="3">
         <v>13000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>249000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>882000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2785,76 +2874,82 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1115000</v>
+      </c>
+      <c r="E43" s="3">
         <v>815000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>674000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>704000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>746000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>676000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>513000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>762000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>990000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>977000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1021000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1196000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1247000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1051000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1060000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1082000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1322000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>992000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>1019000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>943000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>1057000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>893000</v>
       </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2921,144 +3016,153 @@
       <c r="X44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>83000</v>
+      </c>
+      <c r="E45" s="3">
         <v>70000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>68000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>146000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>83000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>90000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>95000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>974000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>255000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>412000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>359000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>161000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>347000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>180000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>177000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>138000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>198000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>181000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>215000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>168000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>203000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>170000</v>
       </c>
     </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2103000</v>
+      </c>
+      <c r="E46" s="3">
         <v>1734000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1354000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1190000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1108000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1072000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>690000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1818000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1251000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1403000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1384000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1365000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1598000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1235000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1240000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1224000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1525000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1178000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1247000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1360000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>2142000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>1067000</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3125,76 +3229,82 @@
       <c r="X47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>8837000</v>
+      </c>
+      <c r="E48" s="3">
         <v>5505000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>5547000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>5602000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>5232000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>5636000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>5692000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>5823000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>14768000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>14888000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>14858000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>14955000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>10803000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>11130000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>10839000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>10576000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>10664000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>10562000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>10397000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>10068000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>10580000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>10975000</v>
       </c>
     </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3261,8 +3371,11 @@
       <c r="X49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3329,8 +3442,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3397,76 +3513,82 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>69000</v>
+      </c>
+      <c r="E52" s="3">
         <v>87000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>98000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>112000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>244000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>195000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>171000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>167000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>174000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>288000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>298000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>317000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>334000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>294000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>262000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>286000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>236000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>241000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>276000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>271000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>306000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>481000</v>
       </c>
     </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3533,76 +3655,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>11009000</v>
+      </c>
+      <c r="E54" s="3">
         <v>7326000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>6999000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>6904000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>6584000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>6903000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>6553000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>7808000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>16193000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>16579000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>16540000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>16637000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>12735000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>12659000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>12341000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>12086000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>12425000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>11981000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>11920000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>11699000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>13028000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>12523000</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3627,8 +3755,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3653,76 +3782,80 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>308000</v>
+      </c>
+      <c r="E57" s="3">
         <v>257000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>281000</v>
-      </c>
-      <c r="F57" s="3">
-        <v>346000</v>
       </c>
       <c r="G57" s="3">
         <v>346000</v>
       </c>
       <c r="H57" s="3">
+        <v>346000</v>
+      </c>
+      <c r="I57" s="3">
         <v>316000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>39000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>552000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>498000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>526000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>611000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>751000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>763000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>670000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>742000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>657000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>654000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>678000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>718000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>678000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>672000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>660000</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3736,211 +3869,220 @@
         <v>0</v>
       </c>
       <c r="G58" s="3">
+        <v>0</v>
+      </c>
+      <c r="H58" s="3">
         <v>1938000</v>
-      </c>
-      <c r="H58" s="3">
-        <v>1929000</v>
       </c>
       <c r="I58" s="3">
         <v>1929000</v>
       </c>
       <c r="J58" s="3">
+        <v>1929000</v>
+      </c>
+      <c r="K58" s="3">
         <v>420000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>394000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>217000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>9000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>389000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>381000</v>
-      </c>
-      <c r="P58" s="3">
-        <v>432000</v>
       </c>
       <c r="Q58" s="3">
         <v>432000</v>
       </c>
       <c r="R58" s="3">
-        <v>52000</v>
+        <v>432000</v>
       </c>
       <c r="S58" s="3">
         <v>52000</v>
       </c>
       <c r="T58" s="3">
-        <v>0</v>
+        <v>52000</v>
       </c>
       <c r="U58" s="3">
+        <v>0</v>
+      </c>
+      <c r="V58" s="3">
         <v>3000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>15000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>503000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>656000</v>
       </c>
     </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2139000</v>
+      </c>
+      <c r="E59" s="3">
         <v>2253000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1585000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1097000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>810000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>860000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>421000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1288000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1500000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1605000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1600000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1790000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1743000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1874000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1699000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1645000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1650000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1540000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>1437000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>2095000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>2473000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>2290000</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2447000</v>
+      </c>
+      <c r="E60" s="3">
         <v>2510000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1866000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1443000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>3094000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>3105000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2389000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2260000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2392000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2348000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2220000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2930000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2887000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2976000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2873000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2354000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>2356000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>2218000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>2158000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>2788000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>3648000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>3606000</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>2278000</v>
+      </c>
+      <c r="E61" s="3">
         <v>1259000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1261000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1262000</v>
-      </c>
-      <c r="G61" s="3">
-        <v>1064000</v>
       </c>
       <c r="H61" s="3">
         <v>1064000</v>
@@ -3949,120 +4091,126 @@
         <v>1064000</v>
       </c>
       <c r="J61" s="3">
+        <v>1064000</v>
+      </c>
+      <c r="K61" s="3">
         <v>9163000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>9082000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>9143000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>9713000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>9182000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>7341000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>9380000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>9238000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>9325000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>9921000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>9899000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>9850000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>9509000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>9938000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>9022000</v>
       </c>
     </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>613000</v>
+      </c>
+      <c r="E62" s="3">
         <v>519000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>459000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>318000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>7767000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>7653000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>7288000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>309000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>318000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>353000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>377000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>387000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>374000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>342000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>347000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>504000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>520000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>568000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>596000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>605000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>645000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>827000</v>
       </c>
     </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4129,8 +4277,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4197,8 +4348,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4265,76 +4419,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5338000</v>
+      </c>
+      <c r="E66" s="3">
         <v>4288000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>3586000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>3023000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>11925000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>11843000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>10762000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>11753000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>11829000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>11883000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>12349000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>12540000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>10643000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>12821000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>12581000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>12306000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>12921000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>12938000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>12858000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>13158000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>14488000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>13714000</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4359,8 +4519,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4427,8 +4588,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4495,8 +4659,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4510,7 +4677,7 @@
         <v>0</v>
       </c>
       <c r="G70" s="3">
-        <v>1631000</v>
+        <v>0</v>
       </c>
       <c r="H70" s="3">
         <v>1631000</v>
@@ -4528,7 +4695,7 @@
         <v>1631000</v>
       </c>
       <c r="M70" s="3">
-        <v>1671000</v>
+        <v>1631000</v>
       </c>
       <c r="N70" s="3">
         <v>1671000</v>
@@ -4558,13 +4725,16 @@
         <v>1671000</v>
       </c>
       <c r="W70" s="3">
+        <v>1671000</v>
+      </c>
+      <c r="X70" s="3">
         <v>1771000</v>
       </c>
-      <c r="X70" s="3">
+      <c r="Y70" s="3">
         <v>3036000</v>
       </c>
     </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4631,76 +4801,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>825000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-557000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-178000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>295000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-23954000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-23538000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-22793000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-22517000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-14220000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-13896000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-13835000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-13933000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-13912000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-16173000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-16257000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-16240000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-16525000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-16987000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-16969000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-17463000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-17603000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-17028000</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4767,8 +4943,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4835,8 +5014,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4903,76 +5085,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>5671000</v>
+      </c>
+      <c r="E76" s="3">
         <v>3038000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>3413000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>3881000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-6972000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-6571000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-5840000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-5576000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2733000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>3065000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2520000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2426000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>421000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-1833000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-1911000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-1891000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-2167000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-2628000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-2609000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-3130000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-3231000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>-4227000</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5039,149 +5227,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1434000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-345000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-439000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>5678000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-416000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-745000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-276000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-8319000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-346000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-101000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>75000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-44000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>580000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-170000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-272000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-8000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>307000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-41000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>470000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>75000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-973000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-1257000</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5206,76 +5403,80 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>340000</v>
+      </c>
+      <c r="E83" s="3">
         <v>228000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>229000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>194000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>166000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>170000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>158000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>603000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>592000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>573000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>580000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>519000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>402000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>405000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>471000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>459000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>306000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>248000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>223000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>218000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>233000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>276000</v>
       </c>
     </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5342,8 +5543,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5410,8 +5614,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5478,8 +5685,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5546,8 +5756,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5614,76 +5827,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>563000</v>
+      </c>
+      <c r="E89" s="3">
         <v>443000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>394000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>388000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>9000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>382000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>376000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>397000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>441000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>329000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>397000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>456000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>405000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>504000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>435000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>656000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>472000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>331000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-157000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>99000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-254000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>376000</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5708,76 +5927,80 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-265000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-178000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-149000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-143000</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
       <c r="H91" s="3">
         <v>0</v>
       </c>
       <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
         <v>-3000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-6000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-8000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-10000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-11000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-6000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-10000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-6000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-2000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-3000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-9000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-5000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-4000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-531000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>1006000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-1006000</v>
       </c>
     </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5844,8 +6067,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5912,76 +6138,82 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-455000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-175000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-147000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-139000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-34000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-102000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-345000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-511000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-545000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-563000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-516000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-856000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>1447000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-489000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-524000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>21000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-586000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-379000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-603000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>380000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-81000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-480000</v>
       </c>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6006,17 +6238,18 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-52000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-33000</v>
       </c>
-      <c r="E96" s="3">
-        <v>0</v>
-      </c>
       <c r="F96" s="3">
         <v>0</v>
       </c>
@@ -6074,8 +6307,11 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6142,8 +6378,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6210,8 +6449,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6278,76 +6520,82 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-52000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-32000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-33000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-120000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-2000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-56000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-31000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>190000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>96000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>244000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>115000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>404000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-1782000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>46000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>160000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-610000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>114000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>40000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>524000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-1112000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>1213000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>104000</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6414,72 +6662,78 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>56000</v>
+      </c>
+      <c r="E102" s="3">
         <v>236000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>214000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>129000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-27000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>224000</v>
       </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
       <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3">
         <v>76000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-8000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>10000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-4000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>4000</v>
       </c>
-      <c r="O102" s="3">
-        <v>0</v>
-      </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>1000</v>
-      </c>
-      <c r="Q102" s="3">
-        <v>-1000</v>
       </c>
       <c r="R102" s="3">
         <v>-1000</v>
       </c>
       <c r="S102" s="3">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
         <v>-8000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-236000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-633000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>878000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CHK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CHK_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="92">
   <si>
     <t>CHK</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,308 +665,321 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="25" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="26" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42825</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>656000</v>
+      </c>
+      <c r="E8" s="3">
         <v>3083000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>887000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>691000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1131000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1230000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>959000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>507000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2525000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1916000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2074000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2385000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2177000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>3084000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2434000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>2271000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>2505000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>2519000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1943000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>2281000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>2753000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>2021000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>2276000</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>415000</v>
+      </c>
+      <c r="E9" s="3">
         <v>394000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>340000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>326000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>327000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>380000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>717000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>747000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>867000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>449000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>459000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>477000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>439000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>984000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>530000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>504000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>532000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>551000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>541000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>518000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>512000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>594000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>650000</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>241000</v>
+      </c>
+      <c r="E10" s="3">
         <v>2689000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>547000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>365000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>804000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>850000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>242000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>-240000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1658000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1467000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1615000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1908000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1738000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>2100000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1904000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1767000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1973000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1968000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>1402000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>1763000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>2241000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>1427000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>1626000</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -992,16 +1005,17 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E12" s="3">
         <v>3000</v>
-      </c>
-      <c r="E12" s="3">
-        <v>1000</v>
       </c>
       <c r="F12" s="3">
         <v>1000</v>
@@ -1013,40 +1027,40 @@
         <v>1000</v>
       </c>
       <c r="I12" s="3">
+        <v>1000</v>
+      </c>
+      <c r="J12" s="3">
         <v>2000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>3000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>10000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>22000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>16000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>8000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>6000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>40000</v>
-      </c>
-      <c r="Q12" s="3">
-        <v>15000</v>
       </c>
       <c r="R12" s="3">
         <v>15000</v>
       </c>
       <c r="S12" s="3">
+        <v>15000</v>
+      </c>
+      <c r="T12" s="3">
         <v>34000</v>
-      </c>
-      <c r="T12" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="U12" s="3" t="s">
         <v>8</v>
@@ -1063,8 +1077,11 @@
       <c r="Y12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1134,8 +1151,11 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1143,141 +1163,147 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>1000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>12000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>-5545000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>606000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>642000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>-239000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>8839000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>75000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>-48000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>34000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>80000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>-323000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>141000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>63000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>100000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>-128000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>30000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>-148000</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>396000</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>428000</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>1169000</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>409000</v>
+      </c>
+      <c r="E15" s="3">
         <v>340000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>228000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>229000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>194000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>166000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>170000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>158000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>603000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>592000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>573000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>580000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>519000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>402000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>696000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>761000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>745000</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>306000</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>248000</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>223000</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>218000</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>233000</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>276000</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1300,150 +1326,157 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1450000</v>
+      </c>
+      <c r="E17" s="3">
         <v>1662000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1225000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1121000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>-4489000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1630000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1681000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>652000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>10689000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2127000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1962000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2130000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2360000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2335000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2420000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2431000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2463000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2064000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1850000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1691000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>2519000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>2687000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>3423000</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-794000</v>
+      </c>
+      <c r="E18" s="3">
         <v>1421000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-338000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-430000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>5620000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-400000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-722000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-145000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-8164000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-211000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>112000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>255000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-183000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>749000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>14000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-160000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>42000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>455000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>93000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>590000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>234000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-666000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-1147000</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1469,343 +1502,356 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>17000</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>9000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>24000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>1000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>27000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>143000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>134000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>31000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>3000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>18000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>9000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>24000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>30000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>81000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>162000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>28000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>34000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>41000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>34000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>154000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>48000</v>
       </c>
     </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-368000</v>
+      </c>
+      <c r="E21" s="3">
         <v>1761000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-110000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-192000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>5838000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-233000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-525000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>156000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-7427000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>412000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>688000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>853000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>345000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1175000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>449000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>392000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>663000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>789000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>375000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>854000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>486000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-279000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>-823000</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>33000</v>
+      </c>
+      <c r="E22" s="3">
         <v>26000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>17000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>18000</v>
-      </c>
-      <c r="G22" s="3">
-        <v>23000</v>
       </c>
       <c r="H22" s="3">
         <v>23000</v>
       </c>
       <c r="I22" s="3">
+        <v>23000</v>
+      </c>
+      <c r="J22" s="3">
         <v>50000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>274000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>296000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>160000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>177000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>175000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>161000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>170000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>189000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>179000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>186000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>149000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>144000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>135000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>126000</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>252000</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>115000</v>
       </c>
     </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-810000</v>
+      </c>
+      <c r="E23" s="3">
         <v>1395000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-355000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-439000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>5621000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-422000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-745000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-276000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-8326000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-340000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-62000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>98000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-335000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>603000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-145000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-258000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>18000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>334000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-17000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>496000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>142000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-764000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-1214000</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-46000</v>
+      </c>
+      <c r="E24" s="3">
         <v>-39000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-10000</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
       <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
         <v>-57000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-6000</v>
       </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
       <c r="J24" s="3">
         <v>0</v>
       </c>
       <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
         <v>-13000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-16000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-1000</v>
       </c>
-      <c r="N24" s="3">
-        <v>0</v>
-      </c>
       <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3">
         <v>-314000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>1000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-9000</v>
       </c>
-      <c r="S24" s="3">
-        <v>0</v>
-      </c>
       <c r="T24" s="3">
         <v>0</v>
       </c>
@@ -1813,19 +1859,22 @@
         <v>0</v>
       </c>
       <c r="V24" s="3">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="W24" s="3">
         <v>1000</v>
       </c>
       <c r="X24" s="3">
+        <v>1000</v>
+      </c>
+      <c r="Y24" s="3">
         <v>-190000</v>
       </c>
-      <c r="Y24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1895,150 +1944,159 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-764000</v>
+      </c>
+      <c r="E26" s="3">
         <v>1434000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-345000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-439000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>5678000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-416000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-745000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-276000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-8313000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-324000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-61000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>98000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-21000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>605000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-146000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-249000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>18000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>334000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-17000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>495000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>141000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-574000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-1214000</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-764000</v>
+      </c>
+      <c r="E27" s="3">
         <v>1434000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-345000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-439000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>5678000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-416000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-745000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-276000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-8319000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-346000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-101000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>75000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-44000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>580000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-170000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-272000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-8000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>307000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-41000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>470000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>75000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-973000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-1257000</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2108,8 +2166,11 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2179,8 +2240,11 @@
       <c r="Y29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2250,8 +2314,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2321,150 +2388,159 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>-17000</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
       </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>-9000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-24000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-1000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-27000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-143000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-134000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-31000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-3000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-18000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-9000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-24000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-30000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-81000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-162000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-28000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-34000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-41000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-34000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-154000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-48000</v>
       </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-764000</v>
+      </c>
+      <c r="E33" s="3">
         <v>1434000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-345000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-439000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>5678000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-416000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-745000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-276000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-8319000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-346000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-101000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>75000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-44000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>580000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-170000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-272000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-8000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>307000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-41000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>470000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>75000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-973000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-1257000</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2534,155 +2610,164 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-764000</v>
+      </c>
+      <c r="E35" s="3">
         <v>1434000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-345000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-439000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>5678000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-416000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-745000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-276000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-8319000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-346000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-101000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>75000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-44000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>580000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-170000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-272000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-8000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>307000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-41000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>470000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>75000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-973000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-1257000</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42825</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2708,8 +2793,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2735,79 +2821,83 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>19000</v>
+      </c>
+      <c r="E41" s="3">
         <v>905000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>849000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>612000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>340000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>279000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>306000</v>
-      </c>
-      <c r="J41" s="3">
-        <v>82000</v>
       </c>
       <c r="K41" s="3">
         <v>82000</v>
       </c>
       <c r="L41" s="3">
+        <v>82000</v>
+      </c>
+      <c r="M41" s="3">
         <v>6000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>14000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>4000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>8000</v>
-      </c>
-      <c r="P41" s="3">
-        <v>4000</v>
       </c>
       <c r="Q41" s="3">
         <v>4000</v>
       </c>
       <c r="R41" s="3">
+        <v>4000</v>
+      </c>
+      <c r="S41" s="3">
         <v>3000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>4000</v>
-      </c>
-      <c r="T41" s="3">
-        <v>5000</v>
       </c>
       <c r="U41" s="3">
         <v>5000</v>
       </c>
       <c r="V41" s="3">
+        <v>5000</v>
+      </c>
+      <c r="W41" s="3">
         <v>13000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>249000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>882000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2877,79 +2967,85 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1383000</v>
+      </c>
+      <c r="E43" s="3">
         <v>1115000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>815000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>674000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>704000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>746000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>676000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>513000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>762000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>990000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>977000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1021000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1196000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1247000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1051000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1060000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1082000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1322000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>992000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>1019000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>943000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>1057000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>893000</v>
       </c>
     </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3019,150 +3115,159 @@
       <c r="Y44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>85000</v>
+      </c>
+      <c r="E45" s="3">
         <v>83000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>70000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>68000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>146000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>83000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>90000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>95000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>974000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>255000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>412000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>359000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>161000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>347000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>180000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>177000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>138000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>198000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>181000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>215000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>168000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>203000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>170000</v>
       </c>
     </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1487000</v>
+      </c>
+      <c r="E46" s="3">
         <v>2103000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1734000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1354000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1190000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1108000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1072000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>690000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1818000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1251000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1403000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1384000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1365000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1598000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1235000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1240000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1224000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1525000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1178000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1247000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>1360000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>2142000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>1067000</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3232,79 +3337,85 @@
       <c r="Y47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>11717000</v>
+      </c>
+      <c r="E48" s="3">
         <v>8837000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>5505000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>5547000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>5602000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>5232000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>5636000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>5692000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>5823000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>14768000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>14888000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>14858000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>14955000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>10803000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>11130000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>10839000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>10576000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>10664000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>10562000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>10397000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>10068000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>10580000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>10975000</v>
       </c>
     </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3374,8 +3485,11 @@
       <c r="Y49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3445,8 +3559,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3516,79 +3633,85 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>89000</v>
+      </c>
+      <c r="E52" s="3">
         <v>69000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>87000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>98000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>112000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>244000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>195000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>171000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>167000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>174000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>288000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>298000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>317000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>334000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>294000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>262000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>286000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>236000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>241000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>276000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>271000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>306000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>481000</v>
       </c>
     </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3658,79 +3781,85 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>13293000</v>
+      </c>
+      <c r="E54" s="3">
         <v>11009000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>7326000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>6999000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>6904000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>6584000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>6903000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>6553000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>7808000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>16193000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>16579000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>16540000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>16637000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>12735000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>12659000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>12341000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>12086000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>12425000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>11981000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>11920000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>11699000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>13028000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>12523000</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3756,8 +3885,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3783,84 +3913,88 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>374000</v>
+      </c>
+      <c r="E57" s="3">
         <v>308000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>257000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>281000</v>
-      </c>
-      <c r="G57" s="3">
-        <v>346000</v>
       </c>
       <c r="H57" s="3">
         <v>346000</v>
       </c>
       <c r="I57" s="3">
+        <v>346000</v>
+      </c>
+      <c r="J57" s="3">
         <v>316000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>39000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>552000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>498000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>526000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>611000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>751000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>763000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>670000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>742000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>657000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>654000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>678000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>718000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>678000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>672000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>660000</v>
       </c>
     </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
-        <v>0</v>
+      <c r="D58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E58" s="3">
         <v>0</v>
@@ -3872,220 +4006,229 @@
         <v>0</v>
       </c>
       <c r="H58" s="3">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3">
         <v>1938000</v>
-      </c>
-      <c r="I58" s="3">
-        <v>1929000</v>
       </c>
       <c r="J58" s="3">
         <v>1929000</v>
       </c>
       <c r="K58" s="3">
+        <v>1929000</v>
+      </c>
+      <c r="L58" s="3">
         <v>420000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>394000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>217000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>9000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>389000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>381000</v>
-      </c>
-      <c r="Q58" s="3">
-        <v>432000</v>
       </c>
       <c r="R58" s="3">
         <v>432000</v>
       </c>
       <c r="S58" s="3">
-        <v>52000</v>
+        <v>432000</v>
       </c>
       <c r="T58" s="3">
         <v>52000</v>
       </c>
       <c r="U58" s="3">
-        <v>0</v>
+        <v>52000</v>
       </c>
       <c r="V58" s="3">
+        <v>0</v>
+      </c>
+      <c r="W58" s="3">
         <v>3000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>15000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>503000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>656000</v>
       </c>
     </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>4018000</v>
+      </c>
+      <c r="E59" s="3">
         <v>2139000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>2253000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1585000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1097000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>810000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>860000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>421000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1288000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1500000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1605000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1600000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1790000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1743000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1874000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1699000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1645000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1650000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>1540000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>1437000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>2095000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>2473000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>2290000</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>4392000</v>
+      </c>
+      <c r="E60" s="3">
         <v>2447000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2510000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1866000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1443000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>3094000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>3105000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2389000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2260000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2392000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2348000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2220000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2930000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2887000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2976000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2873000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>2354000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>2356000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>2218000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>2158000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>2788000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>3648000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>3606000</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>2774000</v>
+      </c>
+      <c r="E61" s="3">
         <v>2278000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1259000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1261000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1262000</v>
-      </c>
-      <c r="H61" s="3">
-        <v>1064000</v>
       </c>
       <c r="I61" s="3">
         <v>1064000</v>
@@ -4094,123 +4237,129 @@
         <v>1064000</v>
       </c>
       <c r="K61" s="3">
+        <v>1064000</v>
+      </c>
+      <c r="L61" s="3">
         <v>9163000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>9082000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>9143000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>9713000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>9182000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>7341000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>9380000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>9238000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>9325000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>9921000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>9899000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>9850000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>9509000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>9938000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>9022000</v>
       </c>
     </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>744000</v>
+      </c>
+      <c r="E62" s="3">
         <v>613000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>519000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>459000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>318000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>7767000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>7653000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>7288000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>309000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>318000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>353000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>377000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>387000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>374000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>342000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>347000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>504000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>520000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>568000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>596000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>605000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>645000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>827000</v>
       </c>
     </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4280,8 +4429,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4351,8 +4503,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4422,79 +4577,85 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>7910000</v>
+      </c>
+      <c r="E66" s="3">
         <v>5338000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>4288000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>3586000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>3023000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>11925000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>11843000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>10762000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>11753000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>11829000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>11883000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>12349000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>12540000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>10643000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>12821000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>12581000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>12306000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>12921000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>12938000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>12858000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>13158000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>14488000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>13714000</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4520,8 +4681,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4591,8 +4753,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4662,8 +4827,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4680,7 +4848,7 @@
         <v>0</v>
       </c>
       <c r="H70" s="3">
-        <v>1631000</v>
+        <v>0</v>
       </c>
       <c r="I70" s="3">
         <v>1631000</v>
@@ -4698,7 +4866,7 @@
         <v>1631000</v>
       </c>
       <c r="N70" s="3">
-        <v>1671000</v>
+        <v>1631000</v>
       </c>
       <c r="O70" s="3">
         <v>1671000</v>
@@ -4728,13 +4896,16 @@
         <v>1671000</v>
       </c>
       <c r="X70" s="3">
+        <v>1671000</v>
+      </c>
+      <c r="Y70" s="3">
         <v>1771000</v>
       </c>
-      <c r="Y70" s="3">
+      <c r="Z70" s="3">
         <v>3036000</v>
       </c>
     </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4804,79 +4975,85 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-233000</v>
+      </c>
+      <c r="E72" s="3">
         <v>825000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-557000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-178000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>295000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-23954000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-23538000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-22793000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-22517000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-14220000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-13896000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-13835000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-13933000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-13912000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-16173000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-16257000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-16240000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-16525000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-16987000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-16969000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-17463000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-17603000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-17028000</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4946,8 +5123,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5017,8 +5197,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5088,79 +5271,85 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>5383000</v>
+      </c>
+      <c r="E76" s="3">
         <v>5671000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>3038000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>3413000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>3881000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-6972000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-6571000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-5840000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-5576000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2733000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>3065000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2520000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2426000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>421000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-1833000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-1911000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-1891000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-2167000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-2628000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-2609000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-3130000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>-3231000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>-4227000</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5230,155 +5419,164 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42825</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-764000</v>
+      </c>
+      <c r="E81" s="3">
         <v>1434000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-345000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-439000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>5678000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-416000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-745000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-276000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-8319000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-346000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-101000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>75000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-44000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>580000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-170000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-272000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-8000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>307000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-41000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>470000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>75000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-973000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-1257000</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5404,79 +5602,83 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>409000</v>
+      </c>
+      <c r="E83" s="3">
         <v>340000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>228000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>229000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>194000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>166000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>170000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>158000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>603000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>592000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>573000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>580000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>519000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>402000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>405000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>471000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>459000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>306000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>248000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>223000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>218000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>233000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>276000</v>
       </c>
     </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5546,8 +5748,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5617,8 +5822,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5688,8 +5896,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5759,8 +5970,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5830,79 +6044,85 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>853000</v>
+      </c>
+      <c r="E89" s="3">
         <v>563000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>443000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>394000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>388000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>9000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>382000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>376000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>397000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>441000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>329000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>397000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>456000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>405000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>504000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>435000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>656000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>472000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>331000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-157000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>99000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-254000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>376000</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5928,79 +6148,83 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-344000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-265000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-178000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-149000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-143000</v>
       </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
       <c r="I91" s="3">
         <v>0</v>
       </c>
       <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3">
         <v>-3000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-6000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-8000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-10000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-11000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-6000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-10000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-6000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-2000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-3000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-9000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-5000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-4000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-531000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>1006000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-1006000</v>
       </c>
     </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6070,8 +6294,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6141,79 +6368,85 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1947000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-455000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-175000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-147000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-139000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-34000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-102000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-345000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-511000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-545000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-563000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-516000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-856000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>1447000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-489000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-524000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>21000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-586000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-379000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-603000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>380000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-81000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-480000</v>
       </c>
     </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6239,20 +6472,21 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-210000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-52000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-33000</v>
       </c>
-      <c r="F96" s="3">
-        <v>0</v>
-      </c>
       <c r="G96" s="3">
         <v>0</v>
       </c>
@@ -6310,8 +6544,11 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6381,8 +6618,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6452,8 +6692,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6523,79 +6766,85 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>208000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-52000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-32000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-33000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-120000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-2000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-56000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-31000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>190000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>96000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>244000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>115000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>404000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-1782000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>46000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>160000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-610000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>114000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>40000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>524000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-1112000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>1213000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>104000</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6665,75 +6914,81 @@
       <c r="Y101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-886000</v>
+      </c>
+      <c r="E102" s="3">
         <v>56000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>236000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>214000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>129000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-27000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>224000</v>
       </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
       <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
         <v>76000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-8000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>10000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-4000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>4000</v>
       </c>
-      <c r="P102" s="3">
-        <v>0</v>
-      </c>
       <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>1000</v>
-      </c>
-      <c r="R102" s="3">
-        <v>-1000</v>
       </c>
       <c r="S102" s="3">
         <v>-1000</v>
       </c>
       <c r="T102" s="3">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
         <v>-8000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-236000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-633000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>878000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CHK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CHK_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="92">
   <si>
     <t>CHK</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,321 +665,334 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="26" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="27" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>3499000</v>
+      </c>
+      <c r="E8" s="3">
         <v>656000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>3083000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>887000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>691000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1131000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1230000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>959000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>507000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2525000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1916000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2074000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2385000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2177000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>3084000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>2434000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>2271000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>2505000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>2519000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>1943000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>2281000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>2753000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>2021000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>2276000</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>449000</v>
+      </c>
+      <c r="E9" s="3">
         <v>415000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>394000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>340000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>326000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>327000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>380000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>717000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>747000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>867000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>449000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>459000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>477000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>439000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>984000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>530000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>504000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>532000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>551000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>541000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>518000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>512000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>594000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>650000</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>3050000</v>
+      </c>
+      <c r="E10" s="3">
         <v>241000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>2689000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>547000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>365000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>804000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>850000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>242000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>-240000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1658000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1467000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1615000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1908000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1738000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>2100000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1904000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1767000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1973000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>1968000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>1402000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>1763000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>2241000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>1427000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>1626000</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1006,19 +1019,20 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E12" s="3">
         <v>5000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>3000</v>
-      </c>
-      <c r="F12" s="3">
-        <v>1000</v>
       </c>
       <c r="G12" s="3">
         <v>1000</v>
@@ -1030,40 +1044,40 @@
         <v>1000</v>
       </c>
       <c r="J12" s="3">
+        <v>1000</v>
+      </c>
+      <c r="K12" s="3">
         <v>2000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>3000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>10000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>22000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>16000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>8000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>6000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>40000</v>
-      </c>
-      <c r="R12" s="3">
-        <v>15000</v>
       </c>
       <c r="S12" s="3">
         <v>15000</v>
       </c>
       <c r="T12" s="3">
+        <v>15000</v>
+      </c>
+      <c r="U12" s="3">
         <v>34000</v>
-      </c>
-      <c r="U12" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="V12" s="3" t="s">
         <v>8</v>
@@ -1080,8 +1094,11 @@
       <c r="Z12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1154,8 +1171,11 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1166,144 +1186,150 @@
         <v>0</v>
       </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>1000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>12000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>-5545000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>606000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>642000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-239000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>8839000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>75000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>-48000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>34000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>80000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>-323000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>141000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>63000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>100000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>-128000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>30000</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>-148000</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>396000</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>428000</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>1169000</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>451000</v>
+      </c>
+      <c r="E15" s="3">
         <v>409000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>340000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>228000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>229000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>194000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>166000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>170000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>158000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>603000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>592000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>573000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>580000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>519000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>402000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>696000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>761000</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>745000</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>306000</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>248000</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>223000</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>218000</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>233000</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>276000</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1327,156 +1353,163 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2158000</v>
+      </c>
+      <c r="E17" s="3">
         <v>1450000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1662000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1225000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1121000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>-4489000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1630000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1681000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>652000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>10689000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2127000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1962000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2130000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2360000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2335000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2420000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2431000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2463000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>2064000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1850000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1691000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>2519000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>2687000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>3423000</v>
       </c>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>1341000</v>
+      </c>
+      <c r="E18" s="3">
         <v>-794000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>1421000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-338000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-430000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>5620000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-400000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-722000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-145000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-8164000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-211000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>112000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>255000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-183000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>749000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>14000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-160000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>42000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>455000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>93000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>590000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>234000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-666000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-1147000</v>
       </c>
     </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1503,358 +1536,371 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>9000</v>
+      </c>
+      <c r="E20" s="3">
         <v>17000</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
       <c r="F20" s="3">
         <v>0</v>
       </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>9000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>24000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>1000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>27000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>143000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>134000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>31000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>3000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>18000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>9000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>24000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>30000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>81000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>162000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>28000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>34000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>41000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>34000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>154000</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>48000</v>
       </c>
     </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>1801000</v>
+      </c>
+      <c r="E21" s="3">
         <v>-368000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>1761000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-110000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-192000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>5838000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-233000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-525000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>156000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-7427000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>412000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>688000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>853000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>345000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1175000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>449000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>392000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>663000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>789000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>375000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>854000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>486000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>-279000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>-823000</v>
       </c>
     </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>36000</v>
+      </c>
+      <c r="E22" s="3">
         <v>33000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>26000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>17000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>18000</v>
-      </c>
-      <c r="H22" s="3">
-        <v>23000</v>
       </c>
       <c r="I22" s="3">
         <v>23000</v>
       </c>
       <c r="J22" s="3">
+        <v>23000</v>
+      </c>
+      <c r="K22" s="3">
         <v>50000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>274000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>296000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>160000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>177000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>175000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>161000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>170000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>189000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>179000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>186000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>149000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>144000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>135000</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>126000</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>252000</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>115000</v>
       </c>
     </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1314000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-810000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>1395000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-355000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-439000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>5621000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-422000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-745000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-276000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-8326000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-340000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-62000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>98000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-335000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>603000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-145000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-258000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>18000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>334000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-17000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>496000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>142000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-764000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-1214000</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>77000</v>
+      </c>
+      <c r="E24" s="3">
         <v>-46000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-39000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-10000</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
       <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
         <v>-57000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-6000</v>
       </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
       <c r="K24" s="3">
         <v>0</v>
       </c>
       <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
         <v>-13000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-16000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-1000</v>
       </c>
-      <c r="O24" s="3">
-        <v>0</v>
-      </c>
       <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
         <v>-314000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-2000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>1000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-9000</v>
       </c>
-      <c r="T24" s="3">
-        <v>0</v>
-      </c>
       <c r="U24" s="3">
         <v>0</v>
       </c>
@@ -1862,19 +1908,22 @@
         <v>0</v>
       </c>
       <c r="W24" s="3">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="X24" s="3">
         <v>1000</v>
       </c>
       <c r="Y24" s="3">
+        <v>1000</v>
+      </c>
+      <c r="Z24" s="3">
         <v>-190000</v>
       </c>
-      <c r="Z24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1947,156 +1996,165 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1237000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-764000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1434000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-345000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-439000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>5678000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-416000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-745000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-276000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-8313000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-324000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-61000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>98000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-21000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>605000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-146000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-249000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>18000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>334000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-17000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>495000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>141000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-574000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-1214000</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1237000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-764000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>1434000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-345000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-439000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>5678000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-416000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-745000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-276000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-8319000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-346000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-101000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>75000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-44000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>580000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-170000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-272000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-8000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>307000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-41000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>470000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>75000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-973000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-1257000</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2169,8 +2227,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2243,8 +2304,11 @@
       <c r="Z29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2317,8 +2381,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2391,156 +2458,165 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-9000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-17000</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
       <c r="F32" s="3">
         <v>0</v>
       </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>-9000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-24000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-1000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-27000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-143000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-134000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-31000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-3000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-18000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-9000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-24000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-30000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-81000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-162000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-28000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-34000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-41000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-34000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-154000</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-48000</v>
       </c>
     </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1237000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-764000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>1434000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-345000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-439000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>5678000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-416000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-745000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-276000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-8319000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-346000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-101000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>75000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-44000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>580000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-170000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-272000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-8000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>307000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-41000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>470000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>75000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-973000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-1257000</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2613,161 +2689,170 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1237000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-764000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>1434000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-345000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-439000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>5678000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-416000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-745000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-276000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-8319000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-346000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-101000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>75000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-44000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>580000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-170000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-272000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-8000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>307000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-41000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>470000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>75000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-973000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-1257000</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2794,8 +2879,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2822,82 +2908,86 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>17000</v>
+      </c>
+      <c r="E41" s="3">
         <v>19000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>905000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>849000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>612000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>340000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>279000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>306000</v>
-      </c>
-      <c r="K41" s="3">
-        <v>82000</v>
       </c>
       <c r="L41" s="3">
         <v>82000</v>
       </c>
       <c r="M41" s="3">
+        <v>82000</v>
+      </c>
+      <c r="N41" s="3">
         <v>6000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>14000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>4000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>8000</v>
-      </c>
-      <c r="Q41" s="3">
-        <v>4000</v>
       </c>
       <c r="R41" s="3">
         <v>4000</v>
       </c>
       <c r="S41" s="3">
+        <v>4000</v>
+      </c>
+      <c r="T41" s="3">
         <v>3000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>4000</v>
-      </c>
-      <c r="U41" s="3">
-        <v>5000</v>
       </c>
       <c r="V41" s="3">
         <v>5000</v>
       </c>
       <c r="W41" s="3">
+        <v>5000</v>
+      </c>
+      <c r="X41" s="3">
         <v>13000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>249000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>882000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2970,82 +3060,88 @@
       <c r="Z42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1804000</v>
+      </c>
+      <c r="E43" s="3">
         <v>1383000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1115000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>815000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>674000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>704000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>746000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>676000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>513000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>762000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>990000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>977000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1021000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1196000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1247000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1051000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1060000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1082000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>1322000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>992000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>1019000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>943000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>1057000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>893000</v>
       </c>
     </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3118,156 +3214,165 @@
       <c r="Z44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>189000</v>
+      </c>
+      <c r="E45" s="3">
         <v>85000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>83000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>70000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>68000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>146000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>83000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>90000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>95000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>974000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>255000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>412000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>359000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>161000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>347000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>180000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>177000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>138000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>198000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>181000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>215000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>168000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>203000</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>170000</v>
       </c>
     </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2010000</v>
+      </c>
+      <c r="E46" s="3">
         <v>1487000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2103000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1734000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1354000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1190000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1108000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1072000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>690000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1818000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1251000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1403000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1384000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1365000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1598000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1235000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1240000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1224000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1525000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1178000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>1247000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>1360000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>2142000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>1067000</v>
       </c>
     </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3340,82 +3445,88 @@
       <c r="Z47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>11778000</v>
+      </c>
+      <c r="E48" s="3">
         <v>11717000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>8837000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>5505000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>5547000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>5602000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>5232000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>5636000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>5692000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>5823000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>14768000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>14888000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>14858000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>14955000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>10803000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>11130000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>10839000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>10576000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>10664000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>10562000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>10397000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>10068000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>10580000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>10975000</v>
       </c>
     </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3488,8 +3599,11 @@
       <c r="Z49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3562,8 +3676,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3636,82 +3753,88 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>111000</v>
+      </c>
+      <c r="E52" s="3">
         <v>89000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>69000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>87000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>98000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>112000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>244000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>195000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>171000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>167000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>174000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>288000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>298000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>317000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>334000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>294000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>262000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>286000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>236000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>241000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>276000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>271000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>306000</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>481000</v>
       </c>
     </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3784,82 +3907,88 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>13899000</v>
+      </c>
+      <c r="E54" s="3">
         <v>13293000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>11009000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>7326000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>6999000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>6904000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>6584000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>6903000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>6553000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>7808000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>16193000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>16579000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>16540000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>16637000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>12735000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>12659000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>12341000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>12086000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>12425000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>11981000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>11920000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>11699000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>13028000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>12523000</v>
       </c>
     </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3886,8 +4015,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3914,90 +4044,94 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>414000</v>
+      </c>
+      <c r="E57" s="3">
         <v>374000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>308000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>257000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>281000</v>
-      </c>
-      <c r="H57" s="3">
-        <v>346000</v>
       </c>
       <c r="I57" s="3">
         <v>346000</v>
       </c>
       <c r="J57" s="3">
+        <v>346000</v>
+      </c>
+      <c r="K57" s="3">
         <v>316000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>39000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>552000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>498000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>526000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>611000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>751000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>763000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>670000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>742000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>657000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>654000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>678000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>718000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>678000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>672000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>660000</v>
       </c>
     </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E58" s="3">
-        <v>0</v>
+      <c r="E58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F58" s="3">
         <v>0</v>
@@ -4009,229 +4143,238 @@
         <v>0</v>
       </c>
       <c r="I58" s="3">
+        <v>0</v>
+      </c>
+      <c r="J58" s="3">
         <v>1938000</v>
-      </c>
-      <c r="J58" s="3">
-        <v>1929000</v>
       </c>
       <c r="K58" s="3">
         <v>1929000</v>
       </c>
       <c r="L58" s="3">
+        <v>1929000</v>
+      </c>
+      <c r="M58" s="3">
         <v>420000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>394000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>217000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>9000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>389000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>381000</v>
-      </c>
-      <c r="R58" s="3">
-        <v>432000</v>
       </c>
       <c r="S58" s="3">
         <v>432000</v>
       </c>
       <c r="T58" s="3">
-        <v>52000</v>
+        <v>432000</v>
       </c>
       <c r="U58" s="3">
         <v>52000</v>
       </c>
       <c r="V58" s="3">
-        <v>0</v>
+        <v>52000</v>
       </c>
       <c r="W58" s="3">
+        <v>0</v>
+      </c>
+      <c r="X58" s="3">
         <v>3000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>15000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>503000</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>656000</v>
       </c>
     </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>3827000</v>
+      </c>
+      <c r="E59" s="3">
         <v>4018000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>2139000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>2253000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1585000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1097000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>810000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>860000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>421000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1288000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1500000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1605000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1600000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1790000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1743000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1874000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1699000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1645000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>1650000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>1540000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>1437000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>2095000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>2473000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>2290000</v>
       </c>
     </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>4241000</v>
+      </c>
+      <c r="E60" s="3">
         <v>4392000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2447000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2510000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1866000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1443000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>3094000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>3105000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2389000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2260000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2392000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2348000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2220000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2930000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2887000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2976000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>2873000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>2354000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>2356000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>2218000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>2158000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>2788000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>3648000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>3606000</v>
       </c>
     </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>3046000</v>
+      </c>
+      <c r="E61" s="3">
         <v>2774000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>2278000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1259000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1261000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1262000</v>
-      </c>
-      <c r="I61" s="3">
-        <v>1064000</v>
       </c>
       <c r="J61" s="3">
         <v>1064000</v>
@@ -4240,126 +4383,132 @@
         <v>1064000</v>
       </c>
       <c r="L61" s="3">
+        <v>1064000</v>
+      </c>
+      <c r="M61" s="3">
         <v>9163000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>9082000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>9143000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>9713000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>9182000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>7341000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>9380000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>9238000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>9325000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>9921000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>9899000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>9850000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>9509000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>9938000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>9022000</v>
       </c>
     </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>804000</v>
+      </c>
+      <c r="E62" s="3">
         <v>744000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>613000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>519000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>459000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>318000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>7767000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>7653000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>7288000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>309000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>318000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>353000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>377000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>387000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>374000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>342000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>347000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>504000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>520000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>568000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>596000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>605000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>645000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>827000</v>
       </c>
     </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4432,8 +4581,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4506,8 +4658,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4580,82 +4735,88 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>8091000</v>
+      </c>
+      <c r="E66" s="3">
         <v>7910000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>5338000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>4288000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>3586000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>3023000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>11925000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>11843000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>10762000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>11753000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>11829000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>11883000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>12349000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>12540000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>10643000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>12821000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>12581000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>12306000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>12921000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>12938000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>12858000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>13158000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>14488000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>13714000</v>
       </c>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4682,8 +4843,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4756,8 +4918,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4830,8 +4995,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4851,7 +5019,7 @@
         <v>0</v>
       </c>
       <c r="I70" s="3">
-        <v>1631000</v>
+        <v>0</v>
       </c>
       <c r="J70" s="3">
         <v>1631000</v>
@@ -4869,7 +5037,7 @@
         <v>1631000</v>
       </c>
       <c r="O70" s="3">
-        <v>1671000</v>
+        <v>1631000</v>
       </c>
       <c r="P70" s="3">
         <v>1671000</v>
@@ -4899,13 +5067,16 @@
         <v>1671000</v>
       </c>
       <c r="Y70" s="3">
+        <v>1671000</v>
+      </c>
+      <c r="Z70" s="3">
         <v>1771000</v>
       </c>
-      <c r="Z70" s="3">
+      <c r="AA70" s="3">
         <v>3036000</v>
       </c>
     </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4978,82 +5149,88 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>188000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-233000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>825000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-557000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-178000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>295000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-23954000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-23538000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-22793000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-22517000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-14220000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-13896000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-13835000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-13933000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-13912000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-16173000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-16257000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-16240000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-16525000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-16987000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-16969000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-17463000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-17603000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-17028000</v>
       </c>
     </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5126,8 +5303,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5200,8 +5380,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5274,82 +5457,88 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>5808000</v>
+      </c>
+      <c r="E76" s="3">
         <v>5383000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>5671000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>3038000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>3413000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>3881000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-6972000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-6571000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-5840000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-5576000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2733000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>3065000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2520000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2426000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>421000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-1833000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-1911000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-1891000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-2167000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-2628000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-2609000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>-3130000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>-3231000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>-4227000</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5422,161 +5611,170 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1237000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-764000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>1434000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-345000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-439000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>5678000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-416000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-745000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-276000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-8319000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-346000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-101000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>75000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-44000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>580000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-170000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-272000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-8000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>307000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-41000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>470000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>75000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-973000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-1257000</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5603,82 +5801,86 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>451000</v>
+      </c>
+      <c r="E83" s="3">
         <v>409000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>340000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>228000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>229000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>194000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>166000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>170000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>158000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>603000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>592000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>573000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>580000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>519000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>402000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>405000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>471000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>459000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>306000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>248000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>223000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>218000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>233000</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>276000</v>
       </c>
     </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5751,8 +5953,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5825,8 +6030,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5899,8 +6107,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5973,8 +6184,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6047,82 +6261,88 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>909000</v>
+      </c>
+      <c r="E89" s="3">
         <v>853000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>563000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>443000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>394000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>388000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>9000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>382000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>376000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>397000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>441000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>329000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>397000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>456000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>405000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>504000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>435000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>656000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>472000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>331000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-157000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>99000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-254000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>376000</v>
       </c>
     </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6149,82 +6369,86 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-415000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-344000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-265000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-178000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-149000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-143000</v>
       </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
       <c r="J91" s="3">
         <v>0</v>
       </c>
       <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
         <v>-3000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-6000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-8000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-10000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-11000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-6000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-10000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-6000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-2000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-3000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-9000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-5000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-4000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-531000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>1006000</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-1006000</v>
       </c>
     </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6297,8 +6521,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6371,82 +6598,88 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-415000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1947000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-455000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-175000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-147000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-139000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-34000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-102000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-345000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-511000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-545000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-563000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-516000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-856000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>1447000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-489000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-524000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>21000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-586000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-379000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-603000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>380000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-81000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-480000</v>
       </c>
     </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6473,23 +6706,24 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-298000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-210000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-52000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-33000</v>
       </c>
-      <c r="G96" s="3">
-        <v>0</v>
-      </c>
       <c r="H96" s="3">
         <v>0</v>
       </c>
@@ -6547,8 +6781,11 @@
       <c r="Z96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6621,8 +6858,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6695,8 +6935,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6769,82 +7012,88 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-496000</v>
+      </c>
+      <c r="E100" s="3">
         <v>208000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-52000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-32000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-33000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-120000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-2000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-56000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-31000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>190000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>96000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>244000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>115000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>404000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-1782000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>46000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>160000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-610000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>114000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>40000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>524000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-1112000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>1213000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>104000</v>
       </c>
     </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6917,78 +7166,84 @@
       <c r="Z101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-886000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>56000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>236000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>214000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>129000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-27000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>224000</v>
       </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
       <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
         <v>76000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-8000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>10000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-4000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>4000</v>
       </c>
-      <c r="Q102" s="3">
-        <v>0</v>
-      </c>
       <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>1000</v>
-      </c>
-      <c r="S102" s="3">
-        <v>-1000</v>
       </c>
       <c r="T102" s="3">
         <v>-1000</v>
       </c>
       <c r="U102" s="3">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
         <v>-8000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-236000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-633000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>878000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CHK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CHK_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="92">
   <si>
     <t>CHK</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,334 +665,347 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="27" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="28" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>3164000</v>
+      </c>
+      <c r="E8" s="3">
         <v>3499000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>656000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>3083000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>887000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>691000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1131000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1230000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>959000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>507000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2525000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1916000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2074000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2385000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2177000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>3084000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>2434000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>2271000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>2505000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>2519000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>1943000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>2281000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>2753000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>2021000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>2276000</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>474000</v>
+      </c>
+      <c r="E9" s="3">
         <v>449000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>415000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>394000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>340000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>326000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>327000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>380000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>717000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>747000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>867000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>449000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>459000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>477000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>439000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>984000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>530000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>504000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>532000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>551000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>541000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>518000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>512000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>594000</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>650000</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>2690000</v>
+      </c>
+      <c r="E10" s="3">
         <v>3050000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>241000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>2689000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>547000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>365000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>804000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>850000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>242000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>-240000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1658000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1467000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1615000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1908000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1738000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>2100000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1904000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1767000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>1973000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>1968000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>1402000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>1763000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>2241000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>1427000</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>1626000</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1020,22 +1033,23 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E12" s="3">
         <v>7000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>5000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>3000</v>
-      </c>
-      <c r="G12" s="3">
-        <v>1000</v>
       </c>
       <c r="H12" s="3">
         <v>1000</v>
@@ -1047,40 +1061,40 @@
         <v>1000</v>
       </c>
       <c r="K12" s="3">
+        <v>1000</v>
+      </c>
+      <c r="L12" s="3">
         <v>2000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>3000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>10000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>22000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>16000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>8000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>6000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>40000</v>
-      </c>
-      <c r="S12" s="3">
-        <v>15000</v>
       </c>
       <c r="T12" s="3">
         <v>15000</v>
       </c>
       <c r="U12" s="3">
+        <v>15000</v>
+      </c>
+      <c r="V12" s="3">
         <v>34000</v>
-      </c>
-      <c r="V12" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="W12" s="3" t="s">
         <v>8</v>
@@ -1097,8 +1111,11 @@
       <c r="AA12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1174,13 +1191,16 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
@@ -1189,147 +1209,153 @@
         <v>0</v>
       </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>1000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>12000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>-5545000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>606000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>642000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-239000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>8839000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>75000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>-48000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>34000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>80000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>-323000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>141000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>63000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>100000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>-128000</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>30000</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>-148000</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>396000</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>428000</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>1169000</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>440000</v>
+      </c>
+      <c r="E15" s="3">
         <v>451000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>409000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>340000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>228000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>229000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>194000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>166000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>170000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>158000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>603000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>592000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>573000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>580000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>519000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>402000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>696000</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>761000</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>745000</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>306000</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>248000</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>223000</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>218000</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>233000</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AB15" s="3">
         <v>276000</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1354,162 +1380,169 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2159000</v>
+      </c>
+      <c r="E17" s="3">
         <v>2158000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1450000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1662000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1225000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1121000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>-4489000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1630000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1681000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>652000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>10689000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2127000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1962000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2130000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2360000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2335000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2420000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2431000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>2463000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>2064000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1850000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>1691000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>2519000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>2687000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>3423000</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>1005000</v>
+      </c>
+      <c r="E18" s="3">
         <v>1341000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-794000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>1421000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-338000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-430000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>5620000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-400000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-722000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-145000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-8164000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-211000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>112000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>255000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-183000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>749000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>14000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-160000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>42000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>455000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>93000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>590000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>234000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-666000</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>-1147000</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1537,373 +1570,386 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E20" s="3">
         <v>9000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>17000</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
         <v>0</v>
       </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>9000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>24000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>1000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>27000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>143000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>134000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>31000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>3000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>18000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>9000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>24000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>30000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>81000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>162000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>28000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>34000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>41000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>34000</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>154000</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>48000</v>
       </c>
     </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>1450000</v>
+      </c>
+      <c r="E21" s="3">
         <v>1801000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-368000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>1761000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-110000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-192000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>5838000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-233000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-525000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>156000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-7427000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>412000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>688000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>853000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>345000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1175000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>449000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>392000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>663000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>789000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>375000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>854000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>486000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>-279000</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>-823000</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>53000</v>
+      </c>
+      <c r="E22" s="3">
         <v>36000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>33000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>26000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>17000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>18000</v>
-      </c>
-      <c r="I22" s="3">
-        <v>23000</v>
       </c>
       <c r="J22" s="3">
         <v>23000</v>
       </c>
       <c r="K22" s="3">
+        <v>23000</v>
+      </c>
+      <c r="L22" s="3">
         <v>50000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>274000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>296000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>160000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>177000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>175000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>161000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>170000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>189000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>179000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>186000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>149000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>144000</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>135000</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>126000</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>252000</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>115000</v>
       </c>
     </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>957000</v>
+      </c>
+      <c r="E23" s="3">
         <v>1314000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-810000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>1395000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-355000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-439000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>5621000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-422000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-745000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-276000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-8326000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-340000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-62000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>98000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-335000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>603000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-145000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-258000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>18000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>334000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-17000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>496000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>142000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-764000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-1214000</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>74000</v>
+      </c>
+      <c r="E24" s="3">
         <v>77000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-46000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-39000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-10000</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
       <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
         <v>-57000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-6000</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
       <c r="L24" s="3">
         <v>0</v>
       </c>
       <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
         <v>-13000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-16000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-1000</v>
       </c>
-      <c r="P24" s="3">
-        <v>0</v>
-      </c>
       <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
         <v>-314000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-2000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>1000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-9000</v>
       </c>
-      <c r="U24" s="3">
-        <v>0</v>
-      </c>
       <c r="V24" s="3">
         <v>0</v>
       </c>
@@ -1911,19 +1957,22 @@
         <v>0</v>
       </c>
       <c r="X24" s="3">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="Y24" s="3">
         <v>1000</v>
       </c>
       <c r="Z24" s="3">
+        <v>1000</v>
+      </c>
+      <c r="AA24" s="3">
         <v>-190000</v>
       </c>
-      <c r="AA24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1999,162 +2048,171 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>883000</v>
+      </c>
+      <c r="E26" s="3">
         <v>1237000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-764000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1434000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-345000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-439000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>5678000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-416000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-745000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-276000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-8313000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-324000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-61000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>98000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-21000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>605000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-146000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-249000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>18000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>334000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-17000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>495000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>141000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-574000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-1214000</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>883000</v>
+      </c>
+      <c r="E27" s="3">
         <v>1237000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-764000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1434000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-345000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-439000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>5678000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-416000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-745000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-276000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-8319000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-346000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-101000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>75000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-44000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>580000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-170000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-272000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-8000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>307000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-41000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>470000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>75000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-973000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-1257000</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2230,8 +2288,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2307,8 +2368,11 @@
       <c r="AA29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2384,8 +2448,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2461,162 +2528,171 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-9000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-17000</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
         <v>0</v>
       </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>-9000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-24000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-1000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-27000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-143000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-134000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-31000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-3000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-18000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-9000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-24000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-30000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-81000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-162000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-28000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-34000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-41000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-34000</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-154000</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-48000</v>
       </c>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>883000</v>
+      </c>
+      <c r="E33" s="3">
         <v>1237000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-764000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1434000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-345000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-439000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>5678000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-416000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-745000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-276000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-8319000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-346000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-101000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>75000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-44000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>580000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-170000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-272000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-8000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>307000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-41000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>470000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>75000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-973000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-1257000</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2692,167 +2768,176 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>883000</v>
+      </c>
+      <c r="E35" s="3">
         <v>1237000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-764000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1434000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-345000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-439000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>5678000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-416000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-745000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-276000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-8319000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-346000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-101000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>75000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-44000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>580000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-170000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-272000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-8000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>307000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-41000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>470000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>75000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-973000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-1257000</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2880,8 +2965,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2909,85 +2995,89 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>74000</v>
+      </c>
+      <c r="E41" s="3">
         <v>17000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>19000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>905000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>849000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>612000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>340000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>279000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>306000</v>
-      </c>
-      <c r="L41" s="3">
-        <v>82000</v>
       </c>
       <c r="M41" s="3">
         <v>82000</v>
       </c>
       <c r="N41" s="3">
+        <v>82000</v>
+      </c>
+      <c r="O41" s="3">
         <v>6000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>14000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>4000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>8000</v>
-      </c>
-      <c r="R41" s="3">
-        <v>4000</v>
       </c>
       <c r="S41" s="3">
         <v>4000</v>
       </c>
       <c r="T41" s="3">
+        <v>4000</v>
+      </c>
+      <c r="U41" s="3">
         <v>3000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>4000</v>
-      </c>
-      <c r="V41" s="3">
-        <v>5000</v>
       </c>
       <c r="W41" s="3">
         <v>5000</v>
       </c>
       <c r="X41" s="3">
+        <v>5000</v>
+      </c>
+      <c r="Y41" s="3">
         <v>13000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>249000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>882000</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3063,85 +3153,91 @@
       <c r="AA42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1757000</v>
+      </c>
+      <c r="E43" s="3">
         <v>1804000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1383000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1115000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>815000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>674000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>704000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>746000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>676000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>513000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>762000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>990000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>977000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1021000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1196000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1247000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1051000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1060000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>1082000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>1322000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>992000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>1019000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>943000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>1057000</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>893000</v>
       </c>
     </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3217,162 +3313,171 @@
       <c r="AA44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>228000</v>
+      </c>
+      <c r="E45" s="3">
         <v>189000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>85000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>83000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>70000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>68000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>146000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>83000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>90000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>95000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>974000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>255000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>412000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>359000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>161000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>347000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>180000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>177000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>138000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>198000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>181000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>215000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>168000</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>203000</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>170000</v>
       </c>
     </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2059000</v>
+      </c>
+      <c r="E46" s="3">
         <v>2010000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1487000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2103000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1734000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1354000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1190000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1108000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1072000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>690000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1818000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1251000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1403000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1384000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1365000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1598000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1235000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1240000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1224000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1525000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>1178000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>1247000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>1360000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>2142000</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>1067000</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3448,85 +3553,91 @@
       <c r="AA47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>11953000</v>
+      </c>
+      <c r="E48" s="3">
         <v>11778000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>11717000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>8837000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>5505000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>5547000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>5602000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>5232000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>5636000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>5692000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>5823000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>14768000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>14888000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>14858000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>14955000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>10803000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>11130000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>10839000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>10576000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>10664000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>10562000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>10397000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>10068000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>10580000</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>10975000</v>
       </c>
     </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3602,8 +3713,11 @@
       <c r="AA49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3679,8 +3793,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3756,85 +3873,91 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>77000</v>
+      </c>
+      <c r="E52" s="3">
         <v>111000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>89000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>69000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>87000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>98000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>112000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>244000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>195000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>171000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>167000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>174000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>288000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>298000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>317000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>334000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>294000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>262000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>286000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>236000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>241000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>276000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>271000</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>306000</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>481000</v>
       </c>
     </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3910,85 +4033,91 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>14089000</v>
+      </c>
+      <c r="E54" s="3">
         <v>13899000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>13293000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>11009000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>7326000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>6999000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>6904000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>6584000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>6903000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>6553000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>7808000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>16193000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>16579000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>16540000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>16637000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>12735000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>12659000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>12341000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>12086000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>12425000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>11981000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>11920000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>11699000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>13028000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>12523000</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4016,8 +4145,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4045,85 +4175,89 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>539000</v>
+      </c>
+      <c r="E57" s="3">
         <v>414000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>374000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>308000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>257000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>281000</v>
-      </c>
-      <c r="I57" s="3">
-        <v>346000</v>
       </c>
       <c r="J57" s="3">
         <v>346000</v>
       </c>
       <c r="K57" s="3">
+        <v>346000</v>
+      </c>
+      <c r="L57" s="3">
         <v>316000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>39000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>552000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>498000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>526000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>611000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>751000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>763000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>670000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>742000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>657000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>654000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>678000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>718000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>678000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>672000</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>660000</v>
       </c>
     </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4133,8 +4267,8 @@
       <c r="E58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F58" s="3">
-        <v>0</v>
+      <c r="F58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G58" s="3">
         <v>0</v>
@@ -4146,238 +4280,247 @@
         <v>0</v>
       </c>
       <c r="J58" s="3">
+        <v>0</v>
+      </c>
+      <c r="K58" s="3">
         <v>1938000</v>
-      </c>
-      <c r="K58" s="3">
-        <v>1929000</v>
       </c>
       <c r="L58" s="3">
         <v>1929000</v>
       </c>
       <c r="M58" s="3">
+        <v>1929000</v>
+      </c>
+      <c r="N58" s="3">
         <v>420000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>394000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>217000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>9000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>389000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>381000</v>
-      </c>
-      <c r="S58" s="3">
-        <v>432000</v>
       </c>
       <c r="T58" s="3">
         <v>432000</v>
       </c>
       <c r="U58" s="3">
-        <v>52000</v>
+        <v>432000</v>
       </c>
       <c r="V58" s="3">
         <v>52000</v>
       </c>
       <c r="W58" s="3">
-        <v>0</v>
+        <v>52000</v>
       </c>
       <c r="X58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y58" s="3">
         <v>3000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>15000</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>503000</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>656000</v>
       </c>
     </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>3699000</v>
+      </c>
+      <c r="E59" s="3">
         <v>3827000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>4018000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>2139000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>2253000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1585000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1097000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>810000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>860000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>421000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1288000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1500000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1605000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1600000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1790000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1743000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1874000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1699000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>1645000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>1650000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>1540000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>1437000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>2095000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>2473000</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>2290000</v>
       </c>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>4238000</v>
+      </c>
+      <c r="E60" s="3">
         <v>4241000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>4392000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2447000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2510000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1866000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1443000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>3094000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3105000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2389000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2260000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2392000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2348000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2220000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2930000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2887000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>2976000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>2873000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>2354000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>2356000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>2218000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>2158000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>2788000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>3648000</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>3606000</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>2717000</v>
+      </c>
+      <c r="E61" s="3">
         <v>3046000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>2774000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>2278000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1259000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1261000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1262000</v>
-      </c>
-      <c r="J61" s="3">
-        <v>1064000</v>
       </c>
       <c r="K61" s="3">
         <v>1064000</v>
@@ -4386,129 +4529,135 @@
         <v>1064000</v>
       </c>
       <c r="M61" s="3">
+        <v>1064000</v>
+      </c>
+      <c r="N61" s="3">
         <v>9163000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>9082000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>9143000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>9713000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>9182000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>7341000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>9380000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>9238000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>9325000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>9921000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>9899000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>9850000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>9509000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>9938000</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>9022000</v>
       </c>
     </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>787000</v>
+      </c>
+      <c r="E62" s="3">
         <v>804000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>744000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>613000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>519000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>459000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>318000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>7767000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>7653000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>7288000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>309000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>318000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>353000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>377000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>387000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>374000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>342000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>347000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>504000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>520000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>568000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>596000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>605000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>645000</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>827000</v>
       </c>
     </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4584,8 +4733,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4661,8 +4813,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4738,85 +4893,91 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>7742000</v>
+      </c>
+      <c r="E66" s="3">
         <v>8091000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>7910000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>5338000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>4288000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>3586000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>3023000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>11925000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>11843000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>10762000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>11753000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>11829000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>11883000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>12349000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>12540000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>10643000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>12821000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>12581000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>12306000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>12921000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>12938000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>12858000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>13158000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>14488000</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>13714000</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4844,8 +5005,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4921,8 +5083,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4998,8 +5163,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5022,7 +5190,7 @@
         <v>0</v>
       </c>
       <c r="J70" s="3">
-        <v>1631000</v>
+        <v>0</v>
       </c>
       <c r="K70" s="3">
         <v>1631000</v>
@@ -5040,7 +5208,7 @@
         <v>1631000</v>
       </c>
       <c r="P70" s="3">
-        <v>1671000</v>
+        <v>1631000</v>
       </c>
       <c r="Q70" s="3">
         <v>1671000</v>
@@ -5070,13 +5238,16 @@
         <v>1671000</v>
       </c>
       <c r="Z70" s="3">
+        <v>1671000</v>
+      </c>
+      <c r="AA70" s="3">
         <v>1771000</v>
       </c>
-      <c r="AA70" s="3">
+      <c r="AB70" s="3">
         <v>3036000</v>
       </c>
     </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5152,85 +5323,91 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>719000</v>
+      </c>
+      <c r="E72" s="3">
         <v>188000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-233000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>825000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-557000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-178000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>295000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-23954000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-23538000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-22793000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-22517000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-14220000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-13896000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-13835000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-13933000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-13912000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-16173000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-16257000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-16240000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-16525000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-16987000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-16969000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-17463000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-17603000</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-17028000</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5306,8 +5483,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5383,8 +5563,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5460,85 +5643,91 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>6347000</v>
+      </c>
+      <c r="E76" s="3">
         <v>5808000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>5383000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>5671000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>3038000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>3413000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>3881000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-6972000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-6571000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-5840000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-5576000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2733000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>3065000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2520000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2426000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>421000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-1833000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-1911000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-1891000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-2167000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-2628000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>-2609000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>-3130000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>-3231000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>-4227000</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5614,167 +5803,176 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>883000</v>
+      </c>
+      <c r="E81" s="3">
         <v>1237000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-764000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1434000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-345000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-439000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>5678000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-416000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-745000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-276000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-8319000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-346000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-101000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>75000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-44000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>580000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-170000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-272000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-8000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>307000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-41000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>470000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>75000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-973000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-1257000</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5802,85 +6000,89 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>440000</v>
+      </c>
+      <c r="E83" s="3">
         <v>451000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>409000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>340000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>228000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>229000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>194000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>166000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>170000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>158000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>603000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>592000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>573000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>580000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>519000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>402000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>405000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>471000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>459000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>306000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>248000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>223000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>218000</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>233000</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>276000</v>
       </c>
     </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5956,8 +6158,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6033,8 +6238,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6110,8 +6318,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6187,8 +6398,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6264,85 +6478,91 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1313000</v>
+      </c>
+      <c r="E89" s="3">
         <v>909000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>853000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>563000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>443000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>394000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>388000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>9000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>382000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>376000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>397000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>441000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>329000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>397000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>456000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>405000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>504000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>435000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>656000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>472000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>331000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-157000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>99000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>-254000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>376000</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6370,85 +6590,89 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-540000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-415000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-344000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-265000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-178000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-149000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-143000</v>
       </c>
-      <c r="J91" s="3">
-        <v>0</v>
-      </c>
       <c r="K91" s="3">
         <v>0</v>
       </c>
       <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
         <v>-3000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-6000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-8000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-10000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-11000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-6000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-10000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-6000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-2000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-3000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-9000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-5000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-4000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-531000</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>1006000</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-1006000</v>
       </c>
     </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6524,8 +6748,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6601,85 +6828,91 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-495000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-415000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-1947000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-455000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-175000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-147000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-139000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-34000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-102000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-345000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-511000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-545000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-563000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-516000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-856000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>1447000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-489000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-524000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>21000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-586000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-379000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-603000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>380000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-81000</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-480000</v>
       </c>
     </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6707,26 +6940,27 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-280000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-298000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-210000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-52000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-33000</v>
       </c>
-      <c r="H96" s="3">
-        <v>0</v>
-      </c>
       <c r="I96" s="3">
         <v>0</v>
       </c>
@@ -6784,8 +7018,11 @@
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6861,8 +7098,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6938,8 +7178,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7015,85 +7258,91 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-714000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-496000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>208000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-52000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-32000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-33000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-120000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-2000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-56000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-31000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>190000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>96000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>244000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>115000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>404000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-1782000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>46000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>160000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-610000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>114000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>40000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>524000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-1112000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>1213000</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>104000</v>
       </c>
     </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7169,81 +7418,87 @@
       <c r="AA101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>104000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-2000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-886000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>56000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>236000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>214000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>129000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-27000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>224000</v>
       </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
       <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
         <v>76000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-8000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>10000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-4000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>4000</v>
       </c>
-      <c r="R102" s="3">
-        <v>0</v>
-      </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>1000</v>
-      </c>
-      <c r="T102" s="3">
-        <v>-1000</v>
       </c>
       <c r="U102" s="3">
         <v>-1000</v>
       </c>
       <c r="V102" s="3">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="W102" s="3">
+        <v>0</v>
+      </c>
+      <c r="X102" s="3">
         <v>-8000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-236000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-633000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>878000</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CHK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CHK_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="92">
   <si>
     <t>CHK</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,347 +665,359 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="28" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="29" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43100</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43008</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42916</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42825</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42735</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>4124000</v>
+      </c>
+      <c r="E8" s="3">
         <v>3164000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>3499000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>656000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>3083000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>887000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>691000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1131000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1230000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>959000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>507000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2525000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1916000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2074000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2385000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>2177000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>3084000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>2434000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>2271000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>2505000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>2519000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>1943000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>2281000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>2753000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>2021000</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>2276000</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>438000</v>
+      </c>
+      <c r="E9" s="3">
         <v>474000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>449000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>415000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>394000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>340000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>326000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>327000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>380000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>717000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>747000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>867000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>449000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>459000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>477000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>439000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>984000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>530000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>504000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>532000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>551000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>541000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>518000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>512000</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>594000</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>650000</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>3686000</v>
+      </c>
+      <c r="E10" s="3">
         <v>2690000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>3050000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>241000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>2689000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>547000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>365000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>804000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>850000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>242000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>-240000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1658000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1467000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1615000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1908000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1738000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>2100000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1904000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>1767000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>1973000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>1968000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>1402000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>1763000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>2241000</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>1427000</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>1626000</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1034,25 +1046,26 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>9000</v>
+      </c>
+      <c r="E12" s="3">
         <v>2000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>7000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>5000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>3000</v>
-      </c>
-      <c r="H12" s="3">
-        <v>1000</v>
       </c>
       <c r="I12" s="3">
         <v>1000</v>
@@ -1064,40 +1077,40 @@
         <v>1000</v>
       </c>
       <c r="L12" s="3">
+        <v>1000</v>
+      </c>
+      <c r="M12" s="3">
         <v>2000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>3000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>10000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>22000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>16000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>8000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>6000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>40000</v>
-      </c>
-      <c r="T12" s="3">
-        <v>15000</v>
       </c>
       <c r="U12" s="3">
         <v>15000</v>
       </c>
       <c r="V12" s="3">
+        <v>15000</v>
+      </c>
+      <c r="W12" s="3">
         <v>34000</v>
-      </c>
-      <c r="W12" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="X12" s="3" t="s">
         <v>8</v>
@@ -1114,8 +1127,11 @@
       <c r="AB12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1194,17 +1210,20 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
       <c r="F14" s="3">
         <v>0</v>
       </c>
@@ -1212,150 +1231,156 @@
         <v>0</v>
       </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>1000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>12000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>-5545000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>606000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>642000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>-239000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>8839000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>75000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>-48000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>34000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>80000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>-323000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>141000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>63000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>100000</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>-128000</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>30000</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>-148000</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>396000</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>428000</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AC14" s="3">
         <v>1169000</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>453000</v>
+      </c>
+      <c r="E15" s="3">
         <v>440000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>451000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>409000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>340000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>228000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>229000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>194000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>166000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>170000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>158000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>603000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>592000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>573000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>580000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>519000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>402000</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>696000</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>761000</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>745000</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>306000</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>248000</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>223000</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>218000</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AB15" s="3">
         <v>233000</v>
       </c>
-      <c r="AB15" s="3">
+      <c r="AC15" s="3">
         <v>276000</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1381,168 +1406,175 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1901000</v>
+      </c>
+      <c r="E17" s="3">
         <v>2159000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2158000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1450000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1662000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1225000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1121000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>-4489000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1630000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1681000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>652000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>10689000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2127000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1962000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2130000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2360000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2335000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2420000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>2431000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>2463000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>2064000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>1850000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>1691000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>2519000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>2687000</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>3423000</v>
       </c>
     </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>2223000</v>
+      </c>
+      <c r="E18" s="3">
         <v>1005000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>1341000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-794000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>1421000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-338000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-430000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>5620000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-400000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-722000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-145000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-8164000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-211000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>112000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>255000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-183000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>749000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>14000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-160000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>42000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>455000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>93000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>590000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>234000</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>-666000</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>-1147000</v>
       </c>
     </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1571,388 +1603,401 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="E20" s="3">
         <v>5000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>9000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>17000</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>9000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>24000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>27000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>143000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>134000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>31000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>3000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>18000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>9000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>24000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>30000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>81000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>162000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>28000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>34000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>41000</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>34000</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>154000</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>48000</v>
       </c>
     </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>2671000</v>
+      </c>
+      <c r="E21" s="3">
         <v>1450000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>1801000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-368000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>1761000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-110000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-192000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>5838000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-233000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-525000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>156000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-7427000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>412000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>688000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>853000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>345000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1175000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>449000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>392000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>663000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>789000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>375000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>854000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>486000</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>-279000</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>-823000</v>
       </c>
     </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>28000</v>
+      </c>
+      <c r="E22" s="3">
         <v>53000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>36000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>33000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>26000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>17000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>18000</v>
-      </c>
-      <c r="J22" s="3">
-        <v>23000</v>
       </c>
       <c r="K22" s="3">
         <v>23000</v>
       </c>
       <c r="L22" s="3">
+        <v>23000</v>
+      </c>
+      <c r="M22" s="3">
         <v>50000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>274000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>296000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>160000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>177000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>175000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>161000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>170000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>189000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>179000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>186000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>149000</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>144000</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>135000</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>126000</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>252000</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>115000</v>
       </c>
     </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>2190000</v>
+      </c>
+      <c r="E23" s="3">
         <v>957000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>1314000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-810000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>1395000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-355000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-439000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>5621000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-422000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-745000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-276000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-8326000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-340000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-62000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>98000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-335000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>603000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-145000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-258000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>18000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>334000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-17000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>496000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>142000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-764000</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>-1214000</v>
       </c>
     </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-1390000</v>
+      </c>
+      <c r="E24" s="3">
         <v>74000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>77000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-46000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-39000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-10000</v>
       </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
       <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
         <v>-57000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-6000</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
       <c r="M24" s="3">
         <v>0</v>
       </c>
       <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
         <v>-13000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-16000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q24" s="3">
-        <v>0</v>
-      </c>
       <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
         <v>-314000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-2000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>1000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-9000</v>
       </c>
-      <c r="V24" s="3">
-        <v>0</v>
-      </c>
       <c r="W24" s="3">
         <v>0</v>
       </c>
@@ -1960,19 +2005,22 @@
         <v>0</v>
       </c>
       <c r="Y24" s="3">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="3">
         <v>1000</v>
       </c>
       <c r="AA24" s="3">
+        <v>1000</v>
+      </c>
+      <c r="AB24" s="3">
         <v>-190000</v>
       </c>
-      <c r="AB24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2051,168 +2099,177 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>3580000</v>
+      </c>
+      <c r="E26" s="3">
         <v>883000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1237000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-764000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1434000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-345000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-439000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>5678000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-416000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-745000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-276000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-8313000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-324000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-61000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>98000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-21000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>605000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-146000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-249000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>18000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>334000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-17000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>495000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>141000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-574000</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>-1214000</v>
       </c>
     </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>3513000</v>
+      </c>
+      <c r="E27" s="3">
         <v>883000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>1237000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-764000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1434000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-345000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-439000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>5678000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-416000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-745000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-276000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-8319000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-346000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-101000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>75000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-44000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>580000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-170000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-272000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-8000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>307000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-41000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>470000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>75000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-973000</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>-1257000</v>
       </c>
     </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2291,8 +2348,11 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2371,8 +2431,11 @@
       <c r="AB29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2451,8 +2514,11 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2531,168 +2597,177 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-5000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-9000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-17000</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>-9000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-24000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-27000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-143000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-134000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-31000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-3000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-18000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-9000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-24000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-30000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-81000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-162000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-28000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-34000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-41000</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-34000</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-154000</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-48000</v>
       </c>
     </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>3513000</v>
+      </c>
+      <c r="E33" s="3">
         <v>883000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>1237000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-764000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1434000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-345000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-439000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>5678000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-416000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-745000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-276000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-8319000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-346000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-101000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>75000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-44000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>580000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-170000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-272000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-8000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>307000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-41000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>470000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>75000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-973000</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>-1257000</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2771,173 +2846,182 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>3513000</v>
+      </c>
+      <c r="E35" s="3">
         <v>883000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>1237000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-764000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1434000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-345000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-439000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>5678000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-416000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-745000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-276000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-8319000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-346000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-101000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>75000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-44000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>580000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-170000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-272000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-8000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>307000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-41000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>470000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>75000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-973000</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>-1257000</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43100</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43008</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42916</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42825</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42735</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2966,8 +3050,9 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2996,88 +3081,92 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>130000</v>
+      </c>
+      <c r="E41" s="3">
         <v>74000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>17000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>19000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>905000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>849000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>612000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>340000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>279000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>306000</v>
-      </c>
-      <c r="M41" s="3">
-        <v>82000</v>
       </c>
       <c r="N41" s="3">
         <v>82000</v>
       </c>
       <c r="O41" s="3">
+        <v>82000</v>
+      </c>
+      <c r="P41" s="3">
         <v>6000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>14000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>4000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>8000</v>
-      </c>
-      <c r="S41" s="3">
-        <v>4000</v>
       </c>
       <c r="T41" s="3">
         <v>4000</v>
       </c>
       <c r="U41" s="3">
+        <v>4000</v>
+      </c>
+      <c r="V41" s="3">
         <v>3000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>4000</v>
-      </c>
-      <c r="W41" s="3">
-        <v>5000</v>
       </c>
       <c r="X41" s="3">
         <v>5000</v>
       </c>
       <c r="Y41" s="3">
+        <v>5000</v>
+      </c>
+      <c r="Z41" s="3">
         <v>13000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>249000</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>882000</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3156,88 +3245,94 @@
       <c r="AB42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1438000</v>
+      </c>
+      <c r="E43" s="3">
         <v>1757000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1804000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1383000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1115000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>815000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>674000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>704000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>746000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>676000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>513000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>762000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>990000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>977000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1021000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1196000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1247000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1051000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>1060000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>1082000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>1322000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>992000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>1019000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>943000</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>1057000</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>893000</v>
       </c>
     </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3316,168 +3411,177 @@
       <c r="AB44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1130000</v>
+      </c>
+      <c r="E45" s="3">
         <v>228000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>189000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>85000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>83000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>70000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>68000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>146000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>83000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>90000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>95000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>974000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>255000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>412000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>359000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>161000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>347000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>180000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>177000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>138000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>198000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>181000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>215000</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>168000</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>203000</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>170000</v>
       </c>
     </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2698000</v>
+      </c>
+      <c r="E46" s="3">
         <v>2059000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2010000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1487000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2103000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1734000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1354000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1190000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1108000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1072000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>690000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1818000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1251000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1403000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1384000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1365000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1598000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1235000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1240000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1224000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>1525000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>1178000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>1247000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>1360000</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>2142000</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>1067000</v>
       </c>
     </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3556,88 +3660,94 @@
       <c r="AB47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>11187000</v>
+      </c>
+      <c r="E48" s="3">
         <v>11953000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>11778000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>11717000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>8837000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>5505000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>5547000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>5602000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>5232000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>5636000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>5692000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>5823000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>14768000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>14888000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>14858000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>14955000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>10803000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>11130000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>10839000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>10576000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>10664000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>10562000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>10397000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>10068000</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>10580000</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>10975000</v>
       </c>
     </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3716,8 +3826,11 @@
       <c r="AB49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3796,8 +3909,11 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3876,88 +3992,94 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1583000</v>
+      </c>
+      <c r="E52" s="3">
         <v>77000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>111000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>89000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>69000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>87000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>98000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>112000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>244000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>195000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>171000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>167000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>174000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>288000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>298000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>317000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>334000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>294000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>262000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>286000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>236000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>241000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>276000</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>271000</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>306000</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>481000</v>
       </c>
     </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4036,88 +4158,94 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>15468000</v>
+      </c>
+      <c r="E54" s="3">
         <v>14089000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>13899000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>13293000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>11009000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>7326000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>6999000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>6904000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>6584000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>6903000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>6553000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>7808000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>16193000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>16579000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>16540000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>16637000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>12735000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>12659000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>12341000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>12086000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>12425000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>11981000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>11920000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>11699000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>13028000</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>12523000</v>
       </c>
     </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4146,8 +4274,9 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4176,99 +4305,103 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>603000</v>
+      </c>
+      <c r="E57" s="3">
         <v>539000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>414000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>374000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>308000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>257000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>281000</v>
-      </c>
-      <c r="J57" s="3">
-        <v>346000</v>
       </c>
       <c r="K57" s="3">
         <v>346000</v>
       </c>
       <c r="L57" s="3">
+        <v>346000</v>
+      </c>
+      <c r="M57" s="3">
         <v>316000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>39000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>552000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>498000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>526000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>611000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>751000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>763000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>670000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>742000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>657000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>654000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>678000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>718000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>678000</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>672000</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>660000</v>
       </c>
     </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>8</v>
+      <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
+        <v>0</v>
       </c>
       <c r="G58" s="3">
         <v>0</v>
@@ -4283,247 +4416,256 @@
         <v>0</v>
       </c>
       <c r="K58" s="3">
+        <v>0</v>
+      </c>
+      <c r="L58" s="3">
         <v>1938000</v>
-      </c>
-      <c r="L58" s="3">
-        <v>1929000</v>
       </c>
       <c r="M58" s="3">
         <v>1929000</v>
       </c>
       <c r="N58" s="3">
+        <v>1929000</v>
+      </c>
+      <c r="O58" s="3">
         <v>420000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>394000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>217000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>9000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>389000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>381000</v>
-      </c>
-      <c r="T58" s="3">
-        <v>432000</v>
       </c>
       <c r="U58" s="3">
         <v>432000</v>
       </c>
       <c r="V58" s="3">
-        <v>52000</v>
+        <v>432000</v>
       </c>
       <c r="W58" s="3">
         <v>52000</v>
       </c>
       <c r="X58" s="3">
-        <v>0</v>
+        <v>52000</v>
       </c>
       <c r="Y58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z58" s="3">
         <v>3000</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>15000</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>503000</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>656000</v>
       </c>
     </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2101000</v>
+      </c>
+      <c r="E59" s="3">
         <v>3699000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>3827000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>4018000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>2139000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>2253000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1585000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1097000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>810000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>860000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>421000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1288000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1500000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1605000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1600000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1790000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1743000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1874000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>1699000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>1645000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>1650000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>1540000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>1437000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>2095000</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>2473000</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>2290000</v>
       </c>
     </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2704000</v>
+      </c>
+      <c r="E60" s="3">
         <v>4238000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>4241000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>4392000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2447000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2510000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1866000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1443000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3094000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>3105000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2389000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2260000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2392000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2348000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2220000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2930000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>2887000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>2976000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>2873000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>2354000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>2356000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>2218000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>2158000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>2788000</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>3648000</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>3606000</v>
       </c>
     </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>3093000</v>
+      </c>
+      <c r="E61" s="3">
         <v>2717000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>3046000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>2774000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>2278000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1259000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1261000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1262000</v>
-      </c>
-      <c r="K61" s="3">
-        <v>1064000</v>
       </c>
       <c r="L61" s="3">
         <v>1064000</v>
@@ -4532,132 +4674,138 @@
         <v>1064000</v>
       </c>
       <c r="N61" s="3">
+        <v>1064000</v>
+      </c>
+      <c r="O61" s="3">
         <v>9163000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>9082000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>9143000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>9713000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>9182000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>7341000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>9380000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>9238000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>9325000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>9921000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>9899000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>9850000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>9509000</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>9938000</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>9022000</v>
       </c>
     </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>547000</v>
+      </c>
+      <c r="E62" s="3">
         <v>787000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>804000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>744000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>613000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>519000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>459000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>318000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>7767000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>7653000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>7288000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>309000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>318000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>353000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>377000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>387000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>374000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>342000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>347000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>504000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>520000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>568000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>596000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>605000</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>645000</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>827000</v>
       </c>
     </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4736,8 +4884,11 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4816,8 +4967,11 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4896,88 +5050,94 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>6344000</v>
+      </c>
+      <c r="E66" s="3">
         <v>7742000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>8091000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>7910000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>5338000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>4288000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>3586000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>3023000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>11925000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>11843000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>10762000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>11753000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>11829000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>11883000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>12349000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>12540000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>10643000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>12821000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>12581000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>12306000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>12921000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>12938000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>12858000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>13158000</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>14488000</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>13714000</v>
       </c>
     </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5006,8 +5166,9 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5086,8 +5247,11 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5166,8 +5330,11 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5193,7 +5360,7 @@
         <v>0</v>
       </c>
       <c r="K70" s="3">
-        <v>1631000</v>
+        <v>0</v>
       </c>
       <c r="L70" s="3">
         <v>1631000</v>
@@ -5211,7 +5378,7 @@
         <v>1631000</v>
       </c>
       <c r="Q70" s="3">
-        <v>1671000</v>
+        <v>1631000</v>
       </c>
       <c r="R70" s="3">
         <v>1671000</v>
@@ -5241,13 +5408,16 @@
         <v>1671000</v>
       </c>
       <c r="AA70" s="3">
+        <v>1671000</v>
+      </c>
+      <c r="AB70" s="3">
         <v>1771000</v>
       </c>
-      <c r="AB70" s="3">
+      <c r="AC70" s="3">
         <v>3036000</v>
       </c>
     </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5326,88 +5496,94 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>3399000</v>
+      </c>
+      <c r="E72" s="3">
         <v>719000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>188000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-233000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>825000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-557000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-178000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>295000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-23954000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-23538000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-22793000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-22517000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-14220000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-13896000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-13835000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-13933000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-13912000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-16173000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-16257000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-16240000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-16525000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-16987000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-16969000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-17463000</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-17603000</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>-17028000</v>
       </c>
     </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5486,8 +5662,11 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5566,8 +5745,11 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5646,88 +5828,94 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>9124000</v>
+      </c>
+      <c r="E76" s="3">
         <v>6347000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>5808000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>5383000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>5671000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>3038000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>3413000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>3881000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-6972000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-6571000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-5840000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-5576000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2733000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>3065000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2520000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>2426000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>421000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-1833000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-1911000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-1891000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-2167000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>-2628000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>-2609000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>-3130000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>-3231000</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>-4227000</v>
       </c>
     </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5806,173 +5994,182 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43100</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43008</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42916</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42825</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42735</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>3513000</v>
+      </c>
+      <c r="E81" s="3">
         <v>883000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>1237000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-764000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1434000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-345000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-439000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>5678000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-416000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-745000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-276000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-8319000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-346000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-101000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>75000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-44000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>580000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-170000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-272000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-8000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>307000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-41000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>470000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>75000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-973000</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>-1257000</v>
       </c>
     </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6001,88 +6198,92 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>453000</v>
+      </c>
+      <c r="E83" s="3">
         <v>440000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>451000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>409000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>340000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>228000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>229000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>194000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>166000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>170000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>158000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>603000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>592000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>573000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>580000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>519000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>402000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>405000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>471000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>459000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>306000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>248000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>223000</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>218000</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>233000</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>276000</v>
       </c>
     </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6161,8 +6362,11 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6241,8 +6445,11 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6321,8 +6528,11 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6401,8 +6611,11 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6481,88 +6694,94 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1050000</v>
+      </c>
+      <c r="E89" s="3">
         <v>1313000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>909000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>853000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>563000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>443000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>394000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>388000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>9000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>382000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>376000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>397000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>441000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>329000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>397000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>456000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>405000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>504000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>435000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>656000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>472000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>331000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-157000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>99000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>-254000</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>376000</v>
       </c>
     </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6591,88 +6810,92 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-524000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-540000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-415000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-344000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-265000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-178000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-149000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-143000</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
       <c r="L91" s="3">
         <v>0</v>
       </c>
       <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
         <v>-3000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-6000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-8000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-10000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-11000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-6000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-10000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-6000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-2000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-3000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-9000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-5000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-4000</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-531000</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>1006000</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-1006000</v>
       </c>
     </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6751,8 +6974,11 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6831,88 +7057,94 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-544000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-495000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-415000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-1947000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-455000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-175000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-147000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-139000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-34000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-102000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-345000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-511000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-545000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-563000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-516000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-856000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>1447000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-489000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-524000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>21000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-586000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-379000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-603000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>380000</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-81000</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-480000</v>
       </c>
     </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6941,29 +7173,30 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-424000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-280000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-298000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-210000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-52000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-33000</v>
       </c>
-      <c r="I96" s="3">
-        <v>0</v>
-      </c>
       <c r="J96" s="3">
         <v>0</v>
       </c>
@@ -7021,8 +7254,11 @@
       <c r="AB96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7101,8 +7337,11 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7181,8 +7420,11 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7261,88 +7503,94 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-444000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-714000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-496000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>208000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-52000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-32000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-33000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-120000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-2000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-56000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-31000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>190000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>96000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>244000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>115000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>404000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-1782000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>46000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>160000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-610000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>114000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>40000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>524000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-1112000</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>1213000</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>104000</v>
       </c>
     </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7421,84 +7669,90 @@
       <c r="AB101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>62000</v>
+      </c>
+      <c r="E102" s="3">
         <v>104000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-2000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-886000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>56000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>236000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>214000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>129000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-27000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>224000</v>
       </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
       <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
         <v>76000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-8000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>10000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-4000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>4000</v>
       </c>
-      <c r="S102" s="3">
-        <v>0</v>
-      </c>
       <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
         <v>1000</v>
-      </c>
-      <c r="U102" s="3">
-        <v>-1000</v>
       </c>
       <c r="V102" s="3">
         <v>-1000</v>
       </c>
       <c r="W102" s="3">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="X102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y102" s="3">
         <v>-8000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-236000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-633000</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>878000</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CHK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CHK_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="92">
   <si>
     <t>CHK</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,359 +665,372 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="29" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="30" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43100</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43008</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42916</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42825</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42735</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>3035000</v>
+      </c>
+      <c r="E8" s="3">
         <v>4124000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>3164000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>3499000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>656000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>3083000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>887000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>691000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1131000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1230000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>959000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>507000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2525000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1916000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2074000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>2385000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>2177000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>3084000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>2434000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>2271000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>2505000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>2519000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>1943000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>2281000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>2753000</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>2021000</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>2276000</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>464000</v>
+      </c>
+      <c r="E9" s="3">
         <v>438000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>474000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>449000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>415000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>394000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>340000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>326000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>327000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>380000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>717000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>747000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>867000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>449000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>459000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>477000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>439000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>984000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>530000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>504000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>532000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>551000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>541000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>518000</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>512000</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>594000</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>650000</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>2571000</v>
+      </c>
+      <c r="E10" s="3">
         <v>3686000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>2690000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>3050000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>241000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>2689000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>547000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>365000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>804000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>850000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>242000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>-240000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1658000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1467000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1615000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1908000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1738000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>2100000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>1904000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>1767000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>1973000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>1968000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>1402000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>1763000</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>2241000</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>1427000</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>1626000</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1047,28 +1060,29 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E12" s="3">
         <v>9000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>2000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>7000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>5000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>3000</v>
-      </c>
-      <c r="I12" s="3">
-        <v>1000</v>
       </c>
       <c r="J12" s="3">
         <v>1000</v>
@@ -1080,40 +1094,40 @@
         <v>1000</v>
       </c>
       <c r="M12" s="3">
+        <v>1000</v>
+      </c>
+      <c r="N12" s="3">
         <v>2000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>3000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>10000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>22000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>16000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>8000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>6000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>40000</v>
-      </c>
-      <c r="U12" s="3">
-        <v>15000</v>
       </c>
       <c r="V12" s="3">
         <v>15000</v>
       </c>
       <c r="W12" s="3">
+        <v>15000</v>
+      </c>
+      <c r="X12" s="3">
         <v>34000</v>
-      </c>
-      <c r="X12" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Y12" s="3" t="s">
         <v>8</v>
@@ -1130,8 +1144,11 @@
       <c r="AC12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1213,20 +1230,23 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="3">
         <v>5000</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="F14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
       <c r="G14" s="3">
         <v>0</v>
       </c>
@@ -1234,153 +1254,159 @@
         <v>0</v>
       </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>1000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>12000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-5545000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>606000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>642000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>-239000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>8839000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>75000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>-48000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>34000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>80000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>-323000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>141000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>63000</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>100000</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>-128000</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>30000</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>-148000</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>396000</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AC14" s="3">
         <v>428000</v>
       </c>
-      <c r="AC14" s="3">
+      <c r="AD14" s="3">
         <v>1169000</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>390000</v>
+      </c>
+      <c r="E15" s="3">
         <v>453000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>440000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>451000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>409000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>340000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>228000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>229000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>194000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>166000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>170000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>158000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>603000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>592000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>573000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>580000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>519000</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>402000</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>696000</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>761000</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>745000</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>306000</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>248000</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>223000</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AB15" s="3">
         <v>218000</v>
       </c>
-      <c r="AB15" s="3">
+      <c r="AC15" s="3">
         <v>233000</v>
       </c>
-      <c r="AC15" s="3">
+      <c r="AD15" s="3">
         <v>276000</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1407,174 +1433,181 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1215000</v>
+      </c>
+      <c r="E17" s="3">
         <v>1901000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2159000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2158000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1450000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1662000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1225000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1121000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>-4489000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1630000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1681000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>652000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>10689000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2127000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1962000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2130000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2360000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2335000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>2420000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>2431000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>2463000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>2064000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>1850000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>1691000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>2519000</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>2687000</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>3423000</v>
       </c>
     </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>1820000</v>
+      </c>
+      <c r="E18" s="3">
         <v>2223000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>1005000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>1341000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-794000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>1421000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-338000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-430000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>5620000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-400000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-722000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-145000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-8164000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-211000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>112000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>255000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-183000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>749000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>14000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-160000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>42000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>455000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>93000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>590000</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>234000</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>-666000</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>-1147000</v>
       </c>
     </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1604,403 +1637,416 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>12000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-5000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>5000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>9000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>17000</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
         <v>0</v>
       </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>9000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>24000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>1000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>27000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>143000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>134000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>31000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>3000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>18000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>9000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>24000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>30000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>81000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>162000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>28000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>34000</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>41000</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>34000</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>154000</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>48000</v>
       </c>
     </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>2222000</v>
+      </c>
+      <c r="E21" s="3">
         <v>2671000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>1450000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>1801000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-368000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>1761000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-110000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-192000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>5838000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-233000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-525000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>156000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-7427000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>412000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>688000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>853000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>345000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1175000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>449000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>392000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>663000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>789000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>375000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>854000</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>486000</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>-279000</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>-823000</v>
       </c>
     </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>39000</v>
+      </c>
+      <c r="E22" s="3">
         <v>28000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>53000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>36000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>33000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>26000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>17000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>18000</v>
-      </c>
-      <c r="K22" s="3">
-        <v>23000</v>
       </c>
       <c r="L22" s="3">
         <v>23000</v>
       </c>
       <c r="M22" s="3">
+        <v>23000</v>
+      </c>
+      <c r="N22" s="3">
         <v>50000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>274000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>296000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>160000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>177000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>175000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>161000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>170000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>189000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>179000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>186000</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>149000</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>144000</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>135000</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>126000</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>252000</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AD22" s="3">
         <v>115000</v>
       </c>
     </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1793000</v>
+      </c>
+      <c r="E23" s="3">
         <v>2190000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>957000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>1314000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-810000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>1395000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-355000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-439000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>5621000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-422000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-745000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-276000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-8326000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-340000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-62000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>98000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-335000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>603000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-145000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-258000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>18000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>334000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-17000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>496000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>142000</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>-764000</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>-1214000</v>
       </c>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>404000</v>
+      </c>
+      <c r="E24" s="3">
         <v>-1390000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>74000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>77000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-46000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-39000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-10000</v>
       </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
       <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
         <v>-57000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-6000</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
       <c r="N24" s="3">
         <v>0</v>
       </c>
       <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3">
         <v>-13000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-16000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-1000</v>
       </c>
-      <c r="R24" s="3">
-        <v>0</v>
-      </c>
       <c r="S24" s="3">
+        <v>0</v>
+      </c>
+      <c r="T24" s="3">
         <v>-314000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-2000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>1000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-9000</v>
       </c>
-      <c r="W24" s="3">
-        <v>0</v>
-      </c>
       <c r="X24" s="3">
         <v>0</v>
       </c>
@@ -2008,19 +2054,22 @@
         <v>0</v>
       </c>
       <c r="Z24" s="3">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AA24" s="3">
         <v>1000</v>
       </c>
       <c r="AB24" s="3">
+        <v>1000</v>
+      </c>
+      <c r="AC24" s="3">
         <v>-190000</v>
       </c>
-      <c r="AC24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2102,174 +2151,183 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1389000</v>
+      </c>
+      <c r="E26" s="3">
         <v>3580000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>883000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1237000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-764000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1434000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-345000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-439000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>5678000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-416000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-745000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-276000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-8313000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-324000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-61000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>98000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-21000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>605000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-146000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-249000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>18000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>334000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-17000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>495000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>141000</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>-574000</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>-1214000</v>
       </c>
     </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1389000</v>
+      </c>
+      <c r="E27" s="3">
         <v>3513000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>883000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1237000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-764000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>1434000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-345000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-439000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>5678000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-416000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-745000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-276000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-8319000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-346000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-101000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>75000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-44000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>580000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-170000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-272000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-8000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>307000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-41000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>470000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>75000</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>-973000</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>-1257000</v>
       </c>
     </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2351,8 +2409,11 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2434,8 +2495,11 @@
       <c r="AC29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2517,8 +2581,11 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2600,174 +2667,183 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-12000</v>
+      </c>
+      <c r="E32" s="3">
         <v>5000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-5000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-9000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-17000</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
         <v>0</v>
       </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>-9000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-24000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-1000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-27000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-143000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-134000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-31000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-3000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-18000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-9000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-24000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-30000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-81000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-162000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-28000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-34000</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-41000</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-34000</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-154000</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>-48000</v>
       </c>
     </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1389000</v>
+      </c>
+      <c r="E33" s="3">
         <v>3513000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>883000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1237000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-764000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>1434000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-345000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-439000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>5678000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-416000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-745000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-276000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-8319000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-346000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-101000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>75000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-44000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>580000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-170000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-272000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-8000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>307000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-41000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>470000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>75000</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>-973000</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>-1257000</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2849,179 +2925,188 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1389000</v>
+      </c>
+      <c r="E35" s="3">
         <v>3513000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>883000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1237000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-764000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>1434000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-345000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-439000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>5678000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-416000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-745000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-276000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-8319000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-346000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-101000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>75000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-44000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>580000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-170000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-272000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-8000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>307000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-41000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>470000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>75000</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>-973000</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>-1257000</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43100</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43008</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42916</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42825</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42735</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3051,8 +3136,9 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3082,8 +3168,9 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -3091,82 +3178,85 @@
         <v>130000</v>
       </c>
       <c r="E41" s="3">
+        <v>130000</v>
+      </c>
+      <c r="F41" s="3">
         <v>74000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>17000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>19000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>905000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>849000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>612000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>340000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>279000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>306000</v>
-      </c>
-      <c r="N41" s="3">
-        <v>82000</v>
       </c>
       <c r="O41" s="3">
         <v>82000</v>
       </c>
       <c r="P41" s="3">
+        <v>82000</v>
+      </c>
+      <c r="Q41" s="3">
         <v>6000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>14000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>4000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>8000</v>
-      </c>
-      <c r="T41" s="3">
-        <v>4000</v>
       </c>
       <c r="U41" s="3">
         <v>4000</v>
       </c>
       <c r="V41" s="3">
+        <v>4000</v>
+      </c>
+      <c r="W41" s="3">
         <v>3000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>4000</v>
-      </c>
-      <c r="X41" s="3">
-        <v>5000</v>
       </c>
       <c r="Y41" s="3">
         <v>5000</v>
       </c>
       <c r="Z41" s="3">
+        <v>5000</v>
+      </c>
+      <c r="AA41" s="3">
         <v>13000</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>249000</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>882000</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3248,91 +3338,97 @@
       <c r="AC42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>864000</v>
+      </c>
+      <c r="E43" s="3">
         <v>1438000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1757000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1804000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1383000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1115000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>815000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>674000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>704000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>746000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>676000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>513000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>762000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>990000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>977000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1021000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1196000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1247000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>1051000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>1060000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>1082000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>1322000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>992000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>1019000</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>943000</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>1057000</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>893000</v>
       </c>
     </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3414,174 +3510,183 @@
       <c r="AC44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1635000</v>
+      </c>
+      <c r="E45" s="3">
         <v>1130000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>228000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>189000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>85000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>83000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>70000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>68000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>146000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>83000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>90000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>95000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>974000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>255000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>412000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>359000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>161000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>347000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>180000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>177000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>138000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>198000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>181000</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>215000</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>168000</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>203000</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>170000</v>
       </c>
     </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2629000</v>
+      </c>
+      <c r="E46" s="3">
         <v>2698000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2059000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2010000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1487000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2103000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1734000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1354000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1190000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1108000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1072000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>690000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1818000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1251000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1403000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1384000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1365000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1598000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1235000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1240000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>1224000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>1525000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>1178000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>1247000</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>1360000</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>2142000</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>1067000</v>
       </c>
     </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3663,91 +3768,97 @@
       <c r="AC47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>10523000</v>
+      </c>
+      <c r="E48" s="3">
         <v>11187000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>11953000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>11778000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>11717000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>8837000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>5505000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>5547000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>5602000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>5232000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>5636000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>5692000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>5823000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>14768000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>14888000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>14858000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>14955000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>10803000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>11130000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>10839000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>10576000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>10664000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>10562000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>10397000</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>10068000</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>10580000</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>10975000</v>
       </c>
     </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3829,8 +3940,11 @@
       <c r="AC49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3912,8 +4026,11 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3995,91 +4112,97 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1439000</v>
+      </c>
+      <c r="E52" s="3">
         <v>1583000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>77000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>111000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>89000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>69000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>87000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>98000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>112000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>244000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>195000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>171000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>167000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>174000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>288000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>298000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>317000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>334000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>294000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>262000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>286000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>236000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>241000</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>276000</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>271000</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>306000</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>481000</v>
       </c>
     </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4161,91 +4284,97 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>14591000</v>
+      </c>
+      <c r="E54" s="3">
         <v>15468000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>14089000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>13899000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>13293000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>11009000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>7326000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>6999000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>6904000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>6584000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>6903000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>6553000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>7808000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>16193000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>16579000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>16540000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>16637000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>12735000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>12659000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>12341000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>12086000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>12425000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>11981000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>11920000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>11699000</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>13028000</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>12523000</v>
       </c>
     </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4275,8 +4404,9 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4306,91 +4436,95 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>631000</v>
+      </c>
+      <c r="E57" s="3">
         <v>603000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>539000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>414000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>374000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>308000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>257000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>281000</v>
-      </c>
-      <c r="K57" s="3">
-        <v>346000</v>
       </c>
       <c r="L57" s="3">
         <v>346000</v>
       </c>
       <c r="M57" s="3">
+        <v>346000</v>
+      </c>
+      <c r="N57" s="3">
         <v>316000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>39000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>552000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>498000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>526000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>611000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>751000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>763000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>670000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>742000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>657000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>654000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>678000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>718000</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>678000</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>672000</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>660000</v>
       </c>
     </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4419,256 +4553,265 @@
         <v>0</v>
       </c>
       <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3">
         <v>1938000</v>
-      </c>
-      <c r="M58" s="3">
-        <v>1929000</v>
       </c>
       <c r="N58" s="3">
         <v>1929000</v>
       </c>
       <c r="O58" s="3">
+        <v>1929000</v>
+      </c>
+      <c r="P58" s="3">
         <v>420000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>394000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>217000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>9000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>389000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>381000</v>
-      </c>
-      <c r="U58" s="3">
-        <v>432000</v>
       </c>
       <c r="V58" s="3">
         <v>432000</v>
       </c>
       <c r="W58" s="3">
-        <v>52000</v>
+        <v>432000</v>
       </c>
       <c r="X58" s="3">
         <v>52000</v>
       </c>
       <c r="Y58" s="3">
-        <v>0</v>
+        <v>52000</v>
       </c>
       <c r="Z58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA58" s="3">
         <v>3000</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>15000</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>503000</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>656000</v>
       </c>
     </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1267000</v>
+      </c>
+      <c r="E59" s="3">
         <v>2101000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>3699000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>3827000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>4018000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>2139000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>2253000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1585000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1097000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>810000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>860000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>421000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1288000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1500000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1605000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1600000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1790000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1743000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>1874000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>1699000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>1645000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>1650000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>1540000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>1437000</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>2095000</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>2473000</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>2290000</v>
       </c>
     </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1898000</v>
+      </c>
+      <c r="E60" s="3">
         <v>2704000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>4238000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>4241000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>4392000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2447000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2510000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1866000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1443000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>3094000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>3105000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2389000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2260000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2392000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2348000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2220000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>2930000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>2887000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>2976000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>2873000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>2354000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>2356000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>2218000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>2158000</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>2788000</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>3648000</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>3606000</v>
       </c>
     </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>2040000</v>
+      </c>
+      <c r="E61" s="3">
         <v>3093000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>2717000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>3046000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>2774000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>2278000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1259000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1261000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1262000</v>
-      </c>
-      <c r="L61" s="3">
-        <v>1064000</v>
       </c>
       <c r="M61" s="3">
         <v>1064000</v>
@@ -4677,135 +4820,141 @@
         <v>1064000</v>
       </c>
       <c r="O61" s="3">
+        <v>1064000</v>
+      </c>
+      <c r="P61" s="3">
         <v>9163000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>9082000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>9143000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>9713000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>9182000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>7341000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>9380000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>9238000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>9325000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>9921000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>9899000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>9850000</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>9509000</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>9938000</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>9022000</v>
       </c>
     </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>370000</v>
+      </c>
+      <c r="E62" s="3">
         <v>547000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>787000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>804000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>744000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>613000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>519000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>459000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>318000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>7767000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>7653000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>7288000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>309000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>318000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>353000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>377000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>387000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>374000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>342000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>347000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>504000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>520000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>568000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>596000</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>605000</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>645000</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>827000</v>
       </c>
     </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4887,8 +5036,11 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4970,8 +5122,11 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5053,91 +5208,97 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4308000</v>
+      </c>
+      <c r="E66" s="3">
         <v>6344000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>7742000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>8091000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>7910000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>5338000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>4288000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>3586000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3023000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>11925000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>11843000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>10762000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>11753000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>11829000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>11883000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>12349000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>12540000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>10643000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>12821000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>12581000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>12306000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>12921000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>12938000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>12858000</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>13158000</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>14488000</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>13714000</v>
       </c>
     </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5167,8 +5328,9 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5250,8 +5412,11 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5333,8 +5498,11 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5363,7 +5531,7 @@
         <v>0</v>
       </c>
       <c r="L70" s="3">
-        <v>1631000</v>
+        <v>0</v>
       </c>
       <c r="M70" s="3">
         <v>1631000</v>
@@ -5381,7 +5549,7 @@
         <v>1631000</v>
       </c>
       <c r="R70" s="3">
-        <v>1671000</v>
+        <v>1631000</v>
       </c>
       <c r="S70" s="3">
         <v>1671000</v>
@@ -5411,13 +5579,16 @@
         <v>1671000</v>
       </c>
       <c r="AB70" s="3">
+        <v>1671000</v>
+      </c>
+      <c r="AC70" s="3">
         <v>1771000</v>
       </c>
-      <c r="AC70" s="3">
+      <c r="AD70" s="3">
         <v>3036000</v>
       </c>
     </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5499,91 +5670,97 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>4553000</v>
+      </c>
+      <c r="E72" s="3">
         <v>3399000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>719000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>188000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-233000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>825000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-557000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-178000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>295000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-23954000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-23538000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-22793000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-22517000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-14220000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-13896000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-13835000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-13933000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-13912000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-16173000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-16257000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-16240000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-16525000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-16987000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-16969000</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-17463000</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>-17603000</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>-17028000</v>
       </c>
     </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5665,8 +5842,11 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5748,8 +5928,11 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5831,91 +6014,97 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>10283000</v>
+      </c>
+      <c r="E76" s="3">
         <v>9124000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>6347000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>5808000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>5383000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>5671000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>3038000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>3413000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>3881000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-6972000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-6571000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-5840000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-5576000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2733000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>3065000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>2520000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>2426000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>421000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-1833000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-1911000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-1891000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>-2167000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>-2628000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>-2609000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>-3130000</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>-3231000</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>-4227000</v>
       </c>
     </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5997,179 +6186,188 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43100</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43008</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42916</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42825</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42735</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1389000</v>
+      </c>
+      <c r="E81" s="3">
         <v>3513000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>883000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1237000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-764000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>1434000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-345000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-439000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>5678000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-416000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-745000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-276000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-8319000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-346000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-101000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>75000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-44000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>580000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-170000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-272000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-8000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>307000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-41000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>470000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>75000</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>-973000</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>-1257000</v>
       </c>
     </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6199,91 +6397,95 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>390000</v>
+      </c>
+      <c r="E83" s="3">
         <v>453000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>440000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>451000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>409000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>340000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>228000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>229000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>194000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>166000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>170000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>158000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>603000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>592000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>573000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>580000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>519000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>402000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>405000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>471000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>459000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>306000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>248000</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>223000</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>218000</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>233000</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>276000</v>
       </c>
     </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6365,8 +6567,11 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6448,8 +6653,11 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6531,8 +6739,11 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6614,8 +6825,11 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6697,91 +6911,97 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>889000</v>
+      </c>
+      <c r="E89" s="3">
         <v>1050000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>1313000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>909000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>853000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>563000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>443000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>394000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>388000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>9000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>382000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>376000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>397000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>441000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>329000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>397000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>456000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>405000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>504000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>435000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>656000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>472000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>331000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>-157000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>99000</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>-254000</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>376000</v>
       </c>
     </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6811,91 +7031,95 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-497000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-524000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-540000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-415000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-344000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-265000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-178000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-149000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-143000</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
       <c r="M91" s="3">
         <v>0</v>
       </c>
       <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3">
         <v>-3000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-6000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-8000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-10000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-11000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-6000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-10000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-6000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-2000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-3000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-9000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-5000</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-4000</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-531000</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>1006000</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-1006000</v>
       </c>
     </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6977,8 +7201,11 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7060,91 +7287,97 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>395000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-544000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-495000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-415000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-1947000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-455000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-175000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-147000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-139000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-34000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-102000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-345000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-511000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-545000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-563000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-516000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-856000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>1447000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-489000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-524000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>21000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-586000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-379000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-603000</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>380000</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-81000</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-480000</v>
       </c>
     </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7174,32 +7407,33 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-175000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-424000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-280000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-298000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-210000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-52000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-33000</v>
       </c>
-      <c r="J96" s="3">
-        <v>0</v>
-      </c>
       <c r="K96" s="3">
         <v>0</v>
       </c>
@@ -7257,8 +7491,11 @@
       <c r="AC96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7340,8 +7577,11 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7423,8 +7663,11 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7506,91 +7749,97 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-1279000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-444000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-714000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-496000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>208000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-52000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-32000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-33000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-120000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-2000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-56000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-31000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>190000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>96000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>244000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>115000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>404000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-1782000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>46000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>160000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-610000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>114000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>40000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>524000</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-1112000</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>1213000</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>104000</v>
       </c>
     </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7672,87 +7921,93 @@
       <c r="AC101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E102" s="3">
         <v>62000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>104000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-2000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-886000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>56000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>236000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>214000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>129000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-27000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>224000</v>
       </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
       <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>76000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-8000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>10000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-4000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>4000</v>
       </c>
-      <c r="T102" s="3">
-        <v>0</v>
-      </c>
       <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
         <v>1000</v>
-      </c>
-      <c r="V102" s="3">
-        <v>-1000</v>
       </c>
       <c r="W102" s="3">
         <v>-1000</v>
       </c>
       <c r="X102" s="3">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="Y102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z102" s="3">
         <v>-8000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-236000</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-633000</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>878000</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CHK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CHK_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="92">
   <si>
     <t>CHK</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,372 +665,385 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="30" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="31" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42916</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42825</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42735</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1419000</v>
+      </c>
+      <c r="E8" s="3">
         <v>3035000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>4124000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>3164000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>3499000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>656000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>3083000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>887000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>691000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1131000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1230000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>959000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>507000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2525000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1916000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>2074000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>2385000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>2177000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>3084000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>2434000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>2271000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>2505000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>2519000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>1943000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>2281000</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>2753000</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>2021000</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>2276000</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>336000</v>
+      </c>
+      <c r="E9" s="3">
         <v>464000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>438000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>474000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>449000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>415000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>394000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>340000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>326000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>327000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>380000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>717000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>747000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>867000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>449000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>459000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>477000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>439000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>984000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>530000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>504000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>532000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>551000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>541000</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>518000</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>512000</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>594000</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>650000</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1083000</v>
+      </c>
+      <c r="E10" s="3">
         <v>2571000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>3686000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>2690000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>3050000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>241000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>2689000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>547000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>365000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>804000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>850000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>242000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>-240000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1658000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1467000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1615000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1908000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1738000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>2100000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>1904000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>1767000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>1973000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>1968000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>1402000</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>1763000</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>2241000</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>1427000</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>1626000</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1061,31 +1074,32 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>8000</v>
+      </c>
+      <c r="E12" s="3">
         <v>7000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>9000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>2000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>7000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>5000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>3000</v>
-      </c>
-      <c r="J12" s="3">
-        <v>1000</v>
       </c>
       <c r="K12" s="3">
         <v>1000</v>
@@ -1097,40 +1111,40 @@
         <v>1000</v>
       </c>
       <c r="N12" s="3">
+        <v>1000</v>
+      </c>
+      <c r="O12" s="3">
         <v>2000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>3000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>10000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>22000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>16000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>8000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>6000</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>40000</v>
-      </c>
-      <c r="V12" s="3">
-        <v>15000</v>
       </c>
       <c r="W12" s="3">
         <v>15000</v>
       </c>
       <c r="X12" s="3">
+        <v>15000</v>
+      </c>
+      <c r="Y12" s="3">
         <v>34000</v>
-      </c>
-      <c r="Y12" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Z12" s="3" t="s">
         <v>8</v>
@@ -1147,8 +1161,11 @@
       <c r="AD12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1233,180 +1250,189 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="3">
-        <v>5000</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>8</v>
+      <c r="F14" s="3">
+        <v>6000</v>
       </c>
       <c r="G14" s="3">
-        <v>0</v>
+        <v>8000</v>
       </c>
       <c r="H14" s="3">
-        <v>0</v>
+        <v>-10000</v>
       </c>
       <c r="I14" s="3">
-        <v>0</v>
+        <v>-256000</v>
       </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>1000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>12000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-5545000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>606000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>642000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>-239000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>8839000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>75000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>-48000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>34000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>80000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>-323000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>141000</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>63000</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>100000</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>-128000</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>30000</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>-148000</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AC14" s="3">
         <v>396000</v>
       </c>
-      <c r="AC14" s="3">
+      <c r="AD14" s="3">
         <v>428000</v>
       </c>
-      <c r="AD14" s="3">
+      <c r="AE14" s="3">
         <v>1169000</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>376000</v>
+      </c>
+      <c r="E15" s="3">
         <v>390000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>453000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>440000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>451000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>409000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>340000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>228000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>229000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>194000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>166000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>170000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>158000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>603000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>592000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>573000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>580000</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>519000</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>402000</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>696000</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>761000</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>745000</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>306000</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>248000</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AB15" s="3">
         <v>223000</v>
       </c>
-      <c r="AB15" s="3">
+      <c r="AC15" s="3">
         <v>218000</v>
       </c>
-      <c r="AC15" s="3">
+      <c r="AD15" s="3">
         <v>233000</v>
       </c>
-      <c r="AD15" s="3">
+      <c r="AE15" s="3">
         <v>276000</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1434,180 +1460,187 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>902000</v>
+      </c>
+      <c r="E17" s="3">
         <v>1215000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1901000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2159000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2158000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1450000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1662000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1225000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1121000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>-4489000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1630000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1681000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>652000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>10689000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2127000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1962000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2130000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2360000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>2335000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>2420000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>2431000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>2463000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>2064000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>1850000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>1691000</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>2519000</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>2687000</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>3423000</v>
       </c>
     </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>517000</v>
+      </c>
+      <c r="E18" s="3">
         <v>1820000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>2223000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>1005000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>1341000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-794000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>1421000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-338000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-430000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>5620000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-400000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-722000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-145000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-8164000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-211000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>112000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>255000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-183000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>749000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>14000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-160000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>42000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>455000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>93000</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>590000</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>234000</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>-666000</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>-1147000</v>
       </c>
     </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1638,418 +1671,431 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>26000</v>
+      </c>
+      <c r="E20" s="3">
         <v>12000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-5000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>5000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>9000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>17000</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
         <v>0</v>
       </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>9000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>24000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>1000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>27000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>143000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>134000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>31000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>3000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>18000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>9000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>24000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>30000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>81000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>162000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>28000</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>34000</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>41000</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>34000</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>154000</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>48000</v>
       </c>
     </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>919000</v>
+      </c>
+      <c r="E21" s="3">
         <v>2222000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>2671000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>1450000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>1801000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-368000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>1761000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-110000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-192000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>5838000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-233000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-525000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>156000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-7427000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>412000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>688000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>853000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>345000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>1175000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>449000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>392000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>663000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>789000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>375000</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>854000</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>486000</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>-279000</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>-823000</v>
       </c>
     </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>25000</v>
+      </c>
+      <c r="E22" s="3">
         <v>39000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>28000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>53000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>36000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>33000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>26000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>17000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>18000</v>
-      </c>
-      <c r="L22" s="3">
-        <v>23000</v>
       </c>
       <c r="M22" s="3">
         <v>23000</v>
       </c>
       <c r="N22" s="3">
+        <v>23000</v>
+      </c>
+      <c r="O22" s="3">
         <v>50000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>274000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>296000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>160000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>177000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>175000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>161000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>170000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>189000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>179000</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>186000</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>149000</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>144000</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>135000</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>126000</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AD22" s="3">
         <v>252000</v>
       </c>
-      <c r="AD22" s="3">
+      <c r="AE22" s="3">
         <v>115000</v>
       </c>
     </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>518000</v>
+      </c>
+      <c r="E23" s="3">
         <v>1793000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>2190000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>957000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>1314000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-810000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>1395000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-355000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-439000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>5621000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-422000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-745000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-276000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-8326000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-340000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-62000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>98000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-335000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>603000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-145000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-258000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>18000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>334000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-17000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>496000</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>142000</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>-764000</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>-1214000</v>
       </c>
     </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>127000</v>
+      </c>
+      <c r="E24" s="3">
         <v>404000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-1390000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>74000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>77000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-46000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-39000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-10000</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
       <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
         <v>-57000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-6000</v>
       </c>
-      <c r="N24" s="3">
-        <v>0</v>
-      </c>
       <c r="O24" s="3">
         <v>0</v>
       </c>
       <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
         <v>-13000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-16000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-1000</v>
       </c>
-      <c r="S24" s="3">
-        <v>0</v>
-      </c>
       <c r="T24" s="3">
+        <v>0</v>
+      </c>
+      <c r="U24" s="3">
         <v>-314000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-2000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>1000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>-9000</v>
       </c>
-      <c r="X24" s="3">
-        <v>0</v>
-      </c>
       <c r="Y24" s="3">
         <v>0</v>
       </c>
@@ -2057,19 +2103,22 @@
         <v>0</v>
       </c>
       <c r="AA24" s="3">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AB24" s="3">
         <v>1000</v>
       </c>
       <c r="AC24" s="3">
+        <v>1000</v>
+      </c>
+      <c r="AD24" s="3">
         <v>-190000</v>
       </c>
-      <c r="AD24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2154,180 +2203,189 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>391000</v>
+      </c>
+      <c r="E26" s="3">
         <v>1389000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>3580000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>883000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1237000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-764000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1434000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-345000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-439000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>5678000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-416000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-745000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-276000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-8313000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-324000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-61000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>98000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-21000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>605000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-146000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-249000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>18000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>334000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-17000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>495000</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>141000</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>-574000</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>-1214000</v>
       </c>
     </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>391000</v>
+      </c>
+      <c r="E27" s="3">
         <v>1389000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>3513000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>883000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1237000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-764000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1434000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-345000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-439000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>5678000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-416000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-745000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-276000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-8319000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-346000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-101000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>75000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-44000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>580000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-170000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-272000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-8000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>307000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-41000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>470000</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>75000</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>-973000</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>-1257000</v>
       </c>
     </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2412,8 +2470,11 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2498,8 +2559,11 @@
       <c r="AD29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2584,8 +2648,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2670,180 +2737,189 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-26000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-12000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>5000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-5000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-9000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-17000</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
         <v>0</v>
       </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>-9000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-24000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-1000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-27000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-143000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-134000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-31000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-3000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-18000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-9000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-24000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-30000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-81000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-162000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-28000</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-34000</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-41000</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-34000</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>-154000</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>-48000</v>
       </c>
     </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>391000</v>
+      </c>
+      <c r="E33" s="3">
         <v>1389000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>3513000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>883000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1237000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-764000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1434000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-345000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-439000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>5678000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-416000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-745000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-276000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-8319000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-346000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-101000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>75000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-44000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>580000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-170000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-272000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-8000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>307000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-41000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>470000</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>75000</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>-973000</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>-1257000</v>
       </c>
     </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2928,185 +3004,194 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>391000</v>
+      </c>
+      <c r="E35" s="3">
         <v>1389000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>3513000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>883000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1237000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-764000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1434000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-345000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-439000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>5678000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-416000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-745000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-276000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-8319000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-346000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-101000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>75000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-44000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>580000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-170000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-272000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-8000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>307000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-41000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>470000</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>75000</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>-973000</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>-1257000</v>
       </c>
     </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42916</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42825</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42735</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3137,8 +3222,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3169,94 +3255,98 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>130000</v>
+        <v>903000</v>
       </c>
       <c r="E41" s="3">
         <v>130000</v>
       </c>
       <c r="F41" s="3">
+        <v>130000</v>
+      </c>
+      <c r="G41" s="3">
         <v>74000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>17000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>19000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>905000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>849000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>612000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>340000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>279000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>306000</v>
-      </c>
-      <c r="O41" s="3">
-        <v>82000</v>
       </c>
       <c r="P41" s="3">
         <v>82000</v>
       </c>
       <c r="Q41" s="3">
+        <v>82000</v>
+      </c>
+      <c r="R41" s="3">
         <v>6000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>14000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>4000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>8000</v>
-      </c>
-      <c r="U41" s="3">
-        <v>4000</v>
       </c>
       <c r="V41" s="3">
         <v>4000</v>
       </c>
       <c r="W41" s="3">
+        <v>4000</v>
+      </c>
+      <c r="X41" s="3">
         <v>3000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>4000</v>
-      </c>
-      <c r="Y41" s="3">
-        <v>5000</v>
       </c>
       <c r="Z41" s="3">
         <v>5000</v>
       </c>
       <c r="AA41" s="3">
+        <v>5000</v>
+      </c>
+      <c r="AB41" s="3">
         <v>13000</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>249000</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>882000</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3341,94 +3431,100 @@
       <c r="AD42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>671000</v>
+      </c>
+      <c r="E43" s="3">
         <v>864000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1438000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1757000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1804000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1383000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1115000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>815000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>674000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>704000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>746000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>676000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>513000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>762000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>990000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>977000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1021000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1196000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>1247000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>1051000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>1060000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>1082000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>1322000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>992000</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>1019000</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>943000</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>1057000</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>893000</v>
       </c>
     </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3513,180 +3609,189 @@
       <c r="AD44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>646000</v>
+      </c>
+      <c r="E45" s="3">
         <v>1635000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1130000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>228000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>189000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>85000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>83000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>70000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>68000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>146000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>83000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>90000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>95000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>974000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>255000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>412000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>359000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>161000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>347000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>180000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>177000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>138000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>198000</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>181000</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>215000</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>168000</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>203000</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>170000</v>
       </c>
     </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2220000</v>
+      </c>
+      <c r="E46" s="3">
         <v>2629000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2698000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2059000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2010000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1487000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2103000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1734000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1354000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1190000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1108000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1072000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>690000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1818000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1251000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1403000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1384000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1365000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1598000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1235000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>1240000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>1224000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>1525000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>1178000</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>1247000</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>1360000</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>2142000</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>1067000</v>
       </c>
     </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3771,94 +3876,100 @@
       <c r="AD47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>10653000</v>
+      </c>
+      <c r="E48" s="3">
         <v>10523000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>11187000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>11953000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>11778000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>11717000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>8837000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>5505000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>5547000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>5602000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>5232000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>5636000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>5692000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>5823000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>14768000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>14888000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>14858000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>14955000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>10803000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>11130000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>10839000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>10576000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>10664000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>10562000</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>10397000</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>10068000</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>10580000</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>10975000</v>
       </c>
     </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3943,8 +4054,11 @@
       <c r="AD49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4029,8 +4143,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4115,94 +4232,100 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1556000</v>
+      </c>
+      <c r="E52" s="3">
         <v>1439000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1583000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>77000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>111000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>89000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>69000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>87000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>98000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>112000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>244000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>195000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>171000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>167000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>174000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>288000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>298000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>317000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>334000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>294000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>262000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>286000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>236000</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>241000</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>276000</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>271000</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>306000</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AE52" s="3">
         <v>481000</v>
       </c>
     </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4287,94 +4410,100 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>14429000</v>
+      </c>
+      <c r="E54" s="3">
         <v>14591000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>15468000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>14089000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>13899000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>13293000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>11009000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>7326000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>6999000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>6904000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>6584000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>6903000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>6553000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>7808000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>16193000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>16579000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>16540000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>16637000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>12735000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>12659000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>12341000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>12086000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>12425000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>11981000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>11920000</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>11699000</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>13028000</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>12523000</v>
       </c>
     </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4405,8 +4534,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4437,94 +4567,98 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>642000</v>
+      </c>
+      <c r="E57" s="3">
         <v>631000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>603000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>539000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>414000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>374000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>308000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>257000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>281000</v>
-      </c>
-      <c r="L57" s="3">
-        <v>346000</v>
       </c>
       <c r="M57" s="3">
         <v>346000</v>
       </c>
       <c r="N57" s="3">
+        <v>346000</v>
+      </c>
+      <c r="O57" s="3">
         <v>316000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>39000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>552000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>498000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>526000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>611000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>751000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>763000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>670000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>742000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>657000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>654000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>678000</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>718000</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>678000</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>672000</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>660000</v>
       </c>
     </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4556,265 +4690,274 @@
         <v>0</v>
       </c>
       <c r="M58" s="3">
+        <v>0</v>
+      </c>
+      <c r="N58" s="3">
         <v>1938000</v>
-      </c>
-      <c r="N58" s="3">
-        <v>1929000</v>
       </c>
       <c r="O58" s="3">
         <v>1929000</v>
       </c>
       <c r="P58" s="3">
+        <v>1929000</v>
+      </c>
+      <c r="Q58" s="3">
         <v>420000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>394000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>217000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>9000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>389000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>381000</v>
-      </c>
-      <c r="V58" s="3">
-        <v>432000</v>
       </c>
       <c r="W58" s="3">
         <v>432000</v>
       </c>
       <c r="X58" s="3">
-        <v>52000</v>
+        <v>432000</v>
       </c>
       <c r="Y58" s="3">
         <v>52000</v>
       </c>
       <c r="Z58" s="3">
-        <v>0</v>
+        <v>52000</v>
       </c>
       <c r="AA58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB58" s="3">
         <v>3000</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>15000</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>503000</v>
       </c>
-      <c r="AD58" s="3">
+      <c r="AE58" s="3">
         <v>656000</v>
       </c>
     </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1009000</v>
+      </c>
+      <c r="E59" s="3">
         <v>1267000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>2101000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>3699000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>3827000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>4018000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>2139000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>2253000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1585000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1097000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>810000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>860000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>421000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1288000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1500000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1605000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1600000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1790000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>1743000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>1874000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>1699000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>1645000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>1650000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>1540000</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>1437000</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>2095000</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>2473000</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>2290000</v>
       </c>
     </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1651000</v>
+      </c>
+      <c r="E60" s="3">
         <v>1898000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2704000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>4238000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>4241000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>4392000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2447000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2510000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1866000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1443000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>3094000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>3105000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2389000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2260000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2392000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2348000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>2220000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>2930000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>2887000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>2976000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>2873000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>2354000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>2356000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>2218000</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>2158000</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>2788000</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>3648000</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>3606000</v>
       </c>
     </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>2036000</v>
+      </c>
+      <c r="E61" s="3">
         <v>2040000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>3093000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>2717000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>3046000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>2774000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>2278000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1259000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1261000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1262000</v>
-      </c>
-      <c r="M61" s="3">
-        <v>1064000</v>
       </c>
       <c r="N61" s="3">
         <v>1064000</v>
@@ -4823,138 +4966,144 @@
         <v>1064000</v>
       </c>
       <c r="P61" s="3">
+        <v>1064000</v>
+      </c>
+      <c r="Q61" s="3">
         <v>9163000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>9082000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>9143000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>9713000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>9182000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>7341000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>9380000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>9238000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>9325000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>9921000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>9899000</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>9850000</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>9509000</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>9938000</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AE61" s="3">
         <v>9022000</v>
       </c>
     </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>346000</v>
+      </c>
+      <c r="E62" s="3">
         <v>370000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>547000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>787000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>804000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>744000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>613000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>519000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>459000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>318000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>7767000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>7653000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>7288000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>309000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>318000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>353000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>377000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>387000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>374000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>342000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>347000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>504000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>520000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>568000</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>596000</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>605000</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>645000</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>827000</v>
       </c>
     </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5039,8 +5188,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5125,8 +5277,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5211,94 +5366,100 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4033000</v>
+      </c>
+      <c r="E66" s="3">
         <v>4308000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>6344000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>7742000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>8091000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>7910000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>5338000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>4288000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3586000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3023000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>11925000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>11843000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>10762000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>11753000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>11829000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>11883000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>12349000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>12540000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>10643000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>12821000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>12581000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>12306000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>12921000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>12938000</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>12858000</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>13158000</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>14488000</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>13714000</v>
       </c>
     </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5329,8 +5490,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5415,8 +5577,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5501,8 +5666,11 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5534,7 +5702,7 @@
         <v>0</v>
       </c>
       <c r="M70" s="3">
-        <v>1631000</v>
+        <v>0</v>
       </c>
       <c r="N70" s="3">
         <v>1631000</v>
@@ -5552,7 +5720,7 @@
         <v>1631000</v>
       </c>
       <c r="S70" s="3">
-        <v>1671000</v>
+        <v>1631000</v>
       </c>
       <c r="T70" s="3">
         <v>1671000</v>
@@ -5582,13 +5750,16 @@
         <v>1671000</v>
       </c>
       <c r="AC70" s="3">
+        <v>1671000</v>
+      </c>
+      <c r="AD70" s="3">
         <v>1771000</v>
       </c>
-      <c r="AD70" s="3">
+      <c r="AE70" s="3">
         <v>3036000</v>
       </c>
     </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5673,94 +5844,100 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>4669000</v>
+      </c>
+      <c r="E72" s="3">
         <v>4553000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>3399000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>719000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>188000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-233000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>825000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-557000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-178000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>295000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-23954000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-23538000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-22793000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-22517000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-14220000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-13896000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-13835000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-13933000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-13912000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-16173000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-16257000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-16240000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-16525000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-16987000</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-16969000</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>-17463000</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>-17603000</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>-17028000</v>
       </c>
     </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5845,8 +6022,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5931,8 +6111,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6017,94 +6200,100 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>10396000</v>
+      </c>
+      <c r="E76" s="3">
         <v>10283000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>9124000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>6347000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>5808000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>5383000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>5671000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>3038000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>3413000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>3881000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-6972000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-6571000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-5840000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-5576000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2733000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>3065000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>2520000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>2426000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>421000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-1833000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-1911000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>-1891000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>-2167000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>-2628000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>-2609000</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>-3130000</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>-3231000</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>-4227000</v>
       </c>
     </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6189,185 +6378,194 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42916</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42825</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42735</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>391000</v>
+      </c>
+      <c r="E81" s="3">
         <v>1389000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>3513000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>883000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1237000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-764000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1434000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-345000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-439000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>5678000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-416000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-745000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-276000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-8319000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-346000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-101000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>75000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-44000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>580000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-170000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-272000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-8000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>307000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-41000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>470000</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>75000</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>-973000</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>-1257000</v>
       </c>
     </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6398,94 +6596,98 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>376000</v>
+      </c>
+      <c r="E83" s="3">
         <v>390000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>453000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>440000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>451000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>409000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>340000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>228000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>229000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>194000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>166000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>170000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>158000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>603000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>592000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>573000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>580000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>519000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>402000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>405000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>471000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>459000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>306000</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>248000</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>223000</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>218000</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>233000</v>
       </c>
-      <c r="AD83" s="3">
+      <c r="AE83" s="3">
         <v>276000</v>
       </c>
     </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6570,8 +6772,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6656,8 +6861,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6742,8 +6950,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6828,8 +7039,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6914,94 +7128,100 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>515000</v>
+      </c>
+      <c r="E89" s="3">
         <v>889000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>1050000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>1313000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>909000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>853000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>563000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>443000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>394000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>388000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>9000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>382000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>376000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>397000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>441000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>329000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>397000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>456000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>405000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>504000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>435000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>656000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>472000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>331000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>-157000</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>99000</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>-254000</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>376000</v>
       </c>
     </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7032,94 +7252,98 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-530000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-497000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-524000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-540000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-415000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-344000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-265000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-178000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-149000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-143000</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
-      </c>
       <c r="N91" s="3">
         <v>0</v>
       </c>
       <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
         <v>-3000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-6000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-8000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-10000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-11000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-6000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-10000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-6000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-2000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-3000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-9000</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-5000</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-4000</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-531000</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>1006000</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>-1006000</v>
       </c>
     </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7204,8 +7428,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7290,94 +7517,100 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>453000</v>
+      </c>
+      <c r="E94" s="3">
         <v>395000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-544000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-495000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-415000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-1947000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-455000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-175000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-147000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-139000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-34000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-102000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-345000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-511000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-545000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-563000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-516000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-856000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>1447000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-489000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-524000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>21000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-586000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-379000</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-603000</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>380000</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-81000</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-480000</v>
       </c>
     </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7408,35 +7641,36 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-160000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-175000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-424000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-280000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-298000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-210000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-52000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-33000</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
         <v>0</v>
       </c>
@@ -7494,8 +7728,11 @@
       <c r="AD96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7580,8 +7817,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7666,8 +7906,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7752,94 +7995,100 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-190000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-1279000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-444000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-714000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-496000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>208000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-52000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-32000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-33000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-120000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-2000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-56000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-31000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>190000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>96000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>244000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>115000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>404000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-1782000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>46000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>160000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-610000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>114000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>40000</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>524000</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-1112000</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>1213000</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>104000</v>
       </c>
     </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7924,90 +8173,96 @@
       <c r="AD101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>778000</v>
+      </c>
+      <c r="E102" s="3">
         <v>5000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>62000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>104000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-2000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-886000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>56000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>236000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>214000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>129000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-27000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>224000</v>
       </c>
-      <c r="O102" s="3">
-        <v>0</v>
-      </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>76000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-8000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>10000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-4000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>4000</v>
       </c>
-      <c r="U102" s="3">
-        <v>0</v>
-      </c>
       <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
         <v>1000</v>
-      </c>
-      <c r="W102" s="3">
-        <v>-1000</v>
       </c>
       <c r="X102" s="3">
         <v>-1000</v>
       </c>
       <c r="Y102" s="3">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="Z102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA102" s="3">
         <v>-8000</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-236000</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-633000</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>878000</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CHK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CHK_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AE102"/>
+  <dimension ref="A5:AF102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,385 +665,398 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="31" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="32" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43646</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43555</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43465</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43373</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43281</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43190</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43100</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>43008</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42916</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42825</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42735</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AF7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1512000</v>
+      </c>
+      <c r="E8" s="3">
         <v>1419000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>3035000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>4124000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>3164000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>3499000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>656000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>3083000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>887000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>691000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1131000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1230000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>959000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>507000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2525000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1916000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>2074000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>2385000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>2177000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>3084000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>2434000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>2271000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>2505000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>2519000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>1943000</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>2281000</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>2753000</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>2021000</v>
       </c>
-      <c r="AE8" s="3">
+      <c r="AF8" s="3">
         <v>2276000</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>292000</v>
+      </c>
+      <c r="E9" s="3">
         <v>336000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>464000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>438000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>474000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>449000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>415000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>394000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>340000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>326000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>327000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>380000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>717000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>747000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>867000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>449000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>459000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>477000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>439000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>984000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>530000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>504000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>532000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>551000</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>541000</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>518000</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>512000</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>594000</v>
       </c>
-      <c r="AE9" s="3">
+      <c r="AF9" s="3">
         <v>650000</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1220000</v>
+      </c>
+      <c r="E10" s="3">
         <v>1083000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>2571000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>3686000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>2690000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>3050000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>241000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>2689000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>547000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>365000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>804000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>850000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>242000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>-240000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1658000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1467000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1615000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1908000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>1738000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>2100000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>1904000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>1767000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>1973000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>1968000</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>1402000</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>1763000</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>2241000</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>1427000</v>
       </c>
-      <c r="AE10" s="3">
+      <c r="AF10" s="3">
         <v>1626000</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1075,34 +1088,35 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF11" s="3"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E12" s="3">
         <v>8000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>7000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>9000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>2000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>7000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>5000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>3000</v>
-      </c>
-      <c r="K12" s="3">
-        <v>1000</v>
       </c>
       <c r="L12" s="3">
         <v>1000</v>
@@ -1114,40 +1128,40 @@
         <v>1000</v>
       </c>
       <c r="O12" s="3">
+        <v>1000</v>
+      </c>
+      <c r="P12" s="3">
         <v>2000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>3000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>10000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>22000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>16000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>8000</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>6000</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>40000</v>
-      </c>
-      <c r="W12" s="3">
-        <v>15000</v>
       </c>
       <c r="X12" s="3">
         <v>15000</v>
       </c>
       <c r="Y12" s="3">
+        <v>15000</v>
+      </c>
+      <c r="Z12" s="3">
         <v>34000</v>
-      </c>
-      <c r="Z12" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="AA12" s="3" t="s">
         <v>8</v>
@@ -1164,8 +1178,11 @@
       <c r="AE12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1253,186 +1270,195 @@
       <c r="AE13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>3000</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="F14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>6000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>8000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>-10000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>-256000</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>1000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>12000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>-5545000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>606000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>642000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>-239000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>8839000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>75000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>-48000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>34000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>80000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>-323000</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>141000</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>63000</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>100000</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>-128000</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>30000</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AC14" s="3">
         <v>-148000</v>
       </c>
-      <c r="AC14" s="3">
+      <c r="AD14" s="3">
         <v>396000</v>
       </c>
-      <c r="AD14" s="3">
+      <c r="AE14" s="3">
         <v>428000</v>
       </c>
-      <c r="AE14" s="3">
+      <c r="AF14" s="3">
         <v>1169000</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>382000</v>
+      </c>
+      <c r="E15" s="3">
         <v>376000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>390000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>453000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>440000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>451000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>409000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>340000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>228000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>229000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>194000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>166000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>170000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>158000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>603000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>592000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>573000</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>580000</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>519000</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>402000</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>696000</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>761000</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>745000</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>306000</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AB15" s="3">
         <v>248000</v>
       </c>
-      <c r="AB15" s="3">
+      <c r="AC15" s="3">
         <v>223000</v>
       </c>
-      <c r="AC15" s="3">
+      <c r="AD15" s="3">
         <v>218000</v>
       </c>
-      <c r="AD15" s="3">
+      <c r="AE15" s="3">
         <v>233000</v>
       </c>
-      <c r="AE15" s="3">
+      <c r="AF15" s="3">
         <v>276000</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1461,186 +1487,193 @@
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
-    </row>
-    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF16" s="3"/>
+    </row>
+    <row r="17" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1433000</v>
+      </c>
+      <c r="E17" s="3">
         <v>902000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1215000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1901000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2159000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2158000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1450000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1662000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1225000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1121000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>-4489000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1630000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1681000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>652000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>10689000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2127000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1962000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2130000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>2360000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>2335000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>2420000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>2431000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>2463000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>2064000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>1850000</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>1691000</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>2519000</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>2687000</v>
       </c>
-      <c r="AE17" s="3">
+      <c r="AF17" s="3">
         <v>3423000</v>
       </c>
     </row>
-    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>79000</v>
+      </c>
+      <c r="E18" s="3">
         <v>517000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>1820000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>2223000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>1005000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>1341000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-794000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>1421000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-338000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-430000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>5620000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-400000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-722000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-145000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-8164000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-211000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>112000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>255000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-183000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>749000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>14000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-160000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>42000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>455000</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>93000</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>590000</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>234000</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>-666000</v>
       </c>
-      <c r="AE18" s="3">
+      <c r="AF18" s="3">
         <v>-1147000</v>
       </c>
     </row>
-    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1672,186 +1705,193 @@
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
-    </row>
-    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF19" s="3"/>
+    </row>
+    <row r="20" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>17000</v>
+      </c>
+      <c r="E20" s="3">
         <v>26000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>12000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-5000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>5000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>9000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>17000</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
         <v>0</v>
       </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>9000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>24000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>1000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>27000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>143000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>134000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>31000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>3000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>18000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>9000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>24000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>30000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>81000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>162000</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>28000</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>34000</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>41000</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>34000</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>154000</v>
       </c>
-      <c r="AE20" s="3">
+      <c r="AF20" s="3">
         <v>48000</v>
       </c>
     </row>
-    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>478000</v>
+      </c>
+      <c r="E21" s="3">
         <v>919000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>2222000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>2671000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>1450000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>1801000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-368000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>1761000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-110000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-192000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>5838000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-233000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-525000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>156000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-7427000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>412000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>688000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>853000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>345000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>1175000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>449000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>392000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>663000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>789000</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>375000</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>854000</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>486000</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>-279000</v>
       </c>
-      <c r="AE21" s="3">
+      <c r="AF21" s="3">
         <v>-823000</v>
       </c>
     </row>
-    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1859,246 +1899,252 @@
         <v>25000</v>
       </c>
       <c r="E22" s="3">
+        <v>25000</v>
+      </c>
+      <c r="F22" s="3">
         <v>39000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>28000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>53000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>36000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>33000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>26000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>17000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>18000</v>
-      </c>
-      <c r="M22" s="3">
-        <v>23000</v>
       </c>
       <c r="N22" s="3">
         <v>23000</v>
       </c>
       <c r="O22" s="3">
+        <v>23000</v>
+      </c>
+      <c r="P22" s="3">
         <v>50000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>274000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>296000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>160000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>177000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>175000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>161000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>170000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>189000</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>179000</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>186000</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>149000</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>144000</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>135000</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AD22" s="3">
         <v>126000</v>
       </c>
-      <c r="AD22" s="3">
+      <c r="AE22" s="3">
         <v>252000</v>
       </c>
-      <c r="AE22" s="3">
+      <c r="AF22" s="3">
         <v>115000</v>
       </c>
     </row>
-    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>71000</v>
+      </c>
+      <c r="E23" s="3">
         <v>518000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>1793000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>2190000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>957000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>1314000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-810000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>1395000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-355000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-439000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>5621000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-422000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-745000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-276000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-8326000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-340000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-62000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>98000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-335000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>603000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-145000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-258000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>18000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>334000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-17000</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>496000</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>142000</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>-764000</v>
       </c>
-      <c r="AE23" s="3">
+      <c r="AF23" s="3">
         <v>-1214000</v>
       </c>
     </row>
-    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E24" s="3">
         <v>127000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>404000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-1390000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>74000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>77000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-46000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-39000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-10000</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
       <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
         <v>-57000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-6000</v>
       </c>
-      <c r="O24" s="3">
-        <v>0</v>
-      </c>
       <c r="P24" s="3">
         <v>0</v>
       </c>
       <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
         <v>-13000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-16000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-1000</v>
       </c>
-      <c r="T24" s="3">
-        <v>0</v>
-      </c>
       <c r="U24" s="3">
+        <v>0</v>
+      </c>
+      <c r="V24" s="3">
         <v>-314000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-2000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>1000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>-9000</v>
       </c>
-      <c r="Y24" s="3">
-        <v>0</v>
-      </c>
       <c r="Z24" s="3">
         <v>0</v>
       </c>
@@ -2106,19 +2152,22 @@
         <v>0</v>
       </c>
       <c r="AB24" s="3">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AC24" s="3">
         <v>1000</v>
       </c>
       <c r="AD24" s="3">
+        <v>1000</v>
+      </c>
+      <c r="AE24" s="3">
         <v>-190000</v>
       </c>
-      <c r="AE24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2206,186 +2255,195 @@
       <c r="AE25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>70000</v>
+      </c>
+      <c r="E26" s="3">
         <v>391000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1389000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>3580000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>883000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1237000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-764000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1434000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-345000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-439000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>5678000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-416000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-745000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-276000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-8313000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-324000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-61000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>98000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-21000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>605000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-146000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-249000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>18000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>334000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-17000</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>495000</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>141000</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>-574000</v>
       </c>
-      <c r="AE26" s="3">
+      <c r="AF26" s="3">
         <v>-1214000</v>
       </c>
     </row>
-    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>70000</v>
+      </c>
+      <c r="E27" s="3">
         <v>391000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>1389000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>3513000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>883000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>1237000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-764000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1434000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-345000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-439000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>5678000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-416000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-745000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-276000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-8319000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-346000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-101000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>75000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-44000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>580000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-170000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-272000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-8000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>307000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-41000</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>470000</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>75000</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>-973000</v>
       </c>
-      <c r="AE27" s="3">
+      <c r="AF27" s="3">
         <v>-1257000</v>
       </c>
     </row>
-    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2473,8 +2531,11 @@
       <c r="AE28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2562,8 +2623,11 @@
       <c r="AE29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2651,8 +2715,11 @@
       <c r="AE30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2740,186 +2807,195 @@
       <c r="AE31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-17000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-26000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-12000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>5000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-5000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-9000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-17000</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
         <v>0</v>
       </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>-9000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-24000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-1000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-27000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-143000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-134000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-31000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-3000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-18000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-9000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-24000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-30000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-81000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-162000</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-28000</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-34000</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-41000</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>-34000</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>-154000</v>
       </c>
-      <c r="AE32" s="3">
+      <c r="AF32" s="3">
         <v>-48000</v>
       </c>
     </row>
-    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>70000</v>
+      </c>
+      <c r="E33" s="3">
         <v>391000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>1389000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>3513000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>883000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>1237000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-764000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1434000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-345000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-439000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>5678000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-416000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-745000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-276000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-8319000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-346000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-101000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>75000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-44000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>580000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-170000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-272000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-8000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>307000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-41000</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>470000</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>75000</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>-973000</v>
       </c>
-      <c r="AE33" s="3">
+      <c r="AF33" s="3">
         <v>-1257000</v>
       </c>
     </row>
-    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -3007,191 +3083,200 @@
       <c r="AE34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>70000</v>
+      </c>
+      <c r="E35" s="3">
         <v>391000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>1389000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>3513000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>883000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>1237000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-764000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1434000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-345000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-439000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>5678000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-416000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-745000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-276000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-8319000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-346000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-101000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>75000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-44000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>580000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-170000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-272000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-8000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>307000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-41000</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>470000</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>75000</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>-973000</v>
       </c>
-      <c r="AE35" s="3">
+      <c r="AF35" s="3">
         <v>-1257000</v>
       </c>
     </row>
-    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43646</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43555</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43465</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43373</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43281</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43190</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43100</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>43008</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42916</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42825</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42735</v>
       </c>
-      <c r="AE38" s="2">
+      <c r="AF38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3223,8 +3308,9 @@
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
-    </row>
-    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF39" s="3"/>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3256,97 +3342,101 @@
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
-    </row>
-    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF40" s="3"/>
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>713000</v>
+      </c>
+      <c r="E41" s="3">
         <v>903000</v>
-      </c>
-      <c r="E41" s="3">
-        <v>130000</v>
       </c>
       <c r="F41" s="3">
         <v>130000</v>
       </c>
       <c r="G41" s="3">
+        <v>130000</v>
+      </c>
+      <c r="H41" s="3">
         <v>74000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>17000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>19000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>905000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>849000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>612000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>340000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>279000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>306000</v>
-      </c>
-      <c r="P41" s="3">
-        <v>82000</v>
       </c>
       <c r="Q41" s="3">
         <v>82000</v>
       </c>
       <c r="R41" s="3">
+        <v>82000</v>
+      </c>
+      <c r="S41" s="3">
         <v>6000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>14000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>4000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>8000</v>
-      </c>
-      <c r="V41" s="3">
-        <v>4000</v>
       </c>
       <c r="W41" s="3">
         <v>4000</v>
       </c>
       <c r="X41" s="3">
+        <v>4000</v>
+      </c>
+      <c r="Y41" s="3">
         <v>3000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>4000</v>
-      </c>
-      <c r="Z41" s="3">
-        <v>5000</v>
       </c>
       <c r="AA41" s="3">
         <v>5000</v>
       </c>
       <c r="AB41" s="3">
+        <v>5000</v>
+      </c>
+      <c r="AC41" s="3">
         <v>13000</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>249000</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>882000</v>
       </c>
-      <c r="AE41" s="3">
+      <c r="AF41" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3434,97 +3524,103 @@
       <c r="AE42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>685000</v>
+      </c>
+      <c r="E43" s="3">
         <v>671000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>864000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1438000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1757000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1804000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1383000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1115000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>815000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>674000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>704000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>746000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>676000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>513000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>762000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>990000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>977000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1021000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>1196000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>1247000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>1051000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>1060000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>1082000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>1322000</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>992000</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>1019000</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>943000</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>1057000</v>
       </c>
-      <c r="AE43" s="3">
+      <c r="AF43" s="3">
         <v>893000</v>
       </c>
     </row>
-    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3612,186 +3708,195 @@
       <c r="AE44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1117000</v>
+      </c>
+      <c r="E45" s="3">
         <v>646000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1635000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1130000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>228000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>189000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>85000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>83000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>70000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>68000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>146000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>83000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>90000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>95000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>974000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>255000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>412000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>359000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>161000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>347000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>180000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>177000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>138000</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>198000</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>181000</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>215000</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>168000</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>203000</v>
       </c>
-      <c r="AE45" s="3">
+      <c r="AF45" s="3">
         <v>170000</v>
       </c>
     </row>
-    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2515000</v>
+      </c>
+      <c r="E46" s="3">
         <v>2220000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2629000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2698000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2059000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2010000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1487000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>2103000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1734000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1354000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1190000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1108000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1072000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>690000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1818000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1251000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1403000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1384000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1365000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1598000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>1235000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>1240000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>1224000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>1525000</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>1178000</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>1247000</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>1360000</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>2142000</v>
       </c>
-      <c r="AE46" s="3">
+      <c r="AF46" s="3">
         <v>1067000</v>
       </c>
     </row>
-    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3879,97 +3984,103 @@
       <c r="AE47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>10106000</v>
+      </c>
+      <c r="E48" s="3">
         <v>10653000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>10523000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>11187000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>11953000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>11778000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>11717000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>8837000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>5505000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>5547000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>5602000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>5232000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>5636000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>5692000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>5823000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>14768000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>14888000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>14858000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>14955000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>10803000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>11130000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>10839000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>10576000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>10664000</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>10562000</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>10397000</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>10068000</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>10580000</v>
       </c>
-      <c r="AE48" s="3">
+      <c r="AF48" s="3">
         <v>10975000</v>
       </c>
     </row>
-    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -4057,8 +4168,11 @@
       <c r="AE49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4146,8 +4260,11 @@
       <c r="AE50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4235,97 +4352,103 @@
       <c r="AE51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1627000</v>
+      </c>
+      <c r="E52" s="3">
         <v>1556000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1439000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1583000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>77000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>111000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>89000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>69000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>87000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>98000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>112000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>244000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>195000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>171000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>167000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>174000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>288000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>298000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>317000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>334000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>294000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>262000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>286000</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>236000</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>241000</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>276000</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>271000</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AE52" s="3">
         <v>306000</v>
       </c>
-      <c r="AE52" s="3">
+      <c r="AF52" s="3">
         <v>481000</v>
       </c>
     </row>
-    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4413,97 +4536,103 @@
       <c r="AE53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>14248000</v>
+      </c>
+      <c r="E54" s="3">
         <v>14429000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>14591000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>15468000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>14089000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>13899000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>13293000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>11009000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>7326000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>6999000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>6904000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>6584000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>6903000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>6553000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>7808000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>16193000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>16579000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>16540000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>16637000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>12735000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>12659000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>12341000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>12086000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>12425000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>11981000</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>11920000</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>11699000</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>13028000</v>
       </c>
-      <c r="AE54" s="3">
+      <c r="AF54" s="3">
         <v>12523000</v>
       </c>
     </row>
-    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4535,8 +4664,9 @@
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
       <c r="AE55" s="3"/>
-    </row>
-    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF55" s="3"/>
+    </row>
+    <row r="56" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4568,97 +4698,101 @@
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
       <c r="AE56" s="3"/>
-    </row>
-    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF56" s="3"/>
+    </row>
+    <row r="57" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>540000</v>
+      </c>
+      <c r="E57" s="3">
         <v>642000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>631000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>603000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>539000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>414000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>374000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>308000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>257000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>281000</v>
-      </c>
-      <c r="M57" s="3">
-        <v>346000</v>
       </c>
       <c r="N57" s="3">
         <v>346000</v>
       </c>
       <c r="O57" s="3">
+        <v>346000</v>
+      </c>
+      <c r="P57" s="3">
         <v>316000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>39000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>552000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>498000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>526000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>611000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>751000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>763000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>670000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>742000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>657000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>654000</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>678000</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>718000</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>678000</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>672000</v>
       </c>
-      <c r="AE57" s="3">
+      <c r="AF57" s="3">
         <v>660000</v>
       </c>
     </row>
-    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4693,274 +4827,283 @@
         <v>0</v>
       </c>
       <c r="N58" s="3">
+        <v>0</v>
+      </c>
+      <c r="O58" s="3">
         <v>1938000</v>
-      </c>
-      <c r="O58" s="3">
-        <v>1929000</v>
       </c>
       <c r="P58" s="3">
         <v>1929000</v>
       </c>
       <c r="Q58" s="3">
+        <v>1929000</v>
+      </c>
+      <c r="R58" s="3">
         <v>420000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>394000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>217000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>9000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>389000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>381000</v>
-      </c>
-      <c r="W58" s="3">
-        <v>432000</v>
       </c>
       <c r="X58" s="3">
         <v>432000</v>
       </c>
       <c r="Y58" s="3">
-        <v>52000</v>
+        <v>432000</v>
       </c>
       <c r="Z58" s="3">
         <v>52000</v>
       </c>
       <c r="AA58" s="3">
-        <v>0</v>
+        <v>52000</v>
       </c>
       <c r="AB58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC58" s="3">
         <v>3000</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>15000</v>
       </c>
-      <c r="AD58" s="3">
+      <c r="AE58" s="3">
         <v>503000</v>
       </c>
-      <c r="AE58" s="3">
+      <c r="AF58" s="3">
         <v>656000</v>
       </c>
     </row>
-    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1074000</v>
+      </c>
+      <c r="E59" s="3">
         <v>1009000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1267000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>2101000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>3699000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>3827000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>4018000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>2139000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2253000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1585000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1097000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>810000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>860000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>421000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1288000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1500000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1605000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1600000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>1790000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>1743000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>1874000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>1699000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>1645000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>1650000</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>1540000</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>1437000</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>2095000</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>2473000</v>
       </c>
-      <c r="AE59" s="3">
+      <c r="AF59" s="3">
         <v>2290000</v>
       </c>
     </row>
-    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1614000</v>
+      </c>
+      <c r="E60" s="3">
         <v>1651000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1898000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2704000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>4238000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>4241000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>4392000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2447000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2510000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1866000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1443000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>3094000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>3105000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2389000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2260000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2392000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>2348000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>2220000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>2930000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>2887000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>2976000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>2873000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>2354000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>2356000</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>2218000</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>2158000</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>2788000</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>3648000</v>
       </c>
-      <c r="AE60" s="3">
+      <c r="AF60" s="3">
         <v>3606000</v>
       </c>
     </row>
-    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>2032000</v>
+      </c>
+      <c r="E61" s="3">
         <v>2036000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>2040000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>3093000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>2717000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>3046000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>2774000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>2278000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1259000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1261000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1262000</v>
-      </c>
-      <c r="N61" s="3">
-        <v>1064000</v>
       </c>
       <c r="O61" s="3">
         <v>1064000</v>
@@ -4969,141 +5112,147 @@
         <v>1064000</v>
       </c>
       <c r="Q61" s="3">
+        <v>1064000</v>
+      </c>
+      <c r="R61" s="3">
         <v>9163000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>9082000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>9143000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>9713000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>9182000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>7341000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>9380000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>9238000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>9325000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>9921000</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>9899000</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>9850000</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>9509000</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AE61" s="3">
         <v>9938000</v>
       </c>
-      <c r="AE61" s="3">
+      <c r="AF61" s="3">
         <v>9022000</v>
       </c>
     </row>
-    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>334000</v>
+      </c>
+      <c r="E62" s="3">
         <v>346000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>370000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>547000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>787000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>804000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>744000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>613000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>519000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>459000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>318000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>7767000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>7653000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>7288000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>309000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>318000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>353000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>377000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>387000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>374000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>342000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>347000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>504000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>520000</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>568000</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>596000</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>605000</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>645000</v>
       </c>
-      <c r="AE62" s="3">
+      <c r="AF62" s="3">
         <v>827000</v>
       </c>
     </row>
-    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5191,8 +5340,11 @@
       <c r="AE63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5280,8 +5432,11 @@
       <c r="AE64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5369,97 +5524,103 @@
       <c r="AE65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3980000</v>
+      </c>
+      <c r="E66" s="3">
         <v>4033000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>4308000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>6344000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>7742000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>8091000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>7910000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>5338000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4288000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3586000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3023000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>11925000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>11843000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>10762000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>11753000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>11829000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>11883000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>12349000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>12540000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>10643000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>12821000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>12581000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>12306000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>12921000</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>12938000</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>12858000</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>13158000</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>14488000</v>
       </c>
-      <c r="AE66" s="3">
+      <c r="AF66" s="3">
         <v>13714000</v>
       </c>
     </row>
-    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5491,8 +5652,9 @@
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
       <c r="AE67" s="3"/>
-    </row>
-    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF67" s="3"/>
+    </row>
+    <row r="68" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5580,8 +5742,11 @@
       <c r="AE68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5669,8 +5834,11 @@
       <c r="AE69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5705,7 +5873,7 @@
         <v>0</v>
       </c>
       <c r="N70" s="3">
-        <v>1631000</v>
+        <v>0</v>
       </c>
       <c r="O70" s="3">
         <v>1631000</v>
@@ -5723,7 +5891,7 @@
         <v>1631000</v>
       </c>
       <c r="T70" s="3">
-        <v>1671000</v>
+        <v>1631000</v>
       </c>
       <c r="U70" s="3">
         <v>1671000</v>
@@ -5753,13 +5921,16 @@
         <v>1671000</v>
       </c>
       <c r="AD70" s="3">
+        <v>1671000</v>
+      </c>
+      <c r="AE70" s="3">
         <v>1771000</v>
       </c>
-      <c r="AE70" s="3">
+      <c r="AF70" s="3">
         <v>3036000</v>
       </c>
     </row>
-    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5847,97 +6018,103 @@
       <c r="AE71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>4532000</v>
+      </c>
+      <c r="E72" s="3">
         <v>4669000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>4553000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>3399000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>719000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>188000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-233000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>825000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-557000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-178000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>295000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-23954000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-23538000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-22793000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-22517000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-14220000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-13896000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-13835000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-13933000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-13912000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-16173000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-16257000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-16240000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-16525000</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-16987000</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>-16969000</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>-17463000</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>-17603000</v>
       </c>
-      <c r="AE72" s="3">
+      <c r="AF72" s="3">
         <v>-17028000</v>
       </c>
     </row>
-    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -6025,8 +6202,11 @@
       <c r="AE73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -6114,8 +6294,11 @@
       <c r="AE74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6203,97 +6386,103 @@
       <c r="AE75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>10268000</v>
+      </c>
+      <c r="E76" s="3">
         <v>10396000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>10283000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>9124000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>6347000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>5808000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>5383000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>5671000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>3038000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>3413000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>3881000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-6972000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-6571000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-5840000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-5576000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>2733000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>3065000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>2520000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>2426000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>421000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-1833000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>-1911000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>-1891000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>-2167000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>-2628000</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>-2609000</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>-3130000</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>-3231000</v>
       </c>
-      <c r="AE76" s="3">
+      <c r="AF76" s="3">
         <v>-4227000</v>
       </c>
     </row>
-    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6381,191 +6570,200 @@
       <c r="AE77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43646</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43555</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43465</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43373</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43281</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43190</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43100</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>43008</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42916</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42825</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42735</v>
       </c>
-      <c r="AE80" s="2">
+      <c r="AF80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>70000</v>
+      </c>
+      <c r="E81" s="3">
         <v>391000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>1389000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>3513000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>883000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>1237000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-764000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1434000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-345000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-439000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>5678000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-416000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-745000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-276000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-8319000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-346000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-101000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>75000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-44000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>580000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-170000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-272000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-8000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>307000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-41000</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>470000</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>75000</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>-973000</v>
       </c>
-      <c r="AE81" s="3">
+      <c r="AF81" s="3">
         <v>-1257000</v>
       </c>
     </row>
-    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6597,97 +6795,101 @@
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
       <c r="AE82" s="3"/>
-    </row>
-    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF82" s="3"/>
+    </row>
+    <row r="83" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>382000</v>
+      </c>
+      <c r="E83" s="3">
         <v>376000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>390000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>453000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>440000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>451000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>409000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>340000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>228000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>229000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>194000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>166000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>170000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>158000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>603000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>592000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>573000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>580000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>519000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>402000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>405000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>471000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>459000</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>306000</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>248000</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>223000</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>218000</v>
       </c>
-      <c r="AD83" s="3">
+      <c r="AE83" s="3">
         <v>233000</v>
       </c>
-      <c r="AE83" s="3">
+      <c r="AF83" s="3">
         <v>276000</v>
       </c>
     </row>
-    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6775,8 +6977,11 @@
       <c r="AE84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6864,8 +7069,11 @@
       <c r="AE85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6953,8 +7161,11 @@
       <c r="AE86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -7042,8 +7253,11 @@
       <c r="AE87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -7131,97 +7345,103 @@
       <c r="AE88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>506000</v>
+      </c>
+      <c r="E89" s="3">
         <v>515000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>889000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>1050000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>1313000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>909000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>853000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>563000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>443000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>394000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>388000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>9000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>382000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>376000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>397000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>441000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>329000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>397000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>456000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>405000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>504000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>435000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>656000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>472000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>331000</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>-157000</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>99000</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>-254000</v>
       </c>
-      <c r="AE89" s="3">
+      <c r="AF89" s="3">
         <v>376000</v>
       </c>
     </row>
-    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7253,97 +7473,101 @@
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
       <c r="AE90" s="3"/>
-    </row>
-    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF90" s="3"/>
+    </row>
+    <row r="91" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-423000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-530000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-497000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-524000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-540000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-415000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-344000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-265000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-178000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-149000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-143000</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
-      </c>
       <c r="O91" s="3">
         <v>0</v>
       </c>
       <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-3000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-6000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-8000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-10000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-11000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-6000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-10000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-6000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-2000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-3000</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-9000</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-5000</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-4000</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-531000</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>1006000</v>
       </c>
-      <c r="AE91" s="3">
+      <c r="AF91" s="3">
         <v>-1006000</v>
       </c>
     </row>
-    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7431,8 +7655,11 @@
       <c r="AE92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7520,97 +7747,103 @@
       <c r="AE93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-480000</v>
+      </c>
+      <c r="E94" s="3">
         <v>453000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>395000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-544000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-495000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-415000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-1947000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-455000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-175000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-147000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-139000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-34000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-102000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-345000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-511000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-545000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-563000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-516000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-856000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>1447000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-489000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-524000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>21000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-586000</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-379000</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-603000</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>380000</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-81000</v>
       </c>
-      <c r="AE94" s="3">
+      <c r="AF94" s="3">
         <v>-480000</v>
       </c>
     </row>
-    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7642,38 +7875,39 @@
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
       <c r="AE95" s="3"/>
-    </row>
-    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF95" s="3"/>
+    </row>
+    <row r="96" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-77000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-160000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-175000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-424000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-280000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-298000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-210000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-52000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-33000</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
       <c r="M96" s="3">
         <v>0</v>
       </c>
@@ -7731,8 +7965,11 @@
       <c r="AE96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7820,8 +8057,11 @@
       <c r="AE97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7909,8 +8149,11 @@
       <c r="AE98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7998,97 +8241,103 @@
       <c r="AE99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-215000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-190000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-1279000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-444000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-714000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-496000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>208000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-52000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-32000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-33000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-120000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-2000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-56000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-31000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>190000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>96000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>244000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>115000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>404000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-1782000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>46000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>160000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-610000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>114000</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>40000</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>524000</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-1112000</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>1213000</v>
       </c>
-      <c r="AE100" s="3">
+      <c r="AF100" s="3">
         <v>104000</v>
       </c>
     </row>
-    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -8176,93 +8425,99 @@
       <c r="AE101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-189000</v>
+      </c>
+      <c r="E102" s="3">
         <v>778000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>5000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>62000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>104000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-2000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-886000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>56000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>236000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>214000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>129000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-27000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>224000</v>
       </c>
-      <c r="P102" s="3">
-        <v>0</v>
-      </c>
       <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>76000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-8000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>10000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-4000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>4000</v>
       </c>
-      <c r="V102" s="3">
-        <v>0</v>
-      </c>
       <c r="W102" s="3">
+        <v>0</v>
+      </c>
+      <c r="X102" s="3">
         <v>1000</v>
-      </c>
-      <c r="X102" s="3">
-        <v>-1000</v>
       </c>
       <c r="Y102" s="3">
         <v>-1000</v>
       </c>
       <c r="Z102" s="3">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="AA102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB102" s="3">
         <v>-8000</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-236000</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>-633000</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>878000</v>
       </c>
-      <c r="AE102" s="3">
+      <c r="AF102" s="3">
         <v>0</v>
       </c>
     </row>
